--- a/XLA_Tools.xlsx
+++ b/XLA_Tools.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Kirsch" sheetId="1" r:id="rId1"/>
-    <sheet name="NhanChap" sheetId="3" r:id="rId2"/>
+    <sheet name="phép tương quan" sheetId="3" r:id="rId2"/>
     <sheet name="histogram matching" sheetId="2" r:id="rId3"/>
+    <sheet name="keo dan do tuong phan" sheetId="4" r:id="rId4"/>
+    <sheet name="tương quan" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="99">
   <si>
     <t>K1</t>
   </si>
@@ -200,14 +202,149 @@
     <t>Bước 4 không xài được nên tính tay nhé MN ^.^</t>
   </si>
   <si>
-    <t>Kết quả phép nhân chập ma trận ảnh I và ma trận mặt nạ K</t>
+    <t>Với cường độ sáng nằm trong đoạn [0,3], xác định phương trình đoạn thẳng OA</t>
+  </si>
+  <si>
+    <t>Không trình bày</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>y0</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Như vậy</t>
+  </si>
+  <si>
+    <t>y=</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Với cường độ sáng nằm trong đoạn [3,4], xác định phương trình đoạn thẳng AB</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Với cường độ sáng nằm trong đoạn [4,7], xác định phương trình đoạn thẳng BC</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Ta có các cường độ sáng mới sẽ được tính theo công thức sau:</t>
+  </si>
+  <si>
+    <t>Áp dụng vào biến đổi cường độ sáng cho ảnh ta thu được ảnh mới như sau</t>
+  </si>
+  <si>
+    <t>C(0, 0)</t>
+  </si>
+  <si>
+    <t>C(0, 1)</t>
+  </si>
+  <si>
+    <t>C(0, 2)</t>
+  </si>
+  <si>
+    <t>C(0, 3)</t>
+  </si>
+  <si>
+    <t>C(0, 4)</t>
+  </si>
+  <si>
+    <t>C(1, 0)</t>
+  </si>
+  <si>
+    <t>C(1, 1)</t>
+  </si>
+  <si>
+    <t>C(1, 2)</t>
+  </si>
+  <si>
+    <t>C(1, 3)</t>
+  </si>
+  <si>
+    <t>C(1, 4)</t>
+  </si>
+  <si>
+    <t>C(2, 0)</t>
+  </si>
+  <si>
+    <t>C(2, 1)</t>
+  </si>
+  <si>
+    <t>C(2, 2)</t>
+  </si>
+  <si>
+    <t>C(2, 3)</t>
+  </si>
+  <si>
+    <t>C(2, 4)</t>
+  </si>
+  <si>
+    <t>C(3, 0)</t>
+  </si>
+  <si>
+    <t>C(3, 1)</t>
+  </si>
+  <si>
+    <t>C(3, 2)</t>
+  </si>
+  <si>
+    <t>C(3, 3)</t>
+  </si>
+  <si>
+    <t>C(3, 4)</t>
+  </si>
+  <si>
+    <t>C(4, 0)</t>
+  </si>
+  <si>
+    <t>C(4, 1)</t>
+  </si>
+  <si>
+    <t>C(4, 2)</t>
+  </si>
+  <si>
+    <t>C(4, 3)</t>
+  </si>
+  <si>
+    <t>C(4, 4)</t>
+  </si>
+  <si>
+    <t>Tính ma trận tương quan giữa mặt nạ K và ma trận ảnh I</t>
+  </si>
+  <si>
+    <t>Khi vùng ảnh chứa các pixel có giá trị cao ta cần chuẩn hóa lại giá trị tương quan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00_);\(0.00\)"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,8 +401,41 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF006100"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Cambria Math"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,8 +463,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -610,14 +796,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -786,13 +1011,77 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="25" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="Calculation" xfId="5" builtinId="22"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,6 +1098,943 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="868828" cy="318036"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1927860" y="2674620"/>
+              <a:ext cx="868828" cy="318036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−0</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3−0</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−0</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1−0</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1927860" y="2674620"/>
+              <a:ext cx="868828" cy="318036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥−0)/(3−0)=(𝑦−0)/(1−0)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>435585</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629401" y="0"/>
+          <a:ext cx="3559784" cy="2148840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="868828" cy="318036"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1927860" y="4198620"/>
+              <a:ext cx="868828" cy="318036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−3</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>4−3</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>6−1</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1927860" y="4198620"/>
+              <a:ext cx="868828" cy="318036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥−3)/(4−3)=(𝑦−1)/(6−1)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="868828" cy="318036"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1927860" y="5722620"/>
+              <a:ext cx="868828" cy="318036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−4</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>7−4</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−6</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>7−6</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1927860" y="5722620"/>
+              <a:ext cx="868828" cy="318036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥−4)/(7−4)=(𝑦−6)/(7−6)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>260794</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152463</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1870384" cy="843693"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1479994" y="7391463"/>
+              <a:ext cx="1870384" cy="843693"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="{"/>
+                        <m:endChr m:val=""/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:eqArr>
+                          <m:eqArrPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:eqArrPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>=</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>3</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>         </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>∈[0,3]</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>=5</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−14       </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>∈[3,4]</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>      </m:t>
+                            </m:r>
+                          </m:e>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑦</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>=</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>+14</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>3</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>      </m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>∈[4,7]</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:eqArr>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1479994" y="7391463"/>
+              <a:ext cx="1870384" cy="843693"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>{█(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦=𝑥/3          𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∈[0,3]@</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦=5𝑥−14       𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∈[3,4]</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>      @𝑦=(𝑥+14)/3       𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∈[4,7])┤</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2587,13 +3813,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28">
         <v>0</v>
       </c>
@@ -2610,282 +3836,409 @@
         <v>0</v>
       </c>
       <c r="F1" s="28">
+        <v>0</v>
+      </c>
+      <c r="G1" s="28">
         <v>0</v>
       </c>
       <c r="T1" s="23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="66">
-        <v>0</v>
-      </c>
-      <c r="B2" s="38">
-        <v>1</v>
-      </c>
-      <c r="C2" s="38">
+    <row r="2" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6">
+        <v>3</v>
+      </c>
+      <c r="G2" s="28">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
         <v>2</v>
       </c>
-      <c r="D2" s="38">
-        <v>3</v>
-      </c>
-      <c r="E2" s="38">
+      <c r="J2" s="10">
+        <v>3</v>
+      </c>
+      <c r="K2" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="65">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10">
+        <v>5</v>
+      </c>
+      <c r="G3" s="28">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>6</v>
+      </c>
+      <c r="J3" s="10">
+        <v>7</v>
+      </c>
+      <c r="K3" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="65">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2</v>
+      </c>
+      <c r="F4" s="10">
+        <v>7</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>3</v>
+      </c>
+      <c r="J4" s="10">
+        <v>5</v>
+      </c>
+      <c r="K4" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="65">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9">
         <v>4</v>
       </c>
-      <c r="F2" s="28">
-        <v>0</v>
-      </c>
-      <c r="I2" s="38">
-        <v>1</v>
-      </c>
-      <c r="J2" s="38">
-        <v>1</v>
-      </c>
-      <c r="K2" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="66">
-        <v>0</v>
-      </c>
-      <c r="B3" s="38">
-        <v>5</v>
-      </c>
-      <c r="C3" s="38">
-        <v>6</v>
-      </c>
-      <c r="D3" s="38">
-        <v>7</v>
-      </c>
-      <c r="E3" s="38">
-        <v>8</v>
-      </c>
-      <c r="F3" s="28">
-        <v>0</v>
-      </c>
-      <c r="I3" s="38">
-        <v>1</v>
-      </c>
-      <c r="J3" s="38">
-        <v>1</v>
-      </c>
-      <c r="K3" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="66">
-        <v>0</v>
-      </c>
-      <c r="B4" s="38">
-        <v>9</v>
-      </c>
-      <c r="C4" s="38">
-        <v>10</v>
-      </c>
-      <c r="D4" s="38">
-        <v>11</v>
-      </c>
-      <c r="E4" s="38">
-        <v>12</v>
-      </c>
-      <c r="F4" s="28">
-        <v>0</v>
-      </c>
-      <c r="I4" s="38">
-        <v>1</v>
-      </c>
-      <c r="J4" s="38">
-        <v>1</v>
-      </c>
-      <c r="K4" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="66">
-        <v>0</v>
-      </c>
-      <c r="B5" s="38">
-        <v>13</v>
-      </c>
-      <c r="C5" s="38">
-        <v>14</v>
-      </c>
-      <c r="D5" s="38">
-        <v>15</v>
-      </c>
-      <c r="E5" s="38">
-        <v>16</v>
-      </c>
-      <c r="F5" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="66">
-        <v>0</v>
-      </c>
-      <c r="B6" s="38">
-        <v>0</v>
-      </c>
-      <c r="C6" s="38">
-        <v>0</v>
-      </c>
-      <c r="D6" s="38">
-        <v>0</v>
-      </c>
-      <c r="E6" s="38">
-        <v>0</v>
-      </c>
-      <c r="F6" s="28">
+      <c r="C5" s="10">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="65">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10">
+        <v>5</v>
+      </c>
+      <c r="G6" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="66">
-        <v>0</v>
-      </c>
-      <c r="B7" s="66">
-        <v>0</v>
-      </c>
-      <c r="C7" s="66">
-        <v>0</v>
-      </c>
-      <c r="D7" s="66">
-        <v>0</v>
-      </c>
-      <c r="E7" s="66">
-        <v>0</v>
-      </c>
-      <c r="F7" s="66">
+      <c r="A7" s="85">
+        <v>0</v>
+      </c>
+      <c r="B7" s="86">
+        <v>0</v>
+      </c>
+      <c r="C7" s="86">
+        <v>0</v>
+      </c>
+      <c r="D7" s="78">
+        <v>0</v>
+      </c>
+      <c r="E7" s="78">
+        <v>0</v>
+      </c>
+      <c r="F7" s="78">
+        <v>0</v>
+      </c>
+      <c r="G7" s="78">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="28"/>
+        <v>97</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="28">
-        <f>A1*$K$4+B1*$J$4+C1*$I$4+A2*$K$3+B2*$J$3+C2*$I$3+A3*$K$2+B3*$J$2+C3*$I$2</f>
-        <v>14</v>
+        <f>A1*$I$2+B1*$J$2+C1*$K$2+A2*$I$3+B2*$J$3+C2*$K$3+A3*$I$4+B3*$J$4+C3*$K$4</f>
+        <v>65</v>
       </c>
       <c r="C9" s="28">
-        <f t="shared" ref="C9:E9" si="0">B1*$K$4+C1*$J$4+D1*$I$4+B2*$K$3+C2*$J$3+D2*$I$3+B3*$K$2+C3*$J$2+D3*$I$2</f>
-        <v>24</v>
+        <f t="shared" ref="C9:F9" si="0">B1*$I$2+C1*$J$2+D1*$K$2+B2*$I$3+C2*$J$3+D2*$K$3+B3*$I$4+C3*$J$4+D3*$K$4</f>
+        <v>116</v>
       </c>
       <c r="D9" s="28">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="E9" s="28">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="F9" s="28"/>
+        <v>129</v>
+      </c>
+      <c r="F9" s="28">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="28">
-        <f t="shared" ref="B10:E11" si="1">A2*$K$4+B2*$J$4+C2*$I$4+A3*$K$3+B3*$J$3+C3*$I$3+A4*$K$2+B4*$J$2+C4*$I$2</f>
-        <v>33</v>
+        <f t="shared" ref="B10:F13" si="1">A2*$I$2+B2*$J$2+C2*$K$2+A3*$I$3+B3*$J$3+C3*$K$3+A4*$I$4+B4*$J$4+C4*$K$4</f>
+        <v>125</v>
       </c>
       <c r="C10" s="28">
         <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="D10" s="28">
+        <v>171</v>
+      </c>
+      <c r="D10" s="87">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="E10" s="28">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="F10" s="28"/>
+        <v>174</v>
+      </c>
+      <c r="F10" s="28">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" s="28">
-        <f>A3*$K$4+B3*$J$4+C3*$I$4+A4*$K$3+B4*$J$3+C4*$I$3+A5*$K$2+B5*$J$2+C5*$I$2</f>
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>96</v>
       </c>
       <c r="C11" s="28">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="D11" s="28">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="E11" s="28">
         <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="F11" s="28"/>
+        <v>171</v>
+      </c>
+      <c r="F11" s="28">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="28">
-        <f t="shared" ref="B12:E12" si="2">A4*$K$4+B4*$J$4+C4*$I$4+A5*$K$3+B5*$J$3+C5*$I$3+A6*$K$2+B6*$J$2+C6*$I$2</f>
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>123</v>
       </c>
       <c r="C12" s="28">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="D12" s="28">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="E12" s="28">
+        <f t="shared" si="1"/>
+        <v>187</v>
+      </c>
+      <c r="F12" s="28">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="28">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C13" s="28">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="D13" s="28">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="E13" s="28">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="F13" s="28">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="28">
+        <f>ROUND(B9/(SQRT(A1*A1+B1*B1+C1*C1+A2*A2+B2*B2+C2*C2+A3*A3+B3*B3+C3*C3)*SQRT($I$2*$I$2+$J$2*$J$2+$K$2*$K$2+$I$3*$I$3+$J$3*$J$3+$K$3*$K$3+$I$4*$I$4+$J$4*$J$4+$K$4*$K$4)),2)</f>
+        <v>0.52</v>
+      </c>
+      <c r="C16" s="28">
+        <f t="shared" ref="C16:F16" si="2">ROUND(C9/(SQRT(B1*B1+C1*C1+D1*D1+B2*B2+C2*C2+D2*D2+B3*B3+C3*C3+D3*D3)*SQRT($I$2*$I$2+$J$2*$J$2+$K$2*$K$2+$I$3*$I$3+$J$3*$J$3+$K$3*$K$3+$I$4*$I$4+$J$4*$J$4+$K$4*$K$4)),2)</f>
+        <v>0.74</v>
+      </c>
+      <c r="D16" s="28">
         <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="D12" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="E16" s="28">
         <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="E12" s="28">
+        <v>0.77</v>
+      </c>
+      <c r="F16" s="28">
         <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="F12" s="28"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+        <v>0.66</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="B17" s="28">
+        <f t="shared" ref="B17:F20" si="3">ROUND(B10/(SQRT(A2*A2+B2*B2+C2*C2+A3*A3+B3*B3+C3*C3+A4*A4+B4*B4+C4*C4)*SQRT($I$2*$I$2+$J$2*$J$2+$K$2*$K$2+$I$3*$I$3+$J$3*$J$3+$K$3*$K$3+$I$4*$I$4+$J$4*$J$4+$K$4*$K$4)),2)</f>
+        <v>0.75</v>
+      </c>
+      <c r="C17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="E17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="F17" s="28">
+        <f t="shared" si="3"/>
+        <v>0.79</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="B18" s="28">
+        <f t="shared" si="3"/>
+        <v>0.71</v>
+      </c>
+      <c r="C18" s="28">
+        <f t="shared" si="3"/>
+        <v>0.86</v>
+      </c>
+      <c r="D18" s="28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="28">
+        <f t="shared" si="3"/>
+        <v>0.81</v>
+      </c>
+      <c r="F18" s="28">
+        <f t="shared" si="3"/>
+        <v>0.68</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="B19" s="28">
+        <f t="shared" si="3"/>
+        <v>0.81</v>
+      </c>
+      <c r="C19" s="28">
+        <f t="shared" si="3"/>
+        <v>0.86</v>
+      </c>
+      <c r="D19" s="28">
+        <f t="shared" si="3"/>
+        <v>0.81</v>
+      </c>
+      <c r="E19" s="88">
+        <f t="shared" si="3"/>
+        <v>0.86</v>
+      </c>
+      <c r="F19" s="28">
+        <f t="shared" si="3"/>
+        <v>0.68</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="B20" s="28">
+        <f t="shared" si="3"/>
+        <v>0.66</v>
+      </c>
+      <c r="C20" s="28">
+        <f t="shared" si="3"/>
+        <v>0.74</v>
+      </c>
+      <c r="D20" s="28">
+        <f t="shared" si="3"/>
+        <v>0.78</v>
+      </c>
+      <c r="E20" s="28">
+        <f t="shared" si="3"/>
+        <v>0.77</v>
+      </c>
+      <c r="F20" s="28">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>
@@ -2907,7 +4260,7 @@
   <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F7"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4381,27 +5734,27 @@
       </c>
     </row>
     <row r="57" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="J57" s="65" t="s">
+      <c r="J57" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="65"/>
-      <c r="N57" s="65"/>
+      <c r="K57" s="66"/>
+      <c r="L57" s="66"/>
+      <c r="M57" s="66"/>
+      <c r="N57" s="66"/>
     </row>
     <row r="58" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="J58" s="65"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="65"/>
-      <c r="M58" s="65"/>
-      <c r="N58" s="65"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="66"/>
+      <c r="M58" s="66"/>
+      <c r="N58" s="66"/>
     </row>
     <row r="59" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="J59" s="65"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="65"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="65"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="66"/>
+      <c r="M59" s="66"/>
+      <c r="N59" s="66"/>
     </row>
     <row r="60" spans="8:15" x14ac:dyDescent="0.25">
       <c r="J60" s="24"/>
@@ -4420,4 +5773,2988 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10">
+        <v>7</v>
+      </c>
+      <c r="F4" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>6</v>
+      </c>
+      <c r="D5" s="10">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3</v>
+      </c>
+      <c r="F6" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G14" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="69"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G15" s="30">
+        <v>0</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="30">
+        <v>3</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G16" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="71">
+        <v>0</v>
+      </c>
+      <c r="I16" s="71">
+        <v>0</v>
+      </c>
+      <c r="J16" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="71">
+        <v>3</v>
+      </c>
+      <c r="L16" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C19" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="28">
+        <f>(L16-I16)/(K16-H16)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="28">
+        <f>-((H16*(L16-I16))/(K16-H16))+I16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G22" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="74"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G23" s="30">
+        <v>3</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="30">
+        <v>4</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G24" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="71">
+        <v>3</v>
+      </c>
+      <c r="I24" s="71">
+        <v>1</v>
+      </c>
+      <c r="J24" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="71">
+        <v>4</v>
+      </c>
+      <c r="L24" s="71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="28">
+        <f>(L24-I24)/(K24-H24)</f>
+        <v>5</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="28">
+        <f>-((H24*(L24-I24))/(K24-H24))+I24</f>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G30" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="69"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G31" s="30">
+        <v>4</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="30">
+        <v>7</v>
+      </c>
+      <c r="K31" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="L31" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G32" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="71">
+        <v>4</v>
+      </c>
+      <c r="I32" s="71">
+        <v>6</v>
+      </c>
+      <c r="J32" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" s="71">
+        <v>7</v>
+      </c>
+      <c r="L32" s="71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="28">
+        <f>(L32-I32)/(K32-H32)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="28">
+        <f>-((H32*(L32-I32))/(K32-H32))+I32</f>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="5">
+        <v>5</v>
+      </c>
+      <c r="C47" s="6">
+        <v>7</v>
+      </c>
+      <c r="D47" s="6">
+        <v>6</v>
+      </c>
+      <c r="E47" s="6">
+        <v>4</v>
+      </c>
+      <c r="F47" s="6">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <f>ROUND(IF(AND(B47&gt;$G$15,B47&lt;=$J$15),B47*$D$19+$G$19,IF(AND(B47&gt;$G$23,B47&lt;=$J$23),B47*$D$27+$G$27,B47*$D$35+$G$35)),0)</f>
+        <v>6</v>
+      </c>
+      <c r="J47">
+        <f>ROUND(IF(AND(C47&gt;$G$15,C47&lt;=$J$15),C47*$D$19+$G$19,IF(AND(C47&gt;$G$23,C47&lt;=$J$23),C47*$D$27+$G$27,C47*$D$35+$G$35)),0)</f>
+        <v>7</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ref="J47:M51" si="0">ROUND(IF(AND(D47&gt;$G$15,D47&lt;=$J$15),D47*$D$19+$G$19,IF(AND(D47&gt;$G$23,D47&lt;=$J$23),D47*$D$27+$G$27,D47*$D$35+$G$35)),0)</f>
+        <v>7</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="9">
+        <v>2</v>
+      </c>
+      <c r="C48" s="10">
+        <v>2</v>
+      </c>
+      <c r="D48" s="10">
+        <v>3</v>
+      </c>
+      <c r="E48" s="10">
+        <v>7</v>
+      </c>
+      <c r="F48" s="10">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ref="I48:I51" si="1">ROUND(IF(AND(B48&gt;$G$15,B48&lt;=$J$15),B48*$D$19+$G$19,IF(AND(B48&gt;$G$23,B48&lt;=$J$23),B48*$D$27+$G$27,B48*$D$35+$G$35)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="9">
+        <v>5</v>
+      </c>
+      <c r="C49" s="10">
+        <v>6</v>
+      </c>
+      <c r="D49" s="10">
+        <v>7</v>
+      </c>
+      <c r="E49" s="10">
+        <v>2</v>
+      </c>
+      <c r="F49" s="10">
+        <v>7</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="9">
+        <v>4</v>
+      </c>
+      <c r="C50" s="10">
+        <v>3</v>
+      </c>
+      <c r="D50" s="10">
+        <v>5</v>
+      </c>
+      <c r="E50" s="10">
+        <v>3</v>
+      </c>
+      <c r="F50" s="10">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="9">
+        <v>4</v>
+      </c>
+      <c r="C51" s="10">
+        <v>4</v>
+      </c>
+      <c r="D51" s="10">
+        <v>7</v>
+      </c>
+      <c r="E51" s="10">
+        <v>5</v>
+      </c>
+      <c r="F51" s="10">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G30:L30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X81"/>
+  <sheetViews>
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28">
+        <v>0</v>
+      </c>
+      <c r="C1" s="28">
+        <v>0</v>
+      </c>
+      <c r="D1" s="28">
+        <v>0</v>
+      </c>
+      <c r="E1" s="28">
+        <v>0</v>
+      </c>
+      <c r="F1" s="28">
+        <v>0</v>
+      </c>
+      <c r="G1" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6">
+        <v>3</v>
+      </c>
+      <c r="G2" s="75">
+        <v>0</v>
+      </c>
+      <c r="H2" s="38">
+        <f>$C$9*(A1*$D$8+B1*$E$8+C1*$F$8+A2*$D$9+B2*$E$9+C2*$F$9+A3*$D$10+B3*$E$10+C3*$F$10)</f>
+        <v>65</v>
+      </c>
+      <c r="I2" s="38">
+        <f>$C$9*(B1*$D$8+C1*$E$8+D1*$F$8+B2*$D$9+C2*$E$9+D2*$F$9+B3*$D$10+C3*$E$10+D3*$F$10)</f>
+        <v>116</v>
+      </c>
+      <c r="J2" s="38">
+        <f t="shared" ref="H2:L6" si="0">$C$9*(C1*$D$8+D1*$E$8+E1*$F$8+C2*$D$9+D2*$E$9+E2*$F$9+C3*$D$10+D3*$E$10+E3*$F$10)</f>
+        <v>134</v>
+      </c>
+      <c r="K2" s="38">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="L2" s="38">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="N2" s="70">
+        <f>ROUND(H2,0)</f>
+        <v>65</v>
+      </c>
+      <c r="O2" s="70">
+        <f>ROUND(I2,0)</f>
+        <v>116</v>
+      </c>
+      <c r="P2" s="70">
+        <f t="shared" ref="O2:R6" si="1">ROUND(J2,0)</f>
+        <v>134</v>
+      </c>
+      <c r="Q2" s="70">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="R2" s="70">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="T2" s="76">
+        <f>ROUND(N2/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(B13:D15))), 4)</f>
+        <v>0.51539999999999997</v>
+      </c>
+      <c r="U2" s="76">
+        <f>ROUND(O2/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(F13:H15))), 4)</f>
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="V2" s="76">
+        <f>ROUND(P2/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(J13:L15))),4)</f>
+        <v>0.75349999999999995</v>
+      </c>
+      <c r="W2" s="76">
+        <f>ROUND(Q2/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(N13:P15))),4)</f>
+        <v>0.77180000000000004</v>
+      </c>
+      <c r="X2" s="76">
+        <f>ROUND(R2/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(R13:T15))),4)</f>
+        <v>0.65659999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10">
+        <v>5</v>
+      </c>
+      <c r="G3" s="75">
+        <v>0</v>
+      </c>
+      <c r="H3" s="38">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="I3" s="38">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="J3" s="38">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="K3" s="38">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="L3" s="38">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="N3" s="70">
+        <f t="shared" ref="N3:N6" si="2">ROUND(H3,0)</f>
+        <v>125</v>
+      </c>
+      <c r="O3" s="70">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+      <c r="P3" s="70">
+        <f t="shared" si="1"/>
+        <v>166</v>
+      </c>
+      <c r="Q3" s="70">
+        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="R3" s="70">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="T3" s="76">
+        <f>ROUND(N3/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(B17:D19))),4)</f>
+        <v>0.75049999999999994</v>
+      </c>
+      <c r="U3" s="76">
+        <f>ROUND(O3/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(F17:H19))), 4)</f>
+        <v>0.79749999999999999</v>
+      </c>
+      <c r="V3" s="76">
+        <f>ROUND(P3/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(J17:L19))), 4)</f>
+        <v>0.75080000000000002</v>
+      </c>
+      <c r="W3" s="76">
+        <f>ROUND(Q3/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(N17:P19))), 4)</f>
+        <v>0.79649999999999999</v>
+      </c>
+      <c r="X3" s="76">
+        <f>ROUND(R3/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(R17:T19))), 4)</f>
+        <v>0.78620000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2</v>
+      </c>
+      <c r="F4" s="10">
+        <v>7</v>
+      </c>
+      <c r="G4" s="75">
+        <v>0</v>
+      </c>
+      <c r="H4" s="38">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I4" s="38">
+        <f>$C$9*(B3*$D$8+C3*$E$8+D3*$F$8+B4*$D$9+C4*$E$9+D4*$F$9+B5*$D$10+C5*$E$10+D5*$F$10)</f>
+        <v>159</v>
+      </c>
+      <c r="J4" s="38">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+      <c r="K4" s="38">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="L4" s="38">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="N4" s="70">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="O4" s="70">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+      <c r="P4" s="70">
+        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="Q4" s="70">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+      <c r="R4" s="70">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="T4" s="76">
+        <f>ROUND(N4/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(B21:D23))), 4)</f>
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="U4" s="76">
+        <f>ROUND(O4/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(F21:H23))), 4)</f>
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="V4" s="76">
+        <f>ROUND(P4/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(J21:L23))), 4)</f>
+        <v>1</v>
+      </c>
+      <c r="W4" s="76">
+        <f>ROUND(Q4/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(N21:P23))), 4)</f>
+        <v>0.81310000000000004</v>
+      </c>
+      <c r="X4" s="76">
+        <f>ROUND(R4/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(R21:T23))), 4)</f>
+        <v>0.67969999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3</v>
+      </c>
+      <c r="G5" s="77">
+        <v>0</v>
+      </c>
+      <c r="H5" s="38">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="I5" s="38">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="J5" s="38">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="K5" s="38">
+        <f t="shared" si="0"/>
+        <v>187</v>
+      </c>
+      <c r="L5" s="38">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="N5" s="70">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="O5" s="70">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="P5" s="70">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="Q5" s="70">
+        <f t="shared" si="1"/>
+        <v>187</v>
+      </c>
+      <c r="R5" s="70">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="T5" s="76">
+        <f>ROUND(N5/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(B25:D27))), 4)</f>
+        <v>0.81289999999999996</v>
+      </c>
+      <c r="U5" s="76">
+        <f>ROUND(O5/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(F25:H27))), 4)</f>
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="V5" s="76">
+        <f>ROUND(P5/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(J25:L27))), 4)</f>
+        <v>0.8095</v>
+      </c>
+      <c r="W5" s="76">
+        <f>ROUND(Q5/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(N25:P27))), 4)</f>
+        <v>0.85950000000000004</v>
+      </c>
+      <c r="X5" s="76">
+        <f>ROUND(R5/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(R25:T27))), 4)</f>
+        <v>0.67879999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10">
+        <v>5</v>
+      </c>
+      <c r="G6" s="77">
+        <v>0</v>
+      </c>
+      <c r="H6" s="38">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="I6" s="38">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="J6" s="38">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="K6" s="38">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="L6" s="38">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="N6" s="70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="O6" s="70">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="P6" s="70">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="Q6" s="70">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="R6" s="70">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="T6" s="76">
+        <f>ROUND(N6/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(B29:D31))), 4)</f>
+        <v>0.65620000000000001</v>
+      </c>
+      <c r="U6" s="76">
+        <f>ROUND(O6/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(F29:H31))), 4)</f>
+        <v>0.74019999999999997</v>
+      </c>
+      <c r="V6" s="76">
+        <f>ROUND(P6/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(J29:L31))), 4)</f>
+        <v>0.7782</v>
+      </c>
+      <c r="W6" s="76">
+        <f>ROUND(Q6/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(N29:P31))), 4)</f>
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="X6" s="76">
+        <f>ROUND(R6/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(R29:T31))), 4)</f>
+        <v>0.69650000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
+        <v>0</v>
+      </c>
+      <c r="B7" s="78">
+        <v>0</v>
+      </c>
+      <c r="C7" s="78">
+        <v>0</v>
+      </c>
+      <c r="D7" s="78">
+        <v>0</v>
+      </c>
+      <c r="E7" s="78">
+        <v>0</v>
+      </c>
+      <c r="F7" s="78">
+        <v>0</v>
+      </c>
+      <c r="G7" s="77">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="10">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3</v>
+      </c>
+      <c r="F8" s="10">
+        <v>7</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="79">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>6</v>
+      </c>
+      <c r="E9" s="10">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10">
+        <v>3</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="80"/>
+      <c r="B13" s="38">
+        <f>A1</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="38">
+        <f t="shared" ref="C13:D13" si="3">B1</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="81"/>
+      <c r="F13" s="38">
+        <f>B1</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="38">
+        <f t="shared" ref="G13:H15" si="4">C1</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="81"/>
+      <c r="J13" s="38">
+        <f>C1</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="38">
+        <f t="shared" ref="K13:L15" si="5">D1</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="81"/>
+      <c r="N13" s="38">
+        <f>D1</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="38">
+        <f t="shared" ref="N13:P15" si="6">E1</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="38">
+        <f t="shared" ref="R13:T15" si="7">E1</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(B13&gt;0, CONCATENATE(B13,"*",$D$8,"+"),""), IF(C13&gt;0, CONCATENATE(C13,"*",$E$8,"+"),""), IF(D13&gt;0, CONCATENATE(D13,"*",$F$8,"+"),""), IF(B14&gt;0, CONCATENATE(B14,"*",$D$9,"+"),""), IF(C14&gt;0, CONCATENATE(C14,"*",$E$9,"+"),""), IF(D14&gt;0, CONCATENATE(D14,"*",$F$9,"+"),""), IF(B15&gt;0, CONCATENATE(B15,"*",$D$10,"+"),""), IF(C15&gt;0, CONCATENATE(C15,"*",$E$10,"+"),""), IF(D15&gt;0, CONCATENATE(D15,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(B13&gt;0, CONCATENATE(B13,"*",$D$8,"+"),""), IF(C13&gt;0, CONCATENATE(C13,"*",$E$8,"+"),""), IF(D13&gt;0, CONCATENATE(D13,"*",$F$8,"+"),""), IF(B14&gt;0, CONCATENATE(B14,"*",$D$9,"+"),""), IF(C14&gt;0, CONCATENATE(C14,"*",$E$9,"+"),""), IF(D14&gt;0, CONCATENATE(D14,"*",$F$9,"+"),""), IF(B15&gt;0, CONCATENATE(B15,"*",$D$10,"+"),""), IF(C15&gt;0, CONCATENATE(C15,"*",$E$10,"+"),""), IF(D15&gt;0, CONCATENATE(D15,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(B13*$D$8+C13*$E$8+D13*$F$8+B14*$D$9+C14*$E$9+D14*$F$9+B15*$D$10+C15*$E$10+D15*$F$10), 4))</f>
+        <v>5*7+7*2+2*5+2*3 = 65</v>
+      </c>
+      <c r="B14" s="38">
+        <f t="shared" ref="B14:D15" si="8">A2</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="71">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="D14" s="71">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="E14" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(F13&gt;0, CONCATENATE(F13,"*",$D$8,"+"),""), IF(G13&gt;0, CONCATENATE(G13,"*",$E$8,"+"),""), IF(H13&gt;0, CONCATENATE(H13,"*",$F$8,"+"),""), IF(F14&gt;0, CONCATENATE(F14,"*",$D$9,"+"),""), IF(G14&gt;0, CONCATENATE(G14,"*",$E$9,"+"),""), IF(H14&gt;0, CONCATENATE(H14,"*",$F$9,"+"),""), IF(F15&gt;0, CONCATENATE(F15,"*",$D$10,"+"),""), IF(G15&gt;0, CONCATENATE(G15,"*",$E$10,"+"),""), IF(H15&gt;0, CONCATENATE(H15,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(F13&gt;0, CONCATENATE(F13,"*",$D$8,"+"),""), IF(G13&gt;0, CONCATENATE(G13,"*",$E$8,"+"),""), IF(H13&gt;0, CONCATENATE(H13,"*",$F$8,"+"),""), IF(F14&gt;0, CONCATENATE(F14,"*",$D$9,"+"),""), IF(G14&gt;0, CONCATENATE(G14,"*",$E$9,"+"),""), IF(H14&gt;0, CONCATENATE(H14,"*",$F$9,"+"),""), IF(F15&gt;0, CONCATENATE(F15,"*",$D$10,"+"),""), IF(G15&gt;0, CONCATENATE(G15,"*",$E$10,"+"),""), IF(H15&gt;0, CONCATENATE(H15,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(F13*$D$8+G13*$E$8+H13*$F$8+F14*$D$9+G14*$E$9+H14*$F$9+F15*$D$10+G15*$E$10+H15*$F$10), 4))</f>
+        <v>5*6+7*7+6*2+2*3+2*5+3*3 = 116</v>
+      </c>
+      <c r="F14" s="71">
+        <f t="shared" ref="F14:F15" si="9">B2</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="71">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H14" s="71">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="I14" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(J13&gt;0, CONCATENATE(J13,"*",$D$8,"+"),""), IF(K13&gt;0, CONCATENATE(K13,"*",$E$8,"+"),""), IF(L13&gt;0, CONCATENATE(L13,"*",$F$8,"+"),""), IF(J14&gt;0, CONCATENATE(J14,"*",$D$9,"+"),""), IF(K14&gt;0, CONCATENATE(K14,"*",$E$9,"+"),""), IF(L14&gt;0, CONCATENATE(L14,"*",$F$9,"+"),""), IF(J15&gt;0, CONCATENATE(J15,"*",$D$10,"+"),""), IF(K15&gt;0, CONCATENATE(K15,"*",$E$10,"+"),""), IF(L15&gt;0, CONCATENATE(L15,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(J13&gt;0, CONCATENATE(J13,"*",$D$8,"+"),""), IF(K13&gt;0, CONCATENATE(K13,"*",$E$8,"+"),""), IF(L13&gt;0, CONCATENATE(L13,"*",$F$8,"+"),""), IF(J14&gt;0, CONCATENATE(J14,"*",$D$9,"+"),""), IF(K14&gt;0, CONCATENATE(K14,"*",$E$9,"+"),""), IF(L14&gt;0, CONCATENATE(L14,"*",$F$9,"+"),""), IF(J15&gt;0, CONCATENATE(J15,"*",$D$10,"+"),""), IF(K15&gt;0, CONCATENATE(K15,"*",$E$10,"+"),""), IF(L15&gt;0, CONCATENATE(L15,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(J13*$D$8+K13*$E$8+L13*$F$8+J14*$D$9+K14*$E$9+L14*$F$9+J15*$D$10+K15*$E$10+L15*$F$10), 4))</f>
+        <v>7*6+6*7+4*2+2*3+3*5+7*3 = 134</v>
+      </c>
+      <c r="J14" s="71">
+        <f t="shared" ref="J14:J15" si="10">C2</f>
+        <v>7</v>
+      </c>
+      <c r="K14" s="71">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="L14" s="71">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="M14" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(N13&gt;0, CONCATENATE(N13,"*",$D$8,"+"),""), IF(O13&gt;0, CONCATENATE(O13,"*",$E$8,"+"),""), IF(P13&gt;0, CONCATENATE(P13,"*",$F$8,"+"),""), IF(N14&gt;0, CONCATENATE(N14,"*",$D$9,"+"),""), IF(O14&gt;0, CONCATENATE(O14,"*",$E$9,"+"),""), IF(P14&gt;0, CONCATENATE(P14,"*",$F$9,"+"),""), IF(N15&gt;0, CONCATENATE(N15,"*",$D$10,"+"),""), IF(O15&gt;0, CONCATENATE(O15,"*",$E$10,"+"),""), IF(P15&gt;0, CONCATENATE(P15,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(N13&gt;0, CONCATENATE(N13,"*",$D$8,"+"),""), IF(O13&gt;0, CONCATENATE(O13,"*",$E$8,"+"),""), IF(P13&gt;0, CONCATENATE(P13,"*",$F$8,"+"),""), IF(N14&gt;0, CONCATENATE(N14,"*",$D$9,"+"),""), IF(O14&gt;0, CONCATENATE(O14,"*",$E$9,"+"),""), IF(P14&gt;0, CONCATENATE(P14,"*",$F$9,"+"),""), IF(N15&gt;0, CONCATENATE(N15,"*",$D$10,"+"),""), IF(O15&gt;0, CONCATENATE(O15,"*",$E$10,"+"),""), IF(P15&gt;0, CONCATENATE(P15,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(N13*$D$8+O13*$E$8+P13*$F$8+N14*$D$9+O14*$E$9+P14*$F$9+N15*$D$10+O15*$E$10+P15*$F$10), 4))</f>
+        <v>6*6+4*7+3*2+3*3+7*5+5*3 = 129</v>
+      </c>
+      <c r="N14" s="71">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="O14" s="71">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="P14" s="71">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q14" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(R13&gt;0, CONCATENATE(R13,"*",$D$8,"+"),""), IF(S13&gt;0, CONCATENATE(S13,"*",$E$8,"+"),""), IF(T13&gt;0, CONCATENATE(T13,"*",$F$8,"+"),""), IF(R14&gt;0, CONCATENATE(R14,"*",$D$9,"+"),""), IF(S14&gt;0, CONCATENATE(S14,"*",$E$9,"+"),""), IF(T14&gt;0, CONCATENATE(T14,"*",$F$9,"+"),""), IF(R15&gt;0, CONCATENATE(R15,"*",$D$10,"+"),""), IF(S15&gt;0, CONCATENATE(S15,"*",$E$10,"+"),""), IF(T15&gt;0, CONCATENATE(T15,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(R13&gt;0, CONCATENATE(R13,"*",$D$8,"+"),""), IF(S13&gt;0, CONCATENATE(S13,"*",$E$8,"+"),""), IF(T13&gt;0, CONCATENATE(T13,"*",$F$8,"+"),""), IF(R14&gt;0, CONCATENATE(R14,"*",$D$9,"+"),""), IF(S14&gt;0, CONCATENATE(S14,"*",$E$9,"+"),""), IF(T14&gt;0, CONCATENATE(T14,"*",$F$9,"+"),""), IF(R15&gt;0, CONCATENATE(R15,"*",$D$10,"+"),""), IF(S15&gt;0, CONCATENATE(S15,"*",$E$10,"+"),""), IF(T15&gt;0, CONCATENATE(T15,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(R13*$D$8+S13*$E$8+T13*$F$8+R14*$D$9+S14*$E$9+T14*$F$9+R15*$D$10+S15*$E$10+T15*$F$10), 4))</f>
+        <v>4*6+3*7+7*3+5*5 = 91</v>
+      </c>
+      <c r="R14" s="71">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="S14" s="71">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="T14" s="38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="80"/>
+      <c r="B15" s="38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="71">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="71">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="81"/>
+      <c r="F15" s="71">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="G15" s="71">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H15" s="71">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I15" s="81"/>
+      <c r="J15" s="71">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="K15" s="71">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L15" s="71">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="M15" s="81"/>
+      <c r="N15" s="71">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O15" s="71">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="P15" s="71">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="71">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="S15" s="71">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="T15" s="38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="80"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="80"/>
+      <c r="B17" s="38">
+        <f>A2</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="71">
+        <f t="shared" ref="C17:D17" si="11">B2</f>
+        <v>5</v>
+      </c>
+      <c r="D17" s="71">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="E17" s="81"/>
+      <c r="F17" s="71">
+        <f>B2</f>
+        <v>5</v>
+      </c>
+      <c r="G17" s="71">
+        <f t="shared" ref="G17:H19" si="12">C2</f>
+        <v>7</v>
+      </c>
+      <c r="H17" s="71">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="I17" s="81"/>
+      <c r="J17" s="71">
+        <f>C2</f>
+        <v>7</v>
+      </c>
+      <c r="K17" s="71">
+        <f t="shared" ref="K17:L19" si="13">D2</f>
+        <v>6</v>
+      </c>
+      <c r="L17" s="71">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="M17" s="81"/>
+      <c r="N17" s="71">
+        <f>D2</f>
+        <v>6</v>
+      </c>
+      <c r="O17" s="71">
+        <f t="shared" ref="O17:P19" si="14">E2</f>
+        <v>4</v>
+      </c>
+      <c r="P17" s="71">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="71">
+        <f>E2</f>
+        <v>4</v>
+      </c>
+      <c r="S17" s="71">
+        <f t="shared" ref="S17:T19" si="15">F2</f>
+        <v>3</v>
+      </c>
+      <c r="T17" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(B17&gt;0, CONCATENATE(B17,"*",$D$8,"+"),""), IF(C17&gt;0, CONCATENATE(C17,"*",$E$8,"+"),""), IF(D17&gt;0, CONCATENATE(D17,"*",$F$8,"+"),""), IF(B18&gt;0, CONCATENATE(B18,"*",$D$9,"+"),""), IF(C18&gt;0, CONCATENATE(C18,"*",$E$9,"+"),""), IF(D18&gt;0, CONCATENATE(D18,"*",$F$9,"+"),""), IF(B19&gt;0, CONCATENATE(B19,"*",$D$10,"+"),""), IF(C19&gt;0, CONCATENATE(C19,"*",$E$10,"+"),""), IF(D19&gt;0, CONCATENATE(D19,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(B17&gt;0, CONCATENATE(B17,"*",$D$8,"+"),""), IF(C17&gt;0, CONCATENATE(C17,"*",$E$8,"+"),""), IF(D17&gt;0, CONCATENATE(D17,"*",$F$8,"+"),""), IF(B18&gt;0, CONCATENATE(B18,"*",$D$9,"+"),""), IF(C18&gt;0, CONCATENATE(C18,"*",$E$9,"+"),""), IF(D18&gt;0, CONCATENATE(D18,"*",$F$9,"+"),""), IF(B19&gt;0, CONCATENATE(B19,"*",$D$10,"+"),""), IF(C19&gt;0, CONCATENATE(C19,"*",$E$10,"+"),""), IF(D19&gt;0, CONCATENATE(D19,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(B17*$D$8+C17*$E$8+D17*$F$8+B18*$D$9+C18*$E$9+D18*$F$9+B19*$D$10+C19*$E$10+D19*$F$10), 4))</f>
+        <v>5*3+7*7+2*7+2*2+5*5+6*3 = 125</v>
+      </c>
+      <c r="B18" s="38">
+        <f t="shared" ref="B18:D19" si="16">A3</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="71">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="D18" s="71">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(F17&gt;0, CONCATENATE(F17,"*",$D$8,"+"),""), IF(G17&gt;0, CONCATENATE(G17,"*",$E$8,"+"),""), IF(H17&gt;0, CONCATENATE(H17,"*",$F$8,"+"),""), IF(F18&gt;0, CONCATENATE(F18,"*",$D$9,"+"),""), IF(G18&gt;0, CONCATENATE(G18,"*",$E$9,"+"),""), IF(H18&gt;0, CONCATENATE(H18,"*",$F$9,"+"),""), IF(F19&gt;0, CONCATENATE(F19,"*",$D$10,"+"),""), IF(G19&gt;0, CONCATENATE(G19,"*",$E$10,"+"),""), IF(H19&gt;0, CONCATENATE(H19,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(F17&gt;0, CONCATENATE(F17,"*",$D$8,"+"),""), IF(G17&gt;0, CONCATENATE(G17,"*",$E$8,"+"),""), IF(H17&gt;0, CONCATENATE(H17,"*",$F$8,"+"),""), IF(F18&gt;0, CONCATENATE(F18,"*",$D$9,"+"),""), IF(G18&gt;0, CONCATENATE(G18,"*",$E$9,"+"),""), IF(H18&gt;0, CONCATENATE(H18,"*",$F$9,"+"),""), IF(F19&gt;0, CONCATENATE(F19,"*",$D$10,"+"),""), IF(G19&gt;0, CONCATENATE(G19,"*",$E$10,"+"),""), IF(H19&gt;0, CONCATENATE(H19,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(F17*$D$8+G17*$E$8+H17*$F$8+F18*$D$9+G18*$E$9+H18*$F$9+F19*$D$10+G19*$E$10+H19*$F$10), 4))</f>
+        <v>5*2+7*3+6*7+2*6+2*7+3*2+5*3+6*5+7*3 = 171</v>
+      </c>
+      <c r="F18" s="71">
+        <f t="shared" ref="F18:F19" si="17">B3</f>
+        <v>2</v>
+      </c>
+      <c r="G18" s="71">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="H18" s="71">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="I18" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(J17&gt;0, CONCATENATE(J17,"*",$D$8,"+"),""), IF(K17&gt;0, CONCATENATE(K17,"*",$E$8,"+"),""), IF(L17&gt;0, CONCATENATE(L17,"*",$F$8,"+"),""), IF(J18&gt;0, CONCATENATE(J18,"*",$D$9,"+"),""), IF(K18&gt;0, CONCATENATE(K18,"*",$E$9,"+"),""), IF(L18&gt;0, CONCATENATE(L18,"*",$F$9,"+"),""), IF(J19&gt;0, CONCATENATE(J19,"*",$D$10,"+"),""), IF(K19&gt;0, CONCATENATE(K19,"*",$E$10,"+"),""), IF(L19&gt;0, CONCATENATE(L19,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(J17&gt;0, CONCATENATE(J17,"*",$D$8,"+"),""), IF(K17&gt;0, CONCATENATE(K17,"*",$E$8,"+"),""), IF(L17&gt;0, CONCATENATE(L17,"*",$F$8,"+"),""), IF(J18&gt;0, CONCATENATE(J18,"*",$D$9,"+"),""), IF(K18&gt;0, CONCATENATE(K18,"*",$E$9,"+"),""), IF(L18&gt;0, CONCATENATE(L18,"*",$F$9,"+"),""), IF(J19&gt;0, CONCATENATE(J19,"*",$D$10,"+"),""), IF(K19&gt;0, CONCATENATE(K19,"*",$E$10,"+"),""), IF(L19&gt;0, CONCATENATE(L19,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(J17*$D$8+K17*$E$8+L17*$F$8+J18*$D$9+K18*$E$9+L18*$F$9+J19*$D$10+K19*$E$10+L19*$F$10), 4))</f>
+        <v>7*2+6*3+4*7+2*6+3*7+7*2+6*3+7*5+2*3 = 166</v>
+      </c>
+      <c r="J18" s="71">
+        <f t="shared" ref="J18:J19" si="18">C3</f>
+        <v>2</v>
+      </c>
+      <c r="K18" s="71">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="L18" s="71">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="M18" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(N17&gt;0, CONCATENATE(N17,"*",$D$8,"+"),""), IF(O17&gt;0, CONCATENATE(O17,"*",$E$8,"+"),""), IF(P17&gt;0, CONCATENATE(P17,"*",$F$8,"+"),""), IF(N18&gt;0, CONCATENATE(N18,"*",$D$9,"+"),""), IF(O18&gt;0, CONCATENATE(O18,"*",$E$9,"+"),""), IF(P18&gt;0, CONCATENATE(P18,"*",$F$9,"+"),""), IF(N19&gt;0, CONCATENATE(N19,"*",$D$10,"+"),""), IF(O19&gt;0, CONCATENATE(O19,"*",$E$10,"+"),""), IF(P19&gt;0, CONCATENATE(P19,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(N17&gt;0, CONCATENATE(N17,"*",$D$8,"+"),""), IF(O17&gt;0, CONCATENATE(O17,"*",$E$8,"+"),""), IF(P17&gt;0, CONCATENATE(P17,"*",$F$8,"+"),""), IF(N18&gt;0, CONCATENATE(N18,"*",$D$9,"+"),""), IF(O18&gt;0, CONCATENATE(O18,"*",$E$9,"+"),""), IF(P18&gt;0, CONCATENATE(P18,"*",$F$9,"+"),""), IF(N19&gt;0, CONCATENATE(N19,"*",$D$10,"+"),""), IF(O19&gt;0, CONCATENATE(O19,"*",$E$10,"+"),""), IF(P19&gt;0, CONCATENATE(P19,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(N17*$D$8+O17*$E$8+P17*$F$8+N18*$D$9+O18*$E$9+P18*$F$9+N19*$D$10+O19*$E$10+P19*$F$10), 4))</f>
+        <v>6*2+4*3+3*7+3*6+7*7+5*2+7*3+2*5+7*3 = 174</v>
+      </c>
+      <c r="N18" s="71">
+        <f t="shared" ref="N18:N19" si="19">D3</f>
+        <v>3</v>
+      </c>
+      <c r="O18" s="71">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="P18" s="71">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="Q18" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(R17&gt;0, CONCATENATE(R17,"*",$D$8,"+"),""), IF(S17&gt;0, CONCATENATE(S17,"*",$E$8,"+"),""), IF(T17&gt;0, CONCATENATE(T17,"*",$F$8,"+"),""), IF(R18&gt;0, CONCATENATE(R18,"*",$D$9,"+"),""), IF(S18&gt;0, CONCATENATE(S18,"*",$E$9,"+"),""), IF(T18&gt;0, CONCATENATE(T18,"*",$F$9,"+"),""), IF(R19&gt;0, CONCATENATE(R19,"*",$D$10,"+"),""), IF(S19&gt;0, CONCATENATE(S19,"*",$E$10,"+"),""), IF(T19&gt;0, CONCATENATE(T19,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(R17&gt;0, CONCATENATE(R17,"*",$D$8,"+"),""), IF(S17&gt;0, CONCATENATE(S17,"*",$E$8,"+"),""), IF(T17&gt;0, CONCATENATE(T17,"*",$F$8,"+"),""), IF(R18&gt;0, CONCATENATE(R18,"*",$D$9,"+"),""), IF(S18&gt;0, CONCATENATE(S18,"*",$E$9,"+"),""), IF(T18&gt;0, CONCATENATE(T18,"*",$F$9,"+"),""), IF(R19&gt;0, CONCATENATE(R19,"*",$D$10,"+"),""), IF(S19&gt;0, CONCATENATE(S19,"*",$E$10,"+"),""), IF(T19&gt;0, CONCATENATE(T19,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(R17*$D$8+S17*$E$8+T17*$F$8+R18*$D$9+S18*$E$9+T18*$F$9+R19*$D$10+S19*$E$10+T19*$F$10), 4))</f>
+        <v>4*2+3*3+7*6+5*7+2*3+7*5 = 135</v>
+      </c>
+      <c r="R18" s="71">
+        <f t="shared" ref="R18:R19" si="20">E3</f>
+        <v>7</v>
+      </c>
+      <c r="S18" s="71">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="T18" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="80"/>
+      <c r="B19" s="38">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="71">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="D19" s="71">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="E19" s="81"/>
+      <c r="F19" s="71">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="G19" s="71">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="H19" s="71">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="I19" s="81"/>
+      <c r="J19" s="71">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="K19" s="71">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="L19" s="71">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="M19" s="81"/>
+      <c r="N19" s="71">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="O19" s="71">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="P19" s="71">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="71">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="S19" s="71">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="T19" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="80"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="80"/>
+      <c r="B21" s="38">
+        <f>A3</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="71">
+        <f t="shared" ref="C21:D21" si="21">B3</f>
+        <v>2</v>
+      </c>
+      <c r="D21" s="71">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="81"/>
+      <c r="F21" s="71">
+        <f>B3</f>
+        <v>2</v>
+      </c>
+      <c r="G21" s="71">
+        <f t="shared" ref="G21:H23" si="22">C3</f>
+        <v>2</v>
+      </c>
+      <c r="H21" s="71">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="I21" s="81"/>
+      <c r="J21" s="71">
+        <f>C3</f>
+        <v>2</v>
+      </c>
+      <c r="K21" s="71">
+        <f t="shared" ref="K21:L23" si="23">D3</f>
+        <v>3</v>
+      </c>
+      <c r="L21" s="71">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="M21" s="81"/>
+      <c r="N21" s="71">
+        <f>D3</f>
+        <v>3</v>
+      </c>
+      <c r="O21" s="71">
+        <f t="shared" ref="O21:P23" si="24">E3</f>
+        <v>7</v>
+      </c>
+      <c r="P21" s="71">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="71">
+        <f>E3</f>
+        <v>7</v>
+      </c>
+      <c r="S21" s="71">
+        <f t="shared" ref="S21:T23" si="25">F3</f>
+        <v>5</v>
+      </c>
+      <c r="T21" s="38">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(B21&gt;0, CONCATENATE(B21,"*",$D$8,"+"),""), IF(C21&gt;0, CONCATENATE(C21,"*",$E$8,"+"),""), IF(D21&gt;0, CONCATENATE(D21,"*",$F$8,"+"),""), IF(B22&gt;0, CONCATENATE(B22,"*",$D$9,"+"),""), IF(C22&gt;0, CONCATENATE(C22,"*",$E$9,"+"),""), IF(D22&gt;0, CONCATENATE(D22,"*",$F$9,"+"),""), IF(B23&gt;0, CONCATENATE(B23,"*",$D$10,"+"),""), IF(C23&gt;0, CONCATENATE(C23,"*",$E$10,"+"),""), IF(D23&gt;0, CONCATENATE(D23,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(B21&gt;0, CONCATENATE(B21,"*",$D$8,"+"),""), IF(C21&gt;0, CONCATENATE(C21,"*",$E$8,"+"),""), IF(D21&gt;0, CONCATENATE(D21,"*",$F$8,"+"),""), IF(B22&gt;0, CONCATENATE(B22,"*",$D$9,"+"),""), IF(C22&gt;0, CONCATENATE(C22,"*",$E$9,"+"),""), IF(D22&gt;0, CONCATENATE(D22,"*",$F$9,"+"),""), IF(B23&gt;0, CONCATENATE(B23,"*",$D$10,"+"),""), IF(C23&gt;0, CONCATENATE(C23,"*",$E$10,"+"),""), IF(D23&gt;0, CONCATENATE(D23,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(B21*$D$8+C21*$E$8+D21*$F$8+B22*$D$9+C22*$E$9+D22*$F$9+B23*$D$10+C23*$E$10+D23*$F$10), 4))</f>
+        <v>2*3+2*7+5*7+6*2+4*5+3*3 = 96</v>
+      </c>
+      <c r="B22" s="38">
+        <f t="shared" ref="B22:D23" si="26">A4</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="71">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D22" s="71">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="E22" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(F21&gt;0, CONCATENATE(F21,"*",$D$8,"+"),""), IF(G21&gt;0, CONCATENATE(G21,"*",$E$8,"+"),""), IF(H21&gt;0, CONCATENATE(H21,"*",$F$8,"+"),""), IF(F22&gt;0, CONCATENATE(F22,"*",$D$9,"+"),""), IF(G22&gt;0, CONCATENATE(G22,"*",$E$9,"+"),""), IF(H22&gt;0, CONCATENATE(H22,"*",$F$9,"+"),""), IF(F23&gt;0, CONCATENATE(F23,"*",$D$10,"+"),""), IF(G23&gt;0, CONCATENATE(G23,"*",$E$10,"+"),""), IF(H23&gt;0, CONCATENATE(H23,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(F21&gt;0, CONCATENATE(F21,"*",$D$8,"+"),""), IF(G21&gt;0, CONCATENATE(G21,"*",$E$8,"+"),""), IF(H21&gt;0, CONCATENATE(H21,"*",$F$8,"+"),""), IF(F22&gt;0, CONCATENATE(F22,"*",$D$9,"+"),""), IF(G22&gt;0, CONCATENATE(G22,"*",$E$9,"+"),""), IF(H22&gt;0, CONCATENATE(H22,"*",$F$9,"+"),""), IF(F23&gt;0, CONCATENATE(F23,"*",$D$10,"+"),""), IF(G23&gt;0, CONCATENATE(G23,"*",$E$10,"+"),""), IF(H23&gt;0, CONCATENATE(H23,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(F21*$D$8+G21*$E$8+H21*$F$8+F22*$D$9+G22*$E$9+H22*$F$9+F23*$D$10+G23*$E$10+H23*$F$10), 4))</f>
+        <v>2*2+2*3+3*7+5*6+6*7+7*2+4*3+3*5+5*3 = 159</v>
+      </c>
+      <c r="F22" s="71">
+        <f>B4</f>
+        <v>5</v>
+      </c>
+      <c r="G22" s="71">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="H22" s="71">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="I22" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(J21&gt;0, CONCATENATE(J21,"*",$D$8,"+"),""), IF(K21&gt;0, CONCATENATE(K21,"*",$E$8,"+"),""), IF(L21&gt;0, CONCATENATE(L21,"*",$F$8,"+"),""), IF(J22&gt;0, CONCATENATE(J22,"*",$D$9,"+"),""), IF(K22&gt;0, CONCATENATE(K22,"*",$E$9,"+"),""), IF(L22&gt;0, CONCATENATE(L22,"*",$F$9,"+"),""), IF(J23&gt;0, CONCATENATE(J23,"*",$D$10,"+"),""), IF(K23&gt;0, CONCATENATE(K23,"*",$E$10,"+"),""), IF(L23&gt;0, CONCATENATE(L23,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(J21&gt;0, CONCATENATE(J21,"*",$D$8,"+"),""), IF(K21&gt;0, CONCATENATE(K21,"*",$E$8,"+"),""), IF(L21&gt;0, CONCATENATE(L21,"*",$F$8,"+"),""), IF(J22&gt;0, CONCATENATE(J22,"*",$D$9,"+"),""), IF(K22&gt;0, CONCATENATE(K22,"*",$E$9,"+"),""), IF(L22&gt;0, CONCATENATE(L22,"*",$F$9,"+"),""), IF(J23&gt;0, CONCATENATE(J23,"*",$D$10,"+"),""), IF(K23&gt;0, CONCATENATE(K23,"*",$E$10,"+"),""), IF(L23&gt;0, CONCATENATE(L23,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(J21*$D$8+K21*$E$8+L21*$F$8+J22*$D$9+K22*$E$9+L22*$F$9+J23*$D$10+K23*$E$10+L23*$F$10), 4))</f>
+        <v>2*2+3*3+7*7+6*6+7*7+2*2+3*3+5*5+3*3 = 194</v>
+      </c>
+      <c r="J22" s="71">
+        <f t="shared" ref="J22:J23" si="27">C4</f>
+        <v>6</v>
+      </c>
+      <c r="K22" s="71">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="L22" s="71">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="M22" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(N21&gt;0, CONCATENATE(N21,"*",$D$8,"+"),""), IF(O21&gt;0, CONCATENATE(O21,"*",$E$8,"+"),""), IF(P21&gt;0, CONCATENATE(P21,"*",$F$8,"+"),""), IF(N22&gt;0, CONCATENATE(N22,"*",$D$9,"+"),""), IF(O22&gt;0, CONCATENATE(O22,"*",$E$9,"+"),""), IF(P22&gt;0, CONCATENATE(P22,"*",$F$9,"+"),""), IF(N23&gt;0, CONCATENATE(N23,"*",$D$10,"+"),""), IF(O23&gt;0, CONCATENATE(O23,"*",$E$10,"+"),""), IF(P23&gt;0, CONCATENATE(P23,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(N21&gt;0, CONCATENATE(N21,"*",$D$8,"+"),""), IF(O21&gt;0, CONCATENATE(O21,"*",$E$8,"+"),""), IF(P21&gt;0, CONCATENATE(P21,"*",$F$8,"+"),""), IF(N22&gt;0, CONCATENATE(N22,"*",$D$9,"+"),""), IF(O22&gt;0, CONCATENATE(O22,"*",$E$9,"+"),""), IF(P22&gt;0, CONCATENATE(P22,"*",$F$9,"+"),""), IF(N23&gt;0, CONCATENATE(N23,"*",$D$10,"+"),""), IF(O23&gt;0, CONCATENATE(O23,"*",$E$10,"+"),""), IF(P23&gt;0, CONCATENATE(P23,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(N21*$D$8+O21*$E$8+P21*$F$8+N22*$D$9+O22*$E$9+P22*$F$9+N23*$D$10+O23*$E$10+P23*$F$10), 4))</f>
+        <v>3*2+7*3+5*7+7*6+2*7+7*2+5*3+3*5+3*3 = 171</v>
+      </c>
+      <c r="N22" s="71">
+        <f t="shared" ref="N22:N23" si="28">D4</f>
+        <v>7</v>
+      </c>
+      <c r="O22" s="71">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="P22" s="71">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="Q22" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(R21&gt;0, CONCATENATE(R21,"*",$D$8,"+"),""), IF(S21&gt;0, CONCATENATE(S21,"*",$E$8,"+"),""), IF(T21&gt;0, CONCATENATE(T21,"*",$F$8,"+"),""), IF(R22&gt;0, CONCATENATE(R22,"*",$D$9,"+"),""), IF(S22&gt;0, CONCATENATE(S22,"*",$E$9,"+"),""), IF(T22&gt;0, CONCATENATE(T22,"*",$F$9,"+"),""), IF(R23&gt;0, CONCATENATE(R23,"*",$D$10,"+"),""), IF(S23&gt;0, CONCATENATE(S23,"*",$E$10,"+"),""), IF(T23&gt;0, CONCATENATE(T23,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(R21&gt;0, CONCATENATE(R21,"*",$D$8,"+"),""), IF(S21&gt;0, CONCATENATE(S21,"*",$E$8,"+"),""), IF(T21&gt;0, CONCATENATE(T21,"*",$F$8,"+"),""), IF(R22&gt;0, CONCATENATE(R22,"*",$D$9,"+"),""), IF(S22&gt;0, CONCATENATE(S22,"*",$E$9,"+"),""), IF(T22&gt;0, CONCATENATE(T22,"*",$F$9,"+"),""), IF(R23&gt;0, CONCATENATE(R23,"*",$D$10,"+"),""), IF(S23&gt;0, CONCATENATE(S23,"*",$E$10,"+"),""), IF(T23&gt;0, CONCATENATE(T23,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(R21*$D$8+S21*$E$8+T21*$F$8+R22*$D$9+S22*$E$9+T22*$F$9+R23*$D$10+S23*$E$10+T23*$F$10), 4))</f>
+        <v>7*2+5*3+2*6+7*7+3*3+3*5 = 114</v>
+      </c>
+      <c r="R22" s="71">
+        <f>E4</f>
+        <v>2</v>
+      </c>
+      <c r="S22" s="71">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="T22" s="38">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="80"/>
+      <c r="B23" s="38">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="71">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="D23" s="71">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="E23" s="81"/>
+      <c r="F23" s="71">
+        <f t="shared" ref="F23" si="29">B5</f>
+        <v>4</v>
+      </c>
+      <c r="G23" s="71">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="H23" s="71">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="I23" s="81"/>
+      <c r="J23" s="71">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="K23" s="71">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="L23" s="71">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="M23" s="81"/>
+      <c r="N23" s="71">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="O23" s="71">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="P23" s="71">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="71">
+        <f>E5</f>
+        <v>3</v>
+      </c>
+      <c r="S23" s="71">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="T23" s="38">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="80"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="80"/>
+      <c r="B25" s="38">
+        <f>A4</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="71">
+        <f t="shared" ref="C25:D25" si="30">B4</f>
+        <v>5</v>
+      </c>
+      <c r="D25" s="71">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="E25" s="81"/>
+      <c r="F25" s="71">
+        <f>B4</f>
+        <v>5</v>
+      </c>
+      <c r="G25" s="71">
+        <f t="shared" ref="G25:H27" si="31">C4</f>
+        <v>6</v>
+      </c>
+      <c r="H25" s="71">
+        <f t="shared" si="31"/>
+        <v>7</v>
+      </c>
+      <c r="I25" s="81"/>
+      <c r="J25" s="71">
+        <f>C4</f>
+        <v>6</v>
+      </c>
+      <c r="K25" s="71">
+        <f t="shared" ref="K25:L27" si="32">D4</f>
+        <v>7</v>
+      </c>
+      <c r="L25" s="71">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="M25" s="81"/>
+      <c r="N25" s="71">
+        <f>D4</f>
+        <v>7</v>
+      </c>
+      <c r="O25" s="71">
+        <f t="shared" ref="O25:P27" si="33">E4</f>
+        <v>2</v>
+      </c>
+      <c r="P25" s="71">
+        <f t="shared" si="33"/>
+        <v>7</v>
+      </c>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="71">
+        <f>E4</f>
+        <v>2</v>
+      </c>
+      <c r="S25" s="71">
+        <f t="shared" ref="S25:T27" si="34">F4</f>
+        <v>7</v>
+      </c>
+      <c r="T25" s="38">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(B25&gt;0, CONCATENATE(B25,"*",$D$8,"+"),""), IF(C25&gt;0, CONCATENATE(C25,"*",$E$8,"+"),""), IF(D25&gt;0, CONCATENATE(D25,"*",$F$8,"+"),""), IF(B26&gt;0, CONCATENATE(B26,"*",$D$9,"+"),""), IF(C26&gt;0, CONCATENATE(C26,"*",$E$9,"+"),""), IF(D26&gt;0, CONCATENATE(D26,"*",$F$9,"+"),""), IF(B27&gt;0, CONCATENATE(B27,"*",$D$10,"+"),""), IF(C27&gt;0, CONCATENATE(C27,"*",$E$10,"+"),""), IF(D27&gt;0, CONCATENATE(D27,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(B25&gt;0, CONCATENATE(B25,"*",$D$8,"+"),""), IF(C25&gt;0, CONCATENATE(C25,"*",$E$8,"+"),""), IF(D25&gt;0, CONCATENATE(D25,"*",$F$8,"+"),""), IF(B26&gt;0, CONCATENATE(B26,"*",$D$9,"+"),""), IF(C26&gt;0, CONCATENATE(C26,"*",$E$9,"+"),""), IF(D26&gt;0, CONCATENATE(D26,"*",$F$9,"+"),""), IF(B27&gt;0, CONCATENATE(B27,"*",$D$10,"+"),""), IF(C27&gt;0, CONCATENATE(C27,"*",$E$10,"+"),""), IF(D27&gt;0, CONCATENATE(D27,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(B25*$D$8+C25*$E$8+D25*$F$8+B26*$D$9+C26*$E$9+D26*$F$9+B27*$D$10+C27*$E$10+D27*$F$10), 4))</f>
+        <v>5*3+6*7+4*7+3*2+4*5+4*3 = 123</v>
+      </c>
+      <c r="B26" s="38">
+        <f t="shared" ref="B26:D27" si="35">A5</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="71">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="D26" s="71">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="E26" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(F25&gt;0, CONCATENATE(F25,"*",$D$8,"+"),""), IF(G25&gt;0, CONCATENATE(G25,"*",$E$8,"+"),""), IF(H25&gt;0, CONCATENATE(H25,"*",$F$8,"+"),""), IF(F26&gt;0, CONCATENATE(F26,"*",$D$9,"+"),""), IF(G26&gt;0, CONCATENATE(G26,"*",$E$9,"+"),""), IF(H26&gt;0, CONCATENATE(H26,"*",$F$9,"+"),""), IF(F27&gt;0, CONCATENATE(F27,"*",$D$10,"+"),""), IF(G27&gt;0, CONCATENATE(G27,"*",$E$10,"+"),""), IF(H27&gt;0, CONCATENATE(H27,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(F25&gt;0, CONCATENATE(F25,"*",$D$8,"+"),""), IF(G25&gt;0, CONCATENATE(G25,"*",$E$8,"+"),""), IF(H25&gt;0, CONCATENATE(H25,"*",$F$8,"+"),""), IF(F26&gt;0, CONCATENATE(F26,"*",$D$9,"+"),""), IF(G26&gt;0, CONCATENATE(G26,"*",$E$9,"+"),""), IF(H26&gt;0, CONCATENATE(H26,"*",$F$9,"+"),""), IF(F27&gt;0, CONCATENATE(F27,"*",$D$10,"+"),""), IF(G27&gt;0, CONCATENATE(G27,"*",$E$10,"+"),""), IF(H27&gt;0, CONCATENATE(H27,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(F25*$D$8+G25*$E$8+H25*$F$8+F26*$D$9+G26*$E$9+H26*$F$9+F27*$D$10+G27*$E$10+H27*$F$10), 4))</f>
+        <v>5*2+6*3+7*7+4*6+3*7+5*2+4*3+4*5+7*3 = 185</v>
+      </c>
+      <c r="F26" s="71">
+        <f t="shared" ref="F26:F27" si="36">B5</f>
+        <v>4</v>
+      </c>
+      <c r="G26" s="71">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="H26" s="71">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="I26" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(J25&gt;0, CONCATENATE(J25,"*",$D$8,"+"),""), IF(K25&gt;0, CONCATENATE(K25,"*",$E$8,"+"),""), IF(L25&gt;0, CONCATENATE(L25,"*",$F$8,"+"),""), IF(J26&gt;0, CONCATENATE(J26,"*",$D$9,"+"),""), IF(K26&gt;0, CONCATENATE(K26,"*",$E$9,"+"),""), IF(L26&gt;0, CONCATENATE(L26,"*",$F$9,"+"),""), IF(J27&gt;0, CONCATENATE(J27,"*",$D$10,"+"),""), IF(K27&gt;0, CONCATENATE(K27,"*",$E$10,"+"),""), IF(L27&gt;0, CONCATENATE(L27,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(J25&gt;0, CONCATENATE(J25,"*",$D$8,"+"),""), IF(K25&gt;0, CONCATENATE(K25,"*",$E$8,"+"),""), IF(L25&gt;0, CONCATENATE(L25,"*",$F$8,"+"),""), IF(J26&gt;0, CONCATENATE(J26,"*",$D$9,"+"),""), IF(K26&gt;0, CONCATENATE(K26,"*",$E$9,"+"),""), IF(L26&gt;0, CONCATENATE(L26,"*",$F$9,"+"),""), IF(J27&gt;0, CONCATENATE(J27,"*",$D$10,"+"),""), IF(K27&gt;0, CONCATENATE(K27,"*",$E$10,"+"),""), IF(L27&gt;0, CONCATENATE(L27,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(J25*$D$8+K25*$E$8+L25*$F$8+J26*$D$9+K26*$E$9+L26*$F$9+J27*$D$10+K27*$E$10+L27*$F$10), 4))</f>
+        <v>6*2+7*3+2*7+3*6+5*7+3*2+4*3+7*5+5*3 = 168</v>
+      </c>
+      <c r="J26" s="71">
+        <f t="shared" ref="J26:J27" si="37">C5</f>
+        <v>3</v>
+      </c>
+      <c r="K26" s="71">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="L26" s="71">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="M26" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(N25&gt;0, CONCATENATE(N25,"*",$D$8,"+"),""), IF(O25&gt;0, CONCATENATE(O25,"*",$E$8,"+"),""), IF(P25&gt;0, CONCATENATE(P25,"*",$F$8,"+"),""), IF(N26&gt;0, CONCATENATE(N26,"*",$D$9,"+"),""), IF(O26&gt;0, CONCATENATE(O26,"*",$E$9,"+"),""), IF(P26&gt;0, CONCATENATE(P26,"*",$F$9,"+"),""), IF(N27&gt;0, CONCATENATE(N27,"*",$D$10,"+"),""), IF(O27&gt;0, CONCATENATE(O27,"*",$E$10,"+"),""), IF(P27&gt;0, CONCATENATE(P27,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(N25&gt;0, CONCATENATE(N25,"*",$D$8,"+"),""), IF(O25&gt;0, CONCATENATE(O25,"*",$E$8,"+"),""), IF(P25&gt;0, CONCATENATE(P25,"*",$F$8,"+"),""), IF(N26&gt;0, CONCATENATE(N26,"*",$D$9,"+"),""), IF(O26&gt;0, CONCATENATE(O26,"*",$E$9,"+"),""), IF(P26&gt;0, CONCATENATE(P26,"*",$F$9,"+"),""), IF(N27&gt;0, CONCATENATE(N27,"*",$D$10,"+"),""), IF(O27&gt;0, CONCATENATE(O27,"*",$E$10,"+"),""), IF(P27&gt;0, CONCATENATE(P27,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(N25*$D$8+O25*$E$8+P25*$F$8+N26*$D$9+O26*$E$9+P26*$F$9+N27*$D$10+O27*$E$10+P27*$F$10), 4))</f>
+        <v>7*2+2*3+7*7+5*6+3*7+3*2+7*3+5*5+5*3 = 187</v>
+      </c>
+      <c r="N26" s="71">
+        <f t="shared" ref="N26:N27" si="38">D5</f>
+        <v>5</v>
+      </c>
+      <c r="O26" s="71">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="P26" s="71">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="Q26" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(R25&gt;0, CONCATENATE(R25,"*",$D$8,"+"),""), IF(S25&gt;0, CONCATENATE(S25,"*",$E$8,"+"),""), IF(T25&gt;0, CONCATENATE(T25,"*",$F$8,"+"),""), IF(R26&gt;0, CONCATENATE(R26,"*",$D$9,"+"),""), IF(S26&gt;0, CONCATENATE(S26,"*",$E$9,"+"),""), IF(T26&gt;0, CONCATENATE(T26,"*",$F$9,"+"),""), IF(R27&gt;0, CONCATENATE(R27,"*",$D$10,"+"),""), IF(S27&gt;0, CONCATENATE(S27,"*",$E$10,"+"),""), IF(T27&gt;0, CONCATENATE(T27,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(R25&gt;0, CONCATENATE(R25,"*",$D$8,"+"),""), IF(S25&gt;0, CONCATENATE(S25,"*",$E$8,"+"),""), IF(T25&gt;0, CONCATENATE(T25,"*",$F$8,"+"),""), IF(R26&gt;0, CONCATENATE(R26,"*",$D$9,"+"),""), IF(S26&gt;0, CONCATENATE(S26,"*",$E$9,"+"),""), IF(T26&gt;0, CONCATENATE(T26,"*",$F$9,"+"),""), IF(R27&gt;0, CONCATENATE(R27,"*",$D$10,"+"),""), IF(S27&gt;0, CONCATENATE(S27,"*",$E$10,"+"),""), IF(T27&gt;0, CONCATENATE(T27,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(R25*$D$8+S25*$E$8+T25*$F$8+R26*$D$9+S26*$E$9+T26*$F$9+R27*$D$10+S27*$E$10+T27*$F$10), 4))</f>
+        <v>2*2+7*3+3*6+3*7+5*3+5*5 = 104</v>
+      </c>
+      <c r="R26" s="71">
+        <f t="shared" ref="R26:R27" si="39">E5</f>
+        <v>3</v>
+      </c>
+      <c r="S26" s="71">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="T26" s="38">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="80"/>
+      <c r="B27" s="38">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="71">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="D27" s="71">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="E27" s="81"/>
+      <c r="F27" s="71">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+      <c r="G27" s="71">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="H27" s="71">
+        <f t="shared" si="31"/>
+        <v>7</v>
+      </c>
+      <c r="I27" s="81"/>
+      <c r="J27" s="71">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
+      <c r="K27" s="71">
+        <f t="shared" si="32"/>
+        <v>7</v>
+      </c>
+      <c r="L27" s="71">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="M27" s="81"/>
+      <c r="N27" s="71">
+        <f t="shared" si="38"/>
+        <v>7</v>
+      </c>
+      <c r="O27" s="71">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="P27" s="71">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="71">
+        <f t="shared" si="39"/>
+        <v>5</v>
+      </c>
+      <c r="S27" s="71">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="T27" s="38">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="80"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="80"/>
+      <c r="B29" s="38">
+        <f>A5</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="71">
+        <f t="shared" ref="C29:D29" si="40">B5</f>
+        <v>4</v>
+      </c>
+      <c r="D29" s="71">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="E29" s="81"/>
+      <c r="F29" s="71">
+        <f>B5</f>
+        <v>4</v>
+      </c>
+      <c r="G29" s="71">
+        <f t="shared" ref="G29:H31" si="41">C5</f>
+        <v>3</v>
+      </c>
+      <c r="H29" s="71">
+        <f t="shared" si="41"/>
+        <v>5</v>
+      </c>
+      <c r="I29" s="81"/>
+      <c r="J29" s="71">
+        <f>C5</f>
+        <v>3</v>
+      </c>
+      <c r="K29" s="71">
+        <f t="shared" ref="K29:L31" si="42">D5</f>
+        <v>5</v>
+      </c>
+      <c r="L29" s="71">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="M29" s="81"/>
+      <c r="N29" s="71">
+        <f>D5</f>
+        <v>5</v>
+      </c>
+      <c r="O29" s="71">
+        <f t="shared" ref="O29:P31" si="43">E5</f>
+        <v>3</v>
+      </c>
+      <c r="P29" s="71">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="71">
+        <f>E5</f>
+        <v>3</v>
+      </c>
+      <c r="S29" s="71">
+        <f t="shared" ref="S29:T31" si="44">F5</f>
+        <v>3</v>
+      </c>
+      <c r="T29" s="38">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(B29&gt;0, CONCATENATE(B29,"*",$D$8,"+"),""), IF(C29&gt;0, CONCATENATE(C29,"*",$E$8,"+"),""), IF(D29&gt;0, CONCATENATE(D29,"*",$F$8,"+"),""), IF(B30&gt;0, CONCATENATE(B30,"*",$D$9,"+"),""), IF(C30&gt;0, CONCATENATE(C30,"*",$E$9,"+"),""), IF(D30&gt;0, CONCATENATE(D30,"*",$F$9,"+"),""), IF(B31&gt;0, CONCATENATE(B31,"*",$D$10,"+"),""), IF(C31&gt;0, CONCATENATE(C31,"*",$E$10,"+"),""), IF(D31&gt;0, CONCATENATE(D31,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(B29&gt;0, CONCATENATE(B29,"*",$D$8,"+"),""), IF(C29&gt;0, CONCATENATE(C29,"*",$E$8,"+"),""), IF(D29&gt;0, CONCATENATE(D29,"*",$F$8,"+"),""), IF(B30&gt;0, CONCATENATE(B30,"*",$D$9,"+"),""), IF(C30&gt;0, CONCATENATE(C30,"*",$E$9,"+"),""), IF(D30&gt;0, CONCATENATE(D30,"*",$F$9,"+"),""), IF(B31&gt;0, CONCATENATE(B31,"*",$D$10,"+"),""), IF(C31&gt;0, CONCATENATE(C31,"*",$E$10,"+"),""), IF(D31&gt;0, CONCATENATE(D31,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(B29*$D$8+C29*$E$8+D29*$F$8+B30*$D$9+C30*$E$9+D30*$F$9+B31*$D$10+C31*$E$10+D31*$F$10), 4))</f>
+        <v>4*3+3*7+4*7+4*2 = 69</v>
+      </c>
+      <c r="B30" s="38">
+        <f t="shared" ref="B30:D31" si="45">A6</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="71">
+        <f t="shared" si="45"/>
+        <v>4</v>
+      </c>
+      <c r="D30" s="71">
+        <f t="shared" si="45"/>
+        <v>4</v>
+      </c>
+      <c r="E30" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(F29&gt;0, CONCATENATE(F29,"*",$D$8,"+"),""), IF(G29&gt;0, CONCATENATE(G29,"*",$E$8,"+"),""), IF(H29&gt;0, CONCATENATE(H29,"*",$F$8,"+"),""), IF(F30&gt;0, CONCATENATE(F30,"*",$D$9,"+"),""), IF(G30&gt;0, CONCATENATE(G30,"*",$E$9,"+"),""), IF(H30&gt;0, CONCATENATE(H30,"*",$F$9,"+"),""), IF(F31&gt;0, CONCATENATE(F31,"*",$D$10,"+"),""), IF(G31&gt;0, CONCATENATE(G31,"*",$E$10,"+"),""), IF(H31&gt;0, CONCATENATE(H31,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(F29&gt;0, CONCATENATE(F29,"*",$D$8,"+"),""), IF(G29&gt;0, CONCATENATE(G29,"*",$E$8,"+"),""), IF(H29&gt;0, CONCATENATE(H29,"*",$F$8,"+"),""), IF(F30&gt;0, CONCATENATE(F30,"*",$D$9,"+"),""), IF(G30&gt;0, CONCATENATE(G30,"*",$E$9,"+"),""), IF(H30&gt;0, CONCATENATE(H30,"*",$F$9,"+"),""), IF(F31&gt;0, CONCATENATE(F31,"*",$D$10,"+"),""), IF(G31&gt;0, CONCATENATE(G31,"*",$E$10,"+"),""), IF(H31&gt;0, CONCATENATE(H31,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(F29*$D$8+G29*$E$8+H29*$F$8+F30*$D$9+G30*$E$9+H30*$F$9+F31*$D$10+G31*$E$10+H31*$F$10), 4))</f>
+        <v>4*2+3*3+5*7+4*6+4*7+7*2 = 118</v>
+      </c>
+      <c r="F30" s="71">
+        <f t="shared" ref="F30:F31" si="46">B6</f>
+        <v>4</v>
+      </c>
+      <c r="G30" s="71">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="H30" s="71">
+        <f t="shared" si="41"/>
+        <v>7</v>
+      </c>
+      <c r="I30" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(J29&gt;0, CONCATENATE(J29,"*",$D$8,"+"),""), IF(K29&gt;0, CONCATENATE(K29,"*",$E$8,"+"),""), IF(L29&gt;0, CONCATENATE(L29,"*",$F$8,"+"),""), IF(J30&gt;0, CONCATENATE(J30,"*",$D$9,"+"),""), IF(K30&gt;0, CONCATENATE(K30,"*",$E$9,"+"),""), IF(L30&gt;0, CONCATENATE(L30,"*",$F$9,"+"),""), IF(J31&gt;0, CONCATENATE(J31,"*",$D$10,"+"),""), IF(K31&gt;0, CONCATENATE(K31,"*",$E$10,"+"),""), IF(L31&gt;0, CONCATENATE(L31,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(J29&gt;0, CONCATENATE(J29,"*",$D$8,"+"),""), IF(K29&gt;0, CONCATENATE(K29,"*",$E$8,"+"),""), IF(L29&gt;0, CONCATENATE(L29,"*",$F$8,"+"),""), IF(J30&gt;0, CONCATENATE(J30,"*",$D$9,"+"),""), IF(K30&gt;0, CONCATENATE(K30,"*",$E$9,"+"),""), IF(L30&gt;0, CONCATENATE(L30,"*",$F$9,"+"),""), IF(J31&gt;0, CONCATENATE(J31,"*",$D$10,"+"),""), IF(K31&gt;0, CONCATENATE(K31,"*",$E$10,"+"),""), IF(L31&gt;0, CONCATENATE(L31,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(J29*$D$8+K29*$E$8+L29*$F$8+J30*$D$9+K30*$E$9+L30*$F$9+J31*$D$10+K31*$E$10+L31*$F$10), 4))</f>
+        <v>3*2+5*3+3*7+4*6+7*7+5*2 = 125</v>
+      </c>
+      <c r="J30" s="71">
+        <f t="shared" ref="J30:J31" si="47">C6</f>
+        <v>4</v>
+      </c>
+      <c r="K30" s="71">
+        <f t="shared" si="42"/>
+        <v>7</v>
+      </c>
+      <c r="L30" s="71">
+        <f t="shared" si="42"/>
+        <v>5</v>
+      </c>
+      <c r="M30" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(N29&gt;0, CONCATENATE(N29,"*",$D$8,"+"),""), IF(O29&gt;0, CONCATENATE(O29,"*",$E$8,"+"),""), IF(P29&gt;0, CONCATENATE(P29,"*",$F$8,"+"),""), IF(N30&gt;0, CONCATENATE(N30,"*",$D$9,"+"),""), IF(O30&gt;0, CONCATENATE(O30,"*",$E$9,"+"),""), IF(P30&gt;0, CONCATENATE(P30,"*",$F$9,"+"),""), IF(N31&gt;0, CONCATENATE(N31,"*",$D$10,"+"),""), IF(O31&gt;0, CONCATENATE(O31,"*",$E$10,"+"),""), IF(P31&gt;0, CONCATENATE(P31,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(N29&gt;0, CONCATENATE(N29,"*",$D$8,"+"),""), IF(O29&gt;0, CONCATENATE(O29,"*",$E$8,"+"),""), IF(P29&gt;0, CONCATENATE(P29,"*",$F$8,"+"),""), IF(N30&gt;0, CONCATENATE(N30,"*",$D$9,"+"),""), IF(O30&gt;0, CONCATENATE(O30,"*",$E$9,"+"),""), IF(P30&gt;0, CONCATENATE(P30,"*",$F$9,"+"),""), IF(N31&gt;0, CONCATENATE(N31,"*",$D$10,"+"),""), IF(O31&gt;0, CONCATENATE(O31,"*",$E$10,"+"),""), IF(P31&gt;0, CONCATENATE(P31,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(N29*$D$8+O29*$E$8+P29*$F$8+N30*$D$9+O30*$E$9+P30*$F$9+N31*$D$10+O31*$E$10+P31*$F$10), 4))</f>
+        <v>5*2+3*3+3*7+7*6+5*7+5*2 = 127</v>
+      </c>
+      <c r="N30" s="71">
+        <f t="shared" ref="N30:N31" si="48">D6</f>
+        <v>7</v>
+      </c>
+      <c r="O30" s="71">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="P30" s="71">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="Q30" s="80" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(R29&gt;0, CONCATENATE(R29,"*",$D$8,"+"),""), IF(S29&gt;0, CONCATENATE(S29,"*",$E$8,"+"),""), IF(T29&gt;0, CONCATENATE(T29,"*",$F$8,"+"),""), IF(R30&gt;0, CONCATENATE(R30,"*",$D$9,"+"),""), IF(S30&gt;0, CONCATENATE(S30,"*",$E$9,"+"),""), IF(T30&gt;0, CONCATENATE(T30,"*",$F$9,"+"),""), IF(R31&gt;0, CONCATENATE(R31,"*",$D$10,"+"),""), IF(S31&gt;0, CONCATENATE(S31,"*",$E$10,"+"),""), IF(T31&gt;0, CONCATENATE(T31,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(R29&gt;0, CONCATENATE(R29,"*",$D$8,"+"),""), IF(S29&gt;0, CONCATENATE(S29,"*",$E$8,"+"),""), IF(T29&gt;0, CONCATENATE(T29,"*",$F$8,"+"),""), IF(R30&gt;0, CONCATENATE(R30,"*",$D$9,"+"),""), IF(S30&gt;0, CONCATENATE(S30,"*",$E$9,"+"),""), IF(T30&gt;0, CONCATENATE(T30,"*",$F$9,"+"),""), IF(R31&gt;0, CONCATENATE(R31,"*",$D$10,"+"),""), IF(S31&gt;0, CONCATENATE(S31,"*",$E$10,"+"),""), IF(T31&gt;0, CONCATENATE(T31,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(R29*$D$8+S29*$E$8+T29*$F$8+R30*$D$9+S30*$E$9+T30*$F$9+R31*$D$10+S31*$E$10+T31*$F$10), 4))</f>
+        <v>3*2+3*3+5*6+5*7 = 80</v>
+      </c>
+      <c r="R30" s="71">
+        <f t="shared" ref="R30:R31" si="49">E6</f>
+        <v>5</v>
+      </c>
+      <c r="S30" s="71">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="T30" s="38">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="80"/>
+      <c r="B31" s="38">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="38">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="38">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="81"/>
+      <c r="F31" s="38">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="38">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="38">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="81"/>
+      <c r="J31" s="38">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="38">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="38">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="81"/>
+      <c r="N31" s="38">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="38">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="38">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="38">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="38">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="38">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="82" t="str">
+        <f>A14</f>
+        <v>5*7+7*2+2*5+2*3 = 65</v>
+      </c>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="83"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="83"/>
+      <c r="P33" s="83"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="83"/>
+      <c r="T33" s="83"/>
+      <c r="U33" s="84"/>
+    </row>
+    <row r="35" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="82" t="str">
+        <f>E14</f>
+        <v>5*6+7*7+6*2+2*3+2*5+3*3 = 116</v>
+      </c>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="83"/>
+      <c r="S35" s="83"/>
+      <c r="T35" s="83"/>
+      <c r="U35" s="84"/>
+    </row>
+    <row r="37" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="82" t="str">
+        <f>I14</f>
+        <v>7*6+6*7+4*2+2*3+3*5+7*3 = 134</v>
+      </c>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="83"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="83"/>
+      <c r="P37" s="83"/>
+      <c r="Q37" s="83"/>
+      <c r="R37" s="83"/>
+      <c r="S37" s="83"/>
+      <c r="T37" s="83"/>
+      <c r="U37" s="84"/>
+    </row>
+    <row r="39" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="82" t="str">
+        <f>M14</f>
+        <v>6*6+4*7+3*2+3*3+7*5+5*3 = 129</v>
+      </c>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
+      <c r="N39" s="83"/>
+      <c r="O39" s="83"/>
+      <c r="P39" s="83"/>
+      <c r="Q39" s="83"/>
+      <c r="R39" s="83"/>
+      <c r="S39" s="83"/>
+      <c r="T39" s="83"/>
+      <c r="U39" s="84"/>
+    </row>
+    <row r="41" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="82" t="str">
+        <f>Q14</f>
+        <v>4*6+3*7+7*3+5*5 = 91</v>
+      </c>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="83"/>
+      <c r="P41" s="83"/>
+      <c r="Q41" s="83"/>
+      <c r="R41" s="83"/>
+      <c r="S41" s="83"/>
+      <c r="T41" s="83"/>
+      <c r="U41" s="84"/>
+    </row>
+    <row r="43" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="82" t="str">
+        <f>A18</f>
+        <v>5*3+7*7+2*7+2*2+5*5+6*3 = 125</v>
+      </c>
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="83"/>
+      <c r="P43" s="83"/>
+      <c r="Q43" s="83"/>
+      <c r="R43" s="83"/>
+      <c r="S43" s="83"/>
+      <c r="T43" s="83"/>
+      <c r="U43" s="84"/>
+    </row>
+    <row r="45" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="82" t="str">
+        <f>E18</f>
+        <v>5*2+7*3+6*7+2*6+2*7+3*2+5*3+6*5+7*3 = 171</v>
+      </c>
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="83"/>
+      <c r="N45" s="83"/>
+      <c r="O45" s="83"/>
+      <c r="P45" s="83"/>
+      <c r="Q45" s="83"/>
+      <c r="R45" s="83"/>
+      <c r="S45" s="83"/>
+      <c r="T45" s="83"/>
+      <c r="U45" s="84"/>
+    </row>
+    <row r="47" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="82" t="str">
+        <f>I18</f>
+        <v>7*2+6*3+4*7+2*6+3*7+7*2+6*3+7*5+2*3 = 166</v>
+      </c>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
+      <c r="L47" s="83"/>
+      <c r="M47" s="83"/>
+      <c r="N47" s="83"/>
+      <c r="O47" s="83"/>
+      <c r="P47" s="83"/>
+      <c r="Q47" s="83"/>
+      <c r="R47" s="83"/>
+      <c r="S47" s="83"/>
+      <c r="T47" s="83"/>
+      <c r="U47" s="84"/>
+    </row>
+    <row r="49" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="82" t="str">
+        <f>M18</f>
+        <v>6*2+4*3+3*7+3*6+7*7+5*2+7*3+2*5+7*3 = 174</v>
+      </c>
+      <c r="C49" s="83"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="83"/>
+      <c r="K49" s="83"/>
+      <c r="L49" s="83"/>
+      <c r="M49" s="83"/>
+      <c r="N49" s="83"/>
+      <c r="O49" s="83"/>
+      <c r="P49" s="83"/>
+      <c r="Q49" s="83"/>
+      <c r="R49" s="83"/>
+      <c r="S49" s="83"/>
+      <c r="T49" s="83"/>
+      <c r="U49" s="84"/>
+    </row>
+    <row r="51" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="82" t="str">
+        <f>Q18</f>
+        <v>4*2+3*3+7*6+5*7+2*3+7*5 = 135</v>
+      </c>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="83"/>
+      <c r="K51" s="83"/>
+      <c r="L51" s="83"/>
+      <c r="M51" s="83"/>
+      <c r="N51" s="83"/>
+      <c r="O51" s="83"/>
+      <c r="P51" s="83"/>
+      <c r="Q51" s="83"/>
+      <c r="R51" s="83"/>
+      <c r="S51" s="83"/>
+      <c r="T51" s="83"/>
+      <c r="U51" s="84"/>
+    </row>
+    <row r="53" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="82" t="str">
+        <f>A22</f>
+        <v>2*3+2*7+5*7+6*2+4*5+3*3 = 96</v>
+      </c>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="83"/>
+      <c r="K53" s="83"/>
+      <c r="L53" s="83"/>
+      <c r="M53" s="83"/>
+      <c r="N53" s="83"/>
+      <c r="O53" s="83"/>
+      <c r="P53" s="83"/>
+      <c r="Q53" s="83"/>
+      <c r="R53" s="83"/>
+      <c r="S53" s="83"/>
+      <c r="T53" s="83"/>
+      <c r="U53" s="84"/>
+    </row>
+    <row r="55" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="82" t="str">
+        <f>E22</f>
+        <v>2*2+2*3+3*7+5*6+6*7+7*2+4*3+3*5+5*3 = 159</v>
+      </c>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="83"/>
+      <c r="J55" s="83"/>
+      <c r="K55" s="83"/>
+      <c r="L55" s="83"/>
+      <c r="M55" s="83"/>
+      <c r="N55" s="83"/>
+      <c r="O55" s="83"/>
+      <c r="P55" s="83"/>
+      <c r="Q55" s="83"/>
+      <c r="R55" s="83"/>
+      <c r="S55" s="83"/>
+      <c r="T55" s="83"/>
+      <c r="U55" s="84"/>
+    </row>
+    <row r="57" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="82" t="str">
+        <f>I22</f>
+        <v>2*2+3*3+7*7+6*6+7*7+2*2+3*3+5*5+3*3 = 194</v>
+      </c>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="83"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="83"/>
+      <c r="M57" s="83"/>
+      <c r="N57" s="83"/>
+      <c r="O57" s="83"/>
+      <c r="P57" s="83"/>
+      <c r="Q57" s="83"/>
+      <c r="R57" s="83"/>
+      <c r="S57" s="83"/>
+      <c r="T57" s="83"/>
+      <c r="U57" s="84"/>
+    </row>
+    <row r="59" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="82" t="str">
+        <f>M22</f>
+        <v>3*2+7*3+5*7+7*6+2*7+7*2+5*3+3*5+3*3 = 171</v>
+      </c>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="83"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="83"/>
+      <c r="N59" s="83"/>
+      <c r="O59" s="83"/>
+      <c r="P59" s="83"/>
+      <c r="Q59" s="83"/>
+      <c r="R59" s="83"/>
+      <c r="S59" s="83"/>
+      <c r="T59" s="83"/>
+      <c r="U59" s="84"/>
+    </row>
+    <row r="61" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="82" t="str">
+        <f>Q22</f>
+        <v>7*2+5*3+2*6+7*7+3*3+3*5 = 114</v>
+      </c>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="83"/>
+      <c r="K61" s="83"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="83"/>
+      <c r="N61" s="83"/>
+      <c r="O61" s="83"/>
+      <c r="P61" s="83"/>
+      <c r="Q61" s="83"/>
+      <c r="R61" s="83"/>
+      <c r="S61" s="83"/>
+      <c r="T61" s="83"/>
+      <c r="U61" s="84"/>
+    </row>
+    <row r="63" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="82" t="str">
+        <f>A26</f>
+        <v>5*3+6*7+4*7+3*2+4*5+4*3 = 123</v>
+      </c>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="83"/>
+      <c r="I63" s="83"/>
+      <c r="J63" s="83"/>
+      <c r="K63" s="83"/>
+      <c r="L63" s="83"/>
+      <c r="M63" s="83"/>
+      <c r="N63" s="83"/>
+      <c r="O63" s="83"/>
+      <c r="P63" s="83"/>
+      <c r="Q63" s="83"/>
+      <c r="R63" s="83"/>
+      <c r="S63" s="83"/>
+      <c r="T63" s="83"/>
+      <c r="U63" s="84"/>
+    </row>
+    <row r="65" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="82" t="str">
+        <f>E26</f>
+        <v>5*2+6*3+7*7+4*6+3*7+5*2+4*3+4*5+7*3 = 185</v>
+      </c>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="83"/>
+      <c r="I65" s="83"/>
+      <c r="J65" s="83"/>
+      <c r="K65" s="83"/>
+      <c r="L65" s="83"/>
+      <c r="M65" s="83"/>
+      <c r="N65" s="83"/>
+      <c r="O65" s="83"/>
+      <c r="P65" s="83"/>
+      <c r="Q65" s="83"/>
+      <c r="R65" s="83"/>
+      <c r="S65" s="83"/>
+      <c r="T65" s="83"/>
+      <c r="U65" s="84"/>
+    </row>
+    <row r="67" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A67" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="82" t="str">
+        <f>I26</f>
+        <v>6*2+7*3+2*7+3*6+5*7+3*2+4*3+7*5+5*3 = 168</v>
+      </c>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="83"/>
+      <c r="K67" s="83"/>
+      <c r="L67" s="83"/>
+      <c r="M67" s="83"/>
+      <c r="N67" s="83"/>
+      <c r="O67" s="83"/>
+      <c r="P67" s="83"/>
+      <c r="Q67" s="83"/>
+      <c r="R67" s="83"/>
+      <c r="S67" s="83"/>
+      <c r="T67" s="83"/>
+      <c r="U67" s="84"/>
+    </row>
+    <row r="69" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="82" t="str">
+        <f>M26</f>
+        <v>7*2+2*3+7*7+5*6+3*7+3*2+7*3+5*5+5*3 = 187</v>
+      </c>
+      <c r="C69" s="83"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="83"/>
+      <c r="I69" s="83"/>
+      <c r="J69" s="83"/>
+      <c r="K69" s="83"/>
+      <c r="L69" s="83"/>
+      <c r="M69" s="83"/>
+      <c r="N69" s="83"/>
+      <c r="O69" s="83"/>
+      <c r="P69" s="83"/>
+      <c r="Q69" s="83"/>
+      <c r="R69" s="83"/>
+      <c r="S69" s="83"/>
+      <c r="T69" s="83"/>
+      <c r="U69" s="84"/>
+    </row>
+    <row r="71" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A71" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="82" t="str">
+        <f>Q26</f>
+        <v>2*2+7*3+3*6+3*7+5*3+5*5 = 104</v>
+      </c>
+      <c r="C71" s="83"/>
+      <c r="D71" s="83"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="83"/>
+      <c r="I71" s="83"/>
+      <c r="J71" s="83"/>
+      <c r="K71" s="83"/>
+      <c r="L71" s="83"/>
+      <c r="M71" s="83"/>
+      <c r="N71" s="83"/>
+      <c r="O71" s="83"/>
+      <c r="P71" s="83"/>
+      <c r="Q71" s="83"/>
+      <c r="R71" s="83"/>
+      <c r="S71" s="83"/>
+      <c r="T71" s="83"/>
+      <c r="U71" s="84"/>
+    </row>
+    <row r="73" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A73" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="82" t="str">
+        <f>A30</f>
+        <v>4*3+3*7+4*7+4*2 = 69</v>
+      </c>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
+      <c r="J73" s="83"/>
+      <c r="K73" s="83"/>
+      <c r="L73" s="83"/>
+      <c r="M73" s="83"/>
+      <c r="N73" s="83"/>
+      <c r="O73" s="83"/>
+      <c r="P73" s="83"/>
+      <c r="Q73" s="83"/>
+      <c r="R73" s="83"/>
+      <c r="S73" s="83"/>
+      <c r="T73" s="83"/>
+      <c r="U73" s="84"/>
+    </row>
+    <row r="75" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="82" t="str">
+        <f>E30</f>
+        <v>4*2+3*3+5*7+4*6+4*7+7*2 = 118</v>
+      </c>
+      <c r="C75" s="83"/>
+      <c r="D75" s="83"/>
+      <c r="E75" s="83"/>
+      <c r="F75" s="83"/>
+      <c r="G75" s="83"/>
+      <c r="H75" s="83"/>
+      <c r="I75" s="83"/>
+      <c r="J75" s="83"/>
+      <c r="K75" s="83"/>
+      <c r="L75" s="83"/>
+      <c r="M75" s="83"/>
+      <c r="N75" s="83"/>
+      <c r="O75" s="83"/>
+      <c r="P75" s="83"/>
+      <c r="Q75" s="83"/>
+      <c r="R75" s="83"/>
+      <c r="S75" s="83"/>
+      <c r="T75" s="83"/>
+      <c r="U75" s="84"/>
+    </row>
+    <row r="77" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="82" t="str">
+        <f>I30</f>
+        <v>3*2+5*3+3*7+4*6+7*7+5*2 = 125</v>
+      </c>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="83"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="83"/>
+      <c r="H77" s="83"/>
+      <c r="I77" s="83"/>
+      <c r="J77" s="83"/>
+      <c r="K77" s="83"/>
+      <c r="L77" s="83"/>
+      <c r="M77" s="83"/>
+      <c r="N77" s="83"/>
+      <c r="O77" s="83"/>
+      <c r="P77" s="83"/>
+      <c r="Q77" s="83"/>
+      <c r="R77" s="83"/>
+      <c r="S77" s="83"/>
+      <c r="T77" s="83"/>
+      <c r="U77" s="84"/>
+    </row>
+    <row r="79" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="82" t="str">
+        <f>M30</f>
+        <v>5*2+3*3+3*7+7*6+5*7+5*2 = 127</v>
+      </c>
+      <c r="C79" s="83"/>
+      <c r="D79" s="83"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="83"/>
+      <c r="H79" s="83"/>
+      <c r="I79" s="83"/>
+      <c r="J79" s="83"/>
+      <c r="K79" s="83"/>
+      <c r="L79" s="83"/>
+      <c r="M79" s="83"/>
+      <c r="N79" s="83"/>
+      <c r="O79" s="83"/>
+      <c r="P79" s="83"/>
+      <c r="Q79" s="83"/>
+      <c r="R79" s="83"/>
+      <c r="S79" s="83"/>
+      <c r="T79" s="83"/>
+      <c r="U79" s="84"/>
+    </row>
+    <row r="81" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A81" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" s="82" t="str">
+        <f>Q30</f>
+        <v>3*2+3*3+5*6+5*7 = 80</v>
+      </c>
+      <c r="C81" s="83"/>
+      <c r="D81" s="83"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="83"/>
+      <c r="H81" s="83"/>
+      <c r="I81" s="83"/>
+      <c r="J81" s="83"/>
+      <c r="K81" s="83"/>
+      <c r="L81" s="83"/>
+      <c r="M81" s="83"/>
+      <c r="N81" s="83"/>
+      <c r="O81" s="83"/>
+      <c r="P81" s="83"/>
+      <c r="Q81" s="83"/>
+      <c r="R81" s="83"/>
+      <c r="S81" s="83"/>
+      <c r="T81" s="83"/>
+      <c r="U81" s="84"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B81:U81"/>
+    <mergeCell ref="B69:U69"/>
+    <mergeCell ref="B71:U71"/>
+    <mergeCell ref="B73:U73"/>
+    <mergeCell ref="B75:U75"/>
+    <mergeCell ref="B77:U77"/>
+    <mergeCell ref="B79:U79"/>
+    <mergeCell ref="B57:U57"/>
+    <mergeCell ref="B59:U59"/>
+    <mergeCell ref="B61:U61"/>
+    <mergeCell ref="B63:U63"/>
+    <mergeCell ref="B65:U65"/>
+    <mergeCell ref="B67:U67"/>
+    <mergeCell ref="B45:U45"/>
+    <mergeCell ref="B47:U47"/>
+    <mergeCell ref="B49:U49"/>
+    <mergeCell ref="B51:U51"/>
+    <mergeCell ref="B53:U53"/>
+    <mergeCell ref="B55:U55"/>
+    <mergeCell ref="B33:U33"/>
+    <mergeCell ref="B35:U35"/>
+    <mergeCell ref="B37:U37"/>
+    <mergeCell ref="B39:U39"/>
+    <mergeCell ref="B41:U41"/>
+    <mergeCell ref="B43:U43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/XLA_Tools.xlsx
+++ b/XLA_Tools.xlsx
@@ -1192,6 +1192,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1209,15 +1218,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7944,12 +7944,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B35:T35"/>
-    <mergeCell ref="B30:T30"/>
-    <mergeCell ref="B31:T31"/>
-    <mergeCell ref="B32:T32"/>
-    <mergeCell ref="B33:T33"/>
-    <mergeCell ref="B34:T34"/>
+    <mergeCell ref="B54:T54"/>
+    <mergeCell ref="B48:T48"/>
+    <mergeCell ref="B49:T49"/>
+    <mergeCell ref="B50:T50"/>
+    <mergeCell ref="B51:T51"/>
+    <mergeCell ref="B52:T52"/>
+    <mergeCell ref="B53:T53"/>
     <mergeCell ref="B47:T47"/>
     <mergeCell ref="B36:T36"/>
     <mergeCell ref="B37:T37"/>
@@ -7962,13 +7963,12 @@
     <mergeCell ref="B44:T44"/>
     <mergeCell ref="B45:T45"/>
     <mergeCell ref="B46:T46"/>
-    <mergeCell ref="B54:T54"/>
-    <mergeCell ref="B48:T48"/>
-    <mergeCell ref="B49:T49"/>
-    <mergeCell ref="B50:T50"/>
-    <mergeCell ref="B51:T51"/>
-    <mergeCell ref="B52:T52"/>
-    <mergeCell ref="B53:T53"/>
+    <mergeCell ref="B35:T35"/>
+    <mergeCell ref="B30:T30"/>
+    <mergeCell ref="B31:T31"/>
+    <mergeCell ref="B32:T32"/>
+    <mergeCell ref="B33:T33"/>
+    <mergeCell ref="B34:T34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AH1" location="'Lọc ảnh trong miền không gian'!A1" display="Home"/>
@@ -7981,8 +7981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:U33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9592,3686 +9592,701 @@
       <c r="A33" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="95" t="str">
+      <c r="B33" s="89" t="str">
         <f>A14</f>
         <v>5*0.2042+7*0.1238+2*0.1238+2*0.0751 = 2.2854 ~ 2</v>
       </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="97"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="91"/>
     </row>
     <row r="35" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A35" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="95" t="str">
+      <c r="B35" s="89" t="str">
         <f>E14</f>
         <v>5*0.1238+7*0.2042+6*0.1238+2*0.0751+2*0.1238+3*0.0751 = 3.4143 ~ 3</v>
       </c>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="96"/>
-      <c r="R35" s="96"/>
-      <c r="S35" s="96"/>
-      <c r="T35" s="96"/>
-      <c r="U35" s="97"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="90"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="90"/>
+      <c r="Q35" s="90"/>
+      <c r="R35" s="90"/>
+      <c r="S35" s="90"/>
+      <c r="T35" s="90"/>
+      <c r="U35" s="91"/>
     </row>
     <row r="37" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="95" t="str">
+      <c r="B37" s="89" t="str">
         <f>I14</f>
         <v>7*0.1238+6*0.2042+4*0.1238+2*0.0751+3*0.1238+7*0.0751 = 3.6343 ~ 4</v>
       </c>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="96"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="96"/>
-      <c r="S37" s="96"/>
-      <c r="T37" s="96"/>
-      <c r="U37" s="97"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="90"/>
+      <c r="U37" s="91"/>
     </row>
     <row r="39" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A39" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="95" t="str">
+      <c r="B39" s="89" t="str">
         <f>M14</f>
         <v>6*0.1238+4*0.2042+3*0.1238+3*0.0751+7*0.1238+5*0.0751 = 3.3984 ~ 3</v>
       </c>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="96"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="96"/>
-      <c r="P39" s="96"/>
-      <c r="Q39" s="96"/>
-      <c r="R39" s="96"/>
-      <c r="S39" s="96"/>
-      <c r="T39" s="96"/>
-      <c r="U39" s="97"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="90"/>
+      <c r="O39" s="90"/>
+      <c r="P39" s="90"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="90"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="90"/>
+      <c r="U39" s="91"/>
     </row>
     <row r="41" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A41" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="95" t="str">
+      <c r="B41" s="89" t="str">
         <f>Q14</f>
         <v>4*0.1238+3*0.2042+7*0.0751+5*0.1238 = 2.2525 ~ 2</v>
       </c>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="96"/>
-      <c r="S41" s="96"/>
-      <c r="T41" s="96"/>
-      <c r="U41" s="97"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="90"/>
+      <c r="Q41" s="90"/>
+      <c r="R41" s="90"/>
+      <c r="S41" s="90"/>
+      <c r="T41" s="90"/>
+      <c r="U41" s="91"/>
     </row>
     <row r="43" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A43" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="95" t="str">
+      <c r="B43" s="89" t="str">
         <f>A18</f>
         <v>5*0.1238+7*0.0751+2*0.2042+2*0.1238+5*0.1238+6*0.0751 = 2.8703 ~ 3</v>
       </c>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="96"/>
-      <c r="S43" s="96"/>
-      <c r="T43" s="96"/>
-      <c r="U43" s="97"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="90"/>
+      <c r="N43" s="90"/>
+      <c r="O43" s="90"/>
+      <c r="P43" s="90"/>
+      <c r="Q43" s="90"/>
+      <c r="R43" s="90"/>
+      <c r="S43" s="90"/>
+      <c r="T43" s="90"/>
+      <c r="U43" s="91"/>
     </row>
     <row r="45" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A45" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="95" t="str">
+      <c r="B45" s="89" t="str">
         <f>E18</f>
         <v>5*0.0751+7*0.1238+6*0.0751+2*0.1238+2*0.2042+3*0.1238+5*0.0751+6*0.1238+7*0.0751 = 4.3641 ~ 4</v>
       </c>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="96"/>
-      <c r="P45" s="96"/>
-      <c r="Q45" s="96"/>
-      <c r="R45" s="96"/>
-      <c r="S45" s="96"/>
-      <c r="T45" s="96"/>
-      <c r="U45" s="97"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="90"/>
+      <c r="K45" s="90"/>
+      <c r="L45" s="90"/>
+      <c r="M45" s="90"/>
+      <c r="N45" s="90"/>
+      <c r="O45" s="90"/>
+      <c r="P45" s="90"/>
+      <c r="Q45" s="90"/>
+      <c r="R45" s="90"/>
+      <c r="S45" s="90"/>
+      <c r="T45" s="90"/>
+      <c r="U45" s="91"/>
     </row>
     <row r="47" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A47" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="95" t="str">
+      <c r="B47" s="89" t="str">
         <f>I18</f>
         <v>7*0.0751+6*0.1238+4*0.0751+2*0.1238+3*0.2042+7*0.1238+6*0.0751+7*0.1238+2*0.0751 = 4.7631 ~ 5</v>
       </c>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="96"/>
-      <c r="O47" s="96"/>
-      <c r="P47" s="96"/>
-      <c r="Q47" s="96"/>
-      <c r="R47" s="96"/>
-      <c r="S47" s="96"/>
-      <c r="T47" s="96"/>
-      <c r="U47" s="97"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="90"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="90"/>
+      <c r="N47" s="90"/>
+      <c r="O47" s="90"/>
+      <c r="P47" s="90"/>
+      <c r="Q47" s="90"/>
+      <c r="R47" s="90"/>
+      <c r="S47" s="90"/>
+      <c r="T47" s="90"/>
+      <c r="U47" s="91"/>
     </row>
     <row r="49" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A49" t="s">
         <v>80</v>
       </c>
-      <c r="B49" s="95" t="str">
+      <c r="B49" s="89" t="str">
         <f>M18</f>
         <v>6*0.0751+4*0.1238+3*0.0751+3*0.1238+7*0.2042+5*0.1238+7*0.0751+2*0.1238+7*0.0751 = 4.8899 ~ 5</v>
       </c>
-      <c r="C49" s="96"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="96"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="96"/>
-      <c r="M49" s="96"/>
-      <c r="N49" s="96"/>
-      <c r="O49" s="96"/>
-      <c r="P49" s="96"/>
-      <c r="Q49" s="96"/>
-      <c r="R49" s="96"/>
-      <c r="S49" s="96"/>
-      <c r="T49" s="96"/>
-      <c r="U49" s="97"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="90"/>
+      <c r="K49" s="90"/>
+      <c r="L49" s="90"/>
+      <c r="M49" s="90"/>
+      <c r="N49" s="90"/>
+      <c r="O49" s="90"/>
+      <c r="P49" s="90"/>
+      <c r="Q49" s="90"/>
+      <c r="R49" s="90"/>
+      <c r="S49" s="90"/>
+      <c r="T49" s="90"/>
+      <c r="U49" s="91"/>
     </row>
     <row r="51" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A51" t="s">
         <v>81</v>
       </c>
-      <c r="B51" s="95" t="str">
+      <c r="B51" s="89" t="str">
         <f>Q18</f>
         <v>4*0.0751+3*0.1238+7*0.1238+5*0.2042+2*0.0751+7*0.1238 = 3.5762 ~ 4</v>
       </c>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="96"/>
-      <c r="K51" s="96"/>
-      <c r="L51" s="96"/>
-      <c r="M51" s="96"/>
-      <c r="N51" s="96"/>
-      <c r="O51" s="96"/>
-      <c r="P51" s="96"/>
-      <c r="Q51" s="96"/>
-      <c r="R51" s="96"/>
-      <c r="S51" s="96"/>
-      <c r="T51" s="96"/>
-      <c r="U51" s="97"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="90"/>
+      <c r="N51" s="90"/>
+      <c r="O51" s="90"/>
+      <c r="P51" s="90"/>
+      <c r="Q51" s="90"/>
+      <c r="R51" s="90"/>
+      <c r="S51" s="90"/>
+      <c r="T51" s="90"/>
+      <c r="U51" s="91"/>
     </row>
     <row r="53" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A53" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="95" t="str">
+      <c r="B53" s="89" t="str">
         <f>A22</f>
         <v>2*0.1238+2*0.0751+5*0.2042+6*0.1238+4*0.1238+3*0.0751 = 2.8821 ~ 3</v>
       </c>
-      <c r="C53" s="96"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="96"/>
-      <c r="I53" s="96"/>
-      <c r="J53" s="96"/>
-      <c r="K53" s="96"/>
-      <c r="L53" s="96"/>
-      <c r="M53" s="96"/>
-      <c r="N53" s="96"/>
-      <c r="O53" s="96"/>
-      <c r="P53" s="96"/>
-      <c r="Q53" s="96"/>
-      <c r="R53" s="96"/>
-      <c r="S53" s="96"/>
-      <c r="T53" s="96"/>
-      <c r="U53" s="97"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="90"/>
+      <c r="M53" s="90"/>
+      <c r="N53" s="90"/>
+      <c r="O53" s="90"/>
+      <c r="P53" s="90"/>
+      <c r="Q53" s="90"/>
+      <c r="R53" s="90"/>
+      <c r="S53" s="90"/>
+      <c r="T53" s="90"/>
+      <c r="U53" s="91"/>
     </row>
     <row r="55" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A55" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="95" t="str">
+      <c r="B55" s="89" t="str">
         <f>E22</f>
         <v>2*0.0751+2*0.1238+3*0.0751+5*0.1238+6*0.2042+7*0.1238+4*0.0751+3*0.1238+5*0.0751 = 4.3812 ~ 4</v>
       </c>
-      <c r="C55" s="96"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="96"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="96"/>
-      <c r="K55" s="96"/>
-      <c r="L55" s="96"/>
-      <c r="M55" s="96"/>
-      <c r="N55" s="96"/>
-      <c r="O55" s="96"/>
-      <c r="P55" s="96"/>
-      <c r="Q55" s="96"/>
-      <c r="R55" s="96"/>
-      <c r="S55" s="96"/>
-      <c r="T55" s="96"/>
-      <c r="U55" s="97"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="90"/>
+      <c r="J55" s="90"/>
+      <c r="K55" s="90"/>
+      <c r="L55" s="90"/>
+      <c r="M55" s="90"/>
+      <c r="N55" s="90"/>
+      <c r="O55" s="90"/>
+      <c r="P55" s="90"/>
+      <c r="Q55" s="90"/>
+      <c r="R55" s="90"/>
+      <c r="S55" s="90"/>
+      <c r="T55" s="90"/>
+      <c r="U55" s="91"/>
     </row>
     <row r="57" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A57" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="95" t="str">
+      <c r="B57" s="89" t="str">
         <f>I22</f>
         <v>2*0.0751+3*0.1238+7*0.0751+6*0.1238+7*0.2042+2*0.1238+3*0.0751+5*0.1238+3*0.0751 = 4.5367 ~ 5</v>
       </c>
-      <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="96"/>
-      <c r="H57" s="96"/>
-      <c r="I57" s="96"/>
-      <c r="J57" s="96"/>
-      <c r="K57" s="96"/>
-      <c r="L57" s="96"/>
-      <c r="M57" s="96"/>
-      <c r="N57" s="96"/>
-      <c r="O57" s="96"/>
-      <c r="P57" s="96"/>
-      <c r="Q57" s="96"/>
-      <c r="R57" s="96"/>
-      <c r="S57" s="96"/>
-      <c r="T57" s="96"/>
-      <c r="U57" s="97"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="90"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="90"/>
+      <c r="N57" s="90"/>
+      <c r="O57" s="90"/>
+      <c r="P57" s="90"/>
+      <c r="Q57" s="90"/>
+      <c r="R57" s="90"/>
+      <c r="S57" s="90"/>
+      <c r="T57" s="90"/>
+      <c r="U57" s="91"/>
     </row>
     <row r="59" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A59" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="95" t="str">
+      <c r="B59" s="89" t="str">
         <f>M22</f>
         <v>3*0.0751+7*0.1238+5*0.0751+7*0.1238+2*0.2042+7*0.1238+5*0.0751+3*0.1238+3*0.0751 = 4.5812 ~ 5</v>
       </c>
-      <c r="C59" s="96"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="96"/>
-      <c r="F59" s="96"/>
-      <c r="G59" s="96"/>
-      <c r="H59" s="96"/>
-      <c r="I59" s="96"/>
-      <c r="J59" s="96"/>
-      <c r="K59" s="96"/>
-      <c r="L59" s="96"/>
-      <c r="M59" s="96"/>
-      <c r="N59" s="96"/>
-      <c r="O59" s="96"/>
-      <c r="P59" s="96"/>
-      <c r="Q59" s="96"/>
-      <c r="R59" s="96"/>
-      <c r="S59" s="96"/>
-      <c r="T59" s="96"/>
-      <c r="U59" s="97"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="90"/>
+      <c r="J59" s="90"/>
+      <c r="K59" s="90"/>
+      <c r="L59" s="90"/>
+      <c r="M59" s="90"/>
+      <c r="N59" s="90"/>
+      <c r="O59" s="90"/>
+      <c r="P59" s="90"/>
+      <c r="Q59" s="90"/>
+      <c r="R59" s="90"/>
+      <c r="S59" s="90"/>
+      <c r="T59" s="90"/>
+      <c r="U59" s="91"/>
     </row>
     <row r="61" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A61" t="s">
         <v>86</v>
       </c>
-      <c r="B61" s="95" t="str">
+      <c r="B61" s="89" t="str">
         <f>Q22</f>
         <v>7*0.0751+5*0.1238+2*0.1238+7*0.2042+3*0.0751+3*0.1238 = 3.4184 ~ 3</v>
       </c>
-      <c r="C61" s="96"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="96"/>
-      <c r="F61" s="96"/>
-      <c r="G61" s="96"/>
-      <c r="H61" s="96"/>
-      <c r="I61" s="96"/>
-      <c r="J61" s="96"/>
-      <c r="K61" s="96"/>
-      <c r="L61" s="96"/>
-      <c r="M61" s="96"/>
-      <c r="N61" s="96"/>
-      <c r="O61" s="96"/>
-      <c r="P61" s="96"/>
-      <c r="Q61" s="96"/>
-      <c r="R61" s="96"/>
-      <c r="S61" s="96"/>
-      <c r="T61" s="96"/>
-      <c r="U61" s="97"/>
+      <c r="C61" s="90"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="90"/>
+      <c r="K61" s="90"/>
+      <c r="L61" s="90"/>
+      <c r="M61" s="90"/>
+      <c r="N61" s="90"/>
+      <c r="O61" s="90"/>
+      <c r="P61" s="90"/>
+      <c r="Q61" s="90"/>
+      <c r="R61" s="90"/>
+      <c r="S61" s="90"/>
+      <c r="T61" s="90"/>
+      <c r="U61" s="91"/>
     </row>
     <row r="63" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A63" t="s">
         <v>87</v>
       </c>
-      <c r="B63" s="95" t="str">
+      <c r="B63" s="89" t="str">
         <f>A26</f>
         <v>5*0.1238+6*0.0751+4*0.2042+3*0.1238+4*0.1238+4*0.0751 = 3.0534 ~ 3</v>
       </c>
-      <c r="C63" s="96"/>
-      <c r="D63" s="96"/>
-      <c r="E63" s="96"/>
-      <c r="F63" s="96"/>
-      <c r="G63" s="96"/>
-      <c r="H63" s="96"/>
-      <c r="I63" s="96"/>
-      <c r="J63" s="96"/>
-      <c r="K63" s="96"/>
-      <c r="L63" s="96"/>
-      <c r="M63" s="96"/>
-      <c r="N63" s="96"/>
-      <c r="O63" s="96"/>
-      <c r="P63" s="96"/>
-      <c r="Q63" s="96"/>
-      <c r="R63" s="96"/>
-      <c r="S63" s="96"/>
-      <c r="T63" s="96"/>
-      <c r="U63" s="97"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="90"/>
+      <c r="J63" s="90"/>
+      <c r="K63" s="90"/>
+      <c r="L63" s="90"/>
+      <c r="M63" s="90"/>
+      <c r="N63" s="90"/>
+      <c r="O63" s="90"/>
+      <c r="P63" s="90"/>
+      <c r="Q63" s="90"/>
+      <c r="R63" s="90"/>
+      <c r="S63" s="90"/>
+      <c r="T63" s="90"/>
+      <c r="U63" s="91"/>
     </row>
     <row r="65" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A65" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="95" t="str">
+      <c r="B65" s="89" t="str">
         <f>E26</f>
         <v>5*0.0751+6*0.1238+7*0.0751+4*0.1238+3*0.2042+5*0.1238+4*0.0751+4*0.1238+7*0.0751 = 4.6921 ~ 5</v>
       </c>
-      <c r="C65" s="96"/>
-      <c r="D65" s="96"/>
-      <c r="E65" s="96"/>
-      <c r="F65" s="96"/>
-      <c r="G65" s="96"/>
-      <c r="H65" s="96"/>
-      <c r="I65" s="96"/>
-      <c r="J65" s="96"/>
-      <c r="K65" s="96"/>
-      <c r="L65" s="96"/>
-      <c r="M65" s="96"/>
-      <c r="N65" s="96"/>
-      <c r="O65" s="96"/>
-      <c r="P65" s="96"/>
-      <c r="Q65" s="96"/>
-      <c r="R65" s="96"/>
-      <c r="S65" s="96"/>
-      <c r="T65" s="96"/>
-      <c r="U65" s="97"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="90"/>
+      <c r="F65" s="90"/>
+      <c r="G65" s="90"/>
+      <c r="H65" s="90"/>
+      <c r="I65" s="90"/>
+      <c r="J65" s="90"/>
+      <c r="K65" s="90"/>
+      <c r="L65" s="90"/>
+      <c r="M65" s="90"/>
+      <c r="N65" s="90"/>
+      <c r="O65" s="90"/>
+      <c r="P65" s="90"/>
+      <c r="Q65" s="90"/>
+      <c r="R65" s="90"/>
+      <c r="S65" s="90"/>
+      <c r="T65" s="90"/>
+      <c r="U65" s="91"/>
     </row>
     <row r="67" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A67" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="95" t="str">
+      <c r="B67" s="89" t="str">
         <f>I26</f>
         <v>6*0.0751+7*0.1238+2*0.0751+3*0.1238+5*0.2042+3*0.1238+4*0.0751+7*0.1238+5*0.0751 = 4.7737 ~ 5</v>
       </c>
-      <c r="C67" s="96"/>
-      <c r="D67" s="96"/>
-      <c r="E67" s="96"/>
-      <c r="F67" s="96"/>
-      <c r="G67" s="96"/>
-      <c r="H67" s="96"/>
-      <c r="I67" s="96"/>
-      <c r="J67" s="96"/>
-      <c r="K67" s="96"/>
-      <c r="L67" s="96"/>
-      <c r="M67" s="96"/>
-      <c r="N67" s="96"/>
-      <c r="O67" s="96"/>
-      <c r="P67" s="96"/>
-      <c r="Q67" s="96"/>
-      <c r="R67" s="96"/>
-      <c r="S67" s="96"/>
-      <c r="T67" s="96"/>
-      <c r="U67" s="97"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
+      <c r="G67" s="90"/>
+      <c r="H67" s="90"/>
+      <c r="I67" s="90"/>
+      <c r="J67" s="90"/>
+      <c r="K67" s="90"/>
+      <c r="L67" s="90"/>
+      <c r="M67" s="90"/>
+      <c r="N67" s="90"/>
+      <c r="O67" s="90"/>
+      <c r="P67" s="90"/>
+      <c r="Q67" s="90"/>
+      <c r="R67" s="90"/>
+      <c r="S67" s="90"/>
+      <c r="T67" s="90"/>
+      <c r="U67" s="91"/>
     </row>
     <row r="69" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A69" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="95" t="str">
+      <c r="B69" s="89" t="str">
         <f>M26</f>
         <v>7*0.0751+2*0.1238+7*0.0751+5*0.1238+3*0.2042+3*0.1238+7*0.0751+5*0.1238+5*0.0751 = 4.4222 ~ 4</v>
       </c>
-      <c r="C69" s="96"/>
-      <c r="D69" s="96"/>
-      <c r="E69" s="96"/>
-      <c r="F69" s="96"/>
-      <c r="G69" s="96"/>
-      <c r="H69" s="96"/>
-      <c r="I69" s="96"/>
-      <c r="J69" s="96"/>
-      <c r="K69" s="96"/>
-      <c r="L69" s="96"/>
-      <c r="M69" s="96"/>
-      <c r="N69" s="96"/>
-      <c r="O69" s="96"/>
-      <c r="P69" s="96"/>
-      <c r="Q69" s="96"/>
-      <c r="R69" s="96"/>
-      <c r="S69" s="96"/>
-      <c r="T69" s="96"/>
-      <c r="U69" s="97"/>
+      <c r="C69" s="90"/>
+      <c r="D69" s="90"/>
+      <c r="E69" s="90"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="90"/>
+      <c r="K69" s="90"/>
+      <c r="L69" s="90"/>
+      <c r="M69" s="90"/>
+      <c r="N69" s="90"/>
+      <c r="O69" s="90"/>
+      <c r="P69" s="90"/>
+      <c r="Q69" s="90"/>
+      <c r="R69" s="90"/>
+      <c r="S69" s="90"/>
+      <c r="T69" s="90"/>
+      <c r="U69" s="91"/>
     </row>
     <row r="71" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A71" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="95" t="str">
+      <c r="B71" s="89" t="str">
         <f>Q26</f>
         <v>2*0.0751+7*0.1238+3*0.1238+3*0.2042+5*0.0751+5*0.1238 = 2.9953 ~ 3</v>
       </c>
-      <c r="C71" s="96"/>
-      <c r="D71" s="96"/>
-      <c r="E71" s="96"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="96"/>
-      <c r="H71" s="96"/>
-      <c r="I71" s="96"/>
-      <c r="J71" s="96"/>
-      <c r="K71" s="96"/>
-      <c r="L71" s="96"/>
-      <c r="M71" s="96"/>
-      <c r="N71" s="96"/>
-      <c r="O71" s="96"/>
-      <c r="P71" s="96"/>
-      <c r="Q71" s="96"/>
-      <c r="R71" s="96"/>
-      <c r="S71" s="96"/>
-      <c r="T71" s="96"/>
-      <c r="U71" s="97"/>
+      <c r="C71" s="90"/>
+      <c r="D71" s="90"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="90"/>
+      <c r="G71" s="90"/>
+      <c r="H71" s="90"/>
+      <c r="I71" s="90"/>
+      <c r="J71" s="90"/>
+      <c r="K71" s="90"/>
+      <c r="L71" s="90"/>
+      <c r="M71" s="90"/>
+      <c r="N71" s="90"/>
+      <c r="O71" s="90"/>
+      <c r="P71" s="90"/>
+      <c r="Q71" s="90"/>
+      <c r="R71" s="90"/>
+      <c r="S71" s="90"/>
+      <c r="T71" s="90"/>
+      <c r="U71" s="91"/>
     </row>
     <row r="73" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A73" t="s">
         <v>92</v>
       </c>
-      <c r="B73" s="95" t="str">
+      <c r="B73" s="89" t="str">
         <f>A30</f>
         <v>4*0.1238+3*0.0751+4*0.2042+4*0.1238 = 2.0325 ~ 2</v>
       </c>
-      <c r="C73" s="96"/>
-      <c r="D73" s="96"/>
-      <c r="E73" s="96"/>
-      <c r="F73" s="96"/>
-      <c r="G73" s="96"/>
-      <c r="H73" s="96"/>
-      <c r="I73" s="96"/>
-      <c r="J73" s="96"/>
-      <c r="K73" s="96"/>
-      <c r="L73" s="96"/>
-      <c r="M73" s="96"/>
-      <c r="N73" s="96"/>
-      <c r="O73" s="96"/>
-      <c r="P73" s="96"/>
-      <c r="Q73" s="96"/>
-      <c r="R73" s="96"/>
-      <c r="S73" s="96"/>
-      <c r="T73" s="96"/>
-      <c r="U73" s="97"/>
+      <c r="C73" s="90"/>
+      <c r="D73" s="90"/>
+      <c r="E73" s="90"/>
+      <c r="F73" s="90"/>
+      <c r="G73" s="90"/>
+      <c r="H73" s="90"/>
+      <c r="I73" s="90"/>
+      <c r="J73" s="90"/>
+      <c r="K73" s="90"/>
+      <c r="L73" s="90"/>
+      <c r="M73" s="90"/>
+      <c r="N73" s="90"/>
+      <c r="O73" s="90"/>
+      <c r="P73" s="90"/>
+      <c r="Q73" s="90"/>
+      <c r="R73" s="90"/>
+      <c r="S73" s="90"/>
+      <c r="T73" s="90"/>
+      <c r="U73" s="91"/>
     </row>
     <row r="75" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A75" t="s">
         <v>93</v>
       </c>
-      <c r="B75" s="95" t="str">
+      <c r="B75" s="89" t="str">
         <f>E30</f>
         <v>4*0.0751+3*0.1238+5*0.0751+4*0.1238+4*0.2042+7*0.1238 = 3.2259 ~ 3</v>
       </c>
-      <c r="C75" s="96"/>
-      <c r="D75" s="96"/>
-      <c r="E75" s="96"/>
-      <c r="F75" s="96"/>
-      <c r="G75" s="96"/>
-      <c r="H75" s="96"/>
-      <c r="I75" s="96"/>
-      <c r="J75" s="96"/>
-      <c r="K75" s="96"/>
-      <c r="L75" s="96"/>
-      <c r="M75" s="96"/>
-      <c r="N75" s="96"/>
-      <c r="O75" s="96"/>
-      <c r="P75" s="96"/>
-      <c r="Q75" s="96"/>
-      <c r="R75" s="96"/>
-      <c r="S75" s="96"/>
-      <c r="T75" s="96"/>
-      <c r="U75" s="97"/>
+      <c r="C75" s="90"/>
+      <c r="D75" s="90"/>
+      <c r="E75" s="90"/>
+      <c r="F75" s="90"/>
+      <c r="G75" s="90"/>
+      <c r="H75" s="90"/>
+      <c r="I75" s="90"/>
+      <c r="J75" s="90"/>
+      <c r="K75" s="90"/>
+      <c r="L75" s="90"/>
+      <c r="M75" s="90"/>
+      <c r="N75" s="90"/>
+      <c r="O75" s="90"/>
+      <c r="P75" s="90"/>
+      <c r="Q75" s="90"/>
+      <c r="R75" s="90"/>
+      <c r="S75" s="90"/>
+      <c r="T75" s="90"/>
+      <c r="U75" s="91"/>
     </row>
     <row r="77" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A77" t="s">
         <v>94</v>
       </c>
-      <c r="B77" s="95" t="str">
+      <c r="B77" s="89" t="str">
         <f>I30</f>
         <v>3*0.0751+5*0.1238+3*0.0751+4*0.1238+7*0.2042+5*0.1238 = 3.6132 ~ 4</v>
       </c>
-      <c r="C77" s="96"/>
-      <c r="D77" s="96"/>
-      <c r="E77" s="96"/>
-      <c r="F77" s="96"/>
-      <c r="G77" s="96"/>
-      <c r="H77" s="96"/>
-      <c r="I77" s="96"/>
-      <c r="J77" s="96"/>
-      <c r="K77" s="96"/>
-      <c r="L77" s="96"/>
-      <c r="M77" s="96"/>
-      <c r="N77" s="96"/>
-      <c r="O77" s="96"/>
-      <c r="P77" s="96"/>
-      <c r="Q77" s="96"/>
-      <c r="R77" s="96"/>
-      <c r="S77" s="96"/>
-      <c r="T77" s="96"/>
-      <c r="U77" s="97"/>
+      <c r="C77" s="90"/>
+      <c r="D77" s="90"/>
+      <c r="E77" s="90"/>
+      <c r="F77" s="90"/>
+      <c r="G77" s="90"/>
+      <c r="H77" s="90"/>
+      <c r="I77" s="90"/>
+      <c r="J77" s="90"/>
+      <c r="K77" s="90"/>
+      <c r="L77" s="90"/>
+      <c r="M77" s="90"/>
+      <c r="N77" s="90"/>
+      <c r="O77" s="90"/>
+      <c r="P77" s="90"/>
+      <c r="Q77" s="90"/>
+      <c r="R77" s="90"/>
+      <c r="S77" s="90"/>
+      <c r="T77" s="90"/>
+      <c r="U77" s="91"/>
     </row>
     <row r="79" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A79" t="s">
         <v>95</v>
       </c>
-      <c r="B79" s="95" t="str">
+      <c r="B79" s="89" t="str">
         <f>M30</f>
         <v>5*0.0751+3*0.1238+3*0.0751+7*0.1238+5*0.2042+5*0.1238 = 3.4788 ~ 3</v>
       </c>
-      <c r="C79" s="96"/>
-      <c r="D79" s="96"/>
-      <c r="E79" s="96"/>
-      <c r="F79" s="96"/>
-      <c r="G79" s="96"/>
-      <c r="H79" s="96"/>
-      <c r="I79" s="96"/>
-      <c r="J79" s="96"/>
-      <c r="K79" s="96"/>
-      <c r="L79" s="96"/>
-      <c r="M79" s="96"/>
-      <c r="N79" s="96"/>
-      <c r="O79" s="96"/>
-      <c r="P79" s="96"/>
-      <c r="Q79" s="96"/>
-      <c r="R79" s="96"/>
-      <c r="S79" s="96"/>
-      <c r="T79" s="96"/>
-      <c r="U79" s="97"/>
+      <c r="C79" s="90"/>
+      <c r="D79" s="90"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="90"/>
+      <c r="H79" s="90"/>
+      <c r="I79" s="90"/>
+      <c r="J79" s="90"/>
+      <c r="K79" s="90"/>
+      <c r="L79" s="90"/>
+      <c r="M79" s="90"/>
+      <c r="N79" s="90"/>
+      <c r="O79" s="90"/>
+      <c r="P79" s="90"/>
+      <c r="Q79" s="90"/>
+      <c r="R79" s="90"/>
+      <c r="S79" s="90"/>
+      <c r="T79" s="90"/>
+      <c r="U79" s="91"/>
     </row>
     <row r="81" spans="1:21" ht="99" x14ac:dyDescent="3.95">
       <c r="A81" t="s">
         <v>96</v>
       </c>
-      <c r="B81" s="95" t="str">
+      <c r="B81" s="89" t="str">
         <f>Q30</f>
         <v>3*0.0751+3*0.1238+5*0.1238+5*0.2042 = 2.2367 ~ 2</v>
       </c>
-      <c r="C81" s="96"/>
-      <c r="D81" s="96"/>
-      <c r="E81" s="96"/>
-      <c r="F81" s="96"/>
-      <c r="G81" s="96"/>
-      <c r="H81" s="96"/>
-      <c r="I81" s="96"/>
-      <c r="J81" s="96"/>
-      <c r="K81" s="96"/>
-      <c r="L81" s="96"/>
-      <c r="M81" s="96"/>
-      <c r="N81" s="96"/>
-      <c r="O81" s="96"/>
-      <c r="P81" s="96"/>
-      <c r="Q81" s="96"/>
-      <c r="R81" s="96"/>
-      <c r="S81" s="96"/>
-      <c r="T81" s="96"/>
-      <c r="U81" s="97"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B81:U81"/>
-    <mergeCell ref="B69:U69"/>
-    <mergeCell ref="B71:U71"/>
-    <mergeCell ref="B73:U73"/>
-    <mergeCell ref="B75:U75"/>
-    <mergeCell ref="B77:U77"/>
-    <mergeCell ref="B79:U79"/>
-    <mergeCell ref="B57:U57"/>
-    <mergeCell ref="B59:U59"/>
-    <mergeCell ref="B61:U61"/>
-    <mergeCell ref="B63:U63"/>
-    <mergeCell ref="B65:U65"/>
-    <mergeCell ref="B67:U67"/>
-    <mergeCell ref="B45:U45"/>
-    <mergeCell ref="B47:U47"/>
-    <mergeCell ref="B49:U49"/>
-    <mergeCell ref="B51:U51"/>
-    <mergeCell ref="B53:U53"/>
-    <mergeCell ref="B55:U55"/>
-    <mergeCell ref="B33:U33"/>
-    <mergeCell ref="B35:U35"/>
-    <mergeCell ref="B37:U37"/>
-    <mergeCell ref="B39:U39"/>
-    <mergeCell ref="B41:U41"/>
-    <mergeCell ref="B43:U43"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6">
-        <v>4</v>
-      </c>
-      <c r="F3" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10">
-        <v>2</v>
-      </c>
-      <c r="D4" s="10">
-        <v>3</v>
-      </c>
-      <c r="E4" s="10">
-        <v>7</v>
-      </c>
-      <c r="F4" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9">
-        <v>5</v>
-      </c>
-      <c r="C5" s="10">
-        <v>6</v>
-      </c>
-      <c r="D5" s="10">
-        <v>7</v>
-      </c>
-      <c r="E5" s="10">
-        <v>2</v>
-      </c>
-      <c r="F5" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10">
-        <v>3</v>
-      </c>
-      <c r="D6" s="10">
-        <v>5</v>
-      </c>
-      <c r="E6" s="10">
-        <v>3</v>
-      </c>
-      <c r="F6" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10">
-        <v>7</v>
-      </c>
-      <c r="E7" s="10">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G14" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="91"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G15" s="30">
-        <v>0</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="30">
-        <v>3</v>
-      </c>
-      <c r="K15" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G16" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="67">
-        <v>0</v>
-      </c>
-      <c r="I16" s="67">
-        <v>0</v>
-      </c>
-      <c r="J16" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16" s="67">
-        <v>3</v>
-      </c>
-      <c r="L16" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="28">
-        <f>(L16-I16)/(K16-H16)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="28">
-        <f>-((H16*(L16-I16))/(K16-H16))+I16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G22" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="94"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G23" s="30">
-        <v>3</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" s="30">
-        <v>4</v>
-      </c>
-      <c r="K23" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="L23" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G24" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="67">
-        <v>3</v>
-      </c>
-      <c r="I24" s="67">
-        <v>1</v>
-      </c>
-      <c r="J24" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="67">
-        <v>4</v>
-      </c>
-      <c r="L24" s="67">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="28">
-        <f>(L24-I24)/(K24-H24)</f>
-        <v>5</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="28">
-        <f>-((H24*(L24-I24))/(K24-H24))+I24</f>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G30" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="91"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G31" s="30">
-        <v>4</v>
-      </c>
-      <c r="H31" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="J31" s="30">
-        <v>7</v>
-      </c>
-      <c r="K31" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="L31" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G32" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="67">
-        <v>4</v>
-      </c>
-      <c r="I32" s="67">
-        <v>6</v>
-      </c>
-      <c r="J32" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32" s="67">
-        <v>7</v>
-      </c>
-      <c r="L32" s="67">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C35" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="28">
-        <f>(L32-I32)/(K32-H32)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="28">
-        <f>-((H32*(L32-I32))/(K32-H32))+I32</f>
-        <v>4.666666666666667</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="5">
-        <v>5</v>
-      </c>
-      <c r="C47" s="6">
-        <v>7</v>
-      </c>
-      <c r="D47" s="6">
-        <v>6</v>
-      </c>
-      <c r="E47" s="6">
-        <v>4</v>
-      </c>
-      <c r="F47" s="6">
-        <v>3</v>
-      </c>
-      <c r="I47">
-        <f>ROUND(IF(AND(B47&gt;$G$15,B47&lt;=$J$15),B47*$D$19+$G$19,IF(AND(B47&gt;$G$23,B47&lt;=$J$23),B47*$D$27+$G$27,B47*$D$35+$G$35)),0)</f>
-        <v>6</v>
-      </c>
-      <c r="J47">
-        <f>ROUND(IF(AND(C47&gt;$G$15,C47&lt;=$J$15),C47*$D$19+$G$19,IF(AND(C47&gt;$G$23,C47&lt;=$J$23),C47*$D$27+$G$27,C47*$D$35+$G$35)),0)</f>
-        <v>7</v>
-      </c>
-      <c r="K47">
-        <f t="shared" ref="J47:M51" si="0">ROUND(IF(AND(D47&gt;$G$15,D47&lt;=$J$15),D47*$D$19+$G$19,IF(AND(D47&gt;$G$23,D47&lt;=$J$23),D47*$D$27+$G$27,D47*$D$35+$G$35)),0)</f>
-        <v>7</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="9">
-        <v>2</v>
-      </c>
-      <c r="C48" s="10">
-        <v>2</v>
-      </c>
-      <c r="D48" s="10">
-        <v>3</v>
-      </c>
-      <c r="E48" s="10">
-        <v>7</v>
-      </c>
-      <c r="F48" s="10">
-        <v>5</v>
-      </c>
-      <c r="I48">
-        <f t="shared" ref="I48:I51" si="1">ROUND(IF(AND(B48&gt;$G$15,B48&lt;=$J$15),B48*$D$19+$G$19,IF(AND(B48&gt;$G$23,B48&lt;=$J$23),B48*$D$27+$G$27,B48*$D$35+$G$35)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="9">
-        <v>5</v>
-      </c>
-      <c r="C49" s="10">
-        <v>6</v>
-      </c>
-      <c r="D49" s="10">
-        <v>7</v>
-      </c>
-      <c r="E49" s="10">
-        <v>2</v>
-      </c>
-      <c r="F49" s="10">
-        <v>7</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="9">
-        <v>4</v>
-      </c>
-      <c r="C50" s="10">
-        <v>3</v>
-      </c>
-      <c r="D50" s="10">
-        <v>5</v>
-      </c>
-      <c r="E50" s="10">
-        <v>3</v>
-      </c>
-      <c r="F50" s="10">
-        <v>3</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="9">
-        <v>4</v>
-      </c>
-      <c r="C51" s="10">
-        <v>4</v>
-      </c>
-      <c r="D51" s="10">
-        <v>7</v>
-      </c>
-      <c r="E51" s="10">
-        <v>5</v>
-      </c>
-      <c r="F51" s="10">
-        <v>5</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="G30:L30"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X81"/>
-  <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28">
-        <v>0</v>
-      </c>
-      <c r="C1" s="28">
-        <v>0</v>
-      </c>
-      <c r="D1" s="28">
-        <v>0</v>
-      </c>
-      <c r="E1" s="28">
-        <v>0</v>
-      </c>
-      <c r="F1" s="28">
-        <v>0</v>
-      </c>
-      <c r="G1" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6">
-        <v>3</v>
-      </c>
-      <c r="G2" s="68">
-        <v>0</v>
-      </c>
-      <c r="H2" s="38">
-        <f>$C$9*(A1*$D$8+B1*$E$8+C1*$F$8+A2*$D$9+B2*$E$9+C2*$F$9+A3*$D$10+B3*$E$10+C3*$F$10)</f>
-        <v>65</v>
-      </c>
-      <c r="I2" s="38">
-        <f>$C$9*(B1*$D$8+C1*$E$8+D1*$F$8+B2*$D$9+C2*$E$9+D2*$F$9+B3*$D$10+C3*$E$10+D3*$F$10)</f>
-        <v>116</v>
-      </c>
-      <c r="J2" s="38">
-        <f t="shared" ref="H2:L6" si="0">$C$9*(C1*$D$8+D1*$E$8+E1*$F$8+C2*$D$9+D2*$E$9+E2*$F$9+C3*$D$10+D3*$E$10+E3*$F$10)</f>
-        <v>134</v>
-      </c>
-      <c r="K2" s="38">
-        <f t="shared" si="0"/>
-        <v>129</v>
-      </c>
-      <c r="L2" s="38">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="N2" s="66">
-        <f>ROUND(H2,0)</f>
-        <v>65</v>
-      </c>
-      <c r="O2" s="66">
-        <f>ROUND(I2,0)</f>
-        <v>116</v>
-      </c>
-      <c r="P2" s="66">
-        <f t="shared" ref="O2:R6" si="1">ROUND(J2,0)</f>
-        <v>134</v>
-      </c>
-      <c r="Q2" s="66">
-        <f t="shared" si="1"/>
-        <v>129</v>
-      </c>
-      <c r="R2" s="66">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="T2" s="69">
-        <f>ROUND(N2/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(B13:D15))), 4)</f>
-        <v>0.51539999999999997</v>
-      </c>
-      <c r="U2" s="69">
-        <f>ROUND(O2/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(F13:H15))), 4)</f>
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="V2" s="69">
-        <f>ROUND(P2/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(J13:L15))),4)</f>
-        <v>0.75349999999999995</v>
-      </c>
-      <c r="W2" s="69">
-        <f>ROUND(Q2/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(N13:P15))),4)</f>
-        <v>0.77180000000000004</v>
-      </c>
-      <c r="X2" s="69">
-        <f>ROUND(R2/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(R13:T15))),4)</f>
-        <v>0.65659999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10">
-        <v>3</v>
-      </c>
-      <c r="E3" s="10">
-        <v>7</v>
-      </c>
-      <c r="F3" s="10">
-        <v>5</v>
-      </c>
-      <c r="G3" s="68">
-        <v>0</v>
-      </c>
-      <c r="H3" s="38">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="I3" s="38">
-        <f t="shared" si="0"/>
-        <v>171</v>
-      </c>
-      <c r="J3" s="38">
-        <f t="shared" si="0"/>
-        <v>166</v>
-      </c>
-      <c r="K3" s="38">
-        <f t="shared" si="0"/>
-        <v>174</v>
-      </c>
-      <c r="L3" s="38">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="N3" s="66">
-        <f t="shared" ref="N3:N6" si="2">ROUND(H3,0)</f>
-        <v>125</v>
-      </c>
-      <c r="O3" s="66">
-        <f t="shared" si="1"/>
-        <v>171</v>
-      </c>
-      <c r="P3" s="66">
-        <f t="shared" si="1"/>
-        <v>166</v>
-      </c>
-      <c r="Q3" s="66">
-        <f t="shared" si="1"/>
-        <v>174</v>
-      </c>
-      <c r="R3" s="66">
-        <f t="shared" si="1"/>
-        <v>135</v>
-      </c>
-      <c r="T3" s="69">
-        <f>ROUND(N3/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(B17:D19))),4)</f>
-        <v>0.75049999999999994</v>
-      </c>
-      <c r="U3" s="69">
-        <f>ROUND(O3/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(F17:H19))), 4)</f>
-        <v>0.79749999999999999</v>
-      </c>
-      <c r="V3" s="69">
-        <f>ROUND(P3/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(J17:L19))), 4)</f>
-        <v>0.75080000000000002</v>
-      </c>
-      <c r="W3" s="69">
-        <f>ROUND(Q3/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(N17:P19))), 4)</f>
-        <v>0.79649999999999999</v>
-      </c>
-      <c r="X3" s="69">
-        <f>ROUND(R3/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(R17:T19))), 4)</f>
-        <v>0.78620000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9">
-        <v>5</v>
-      </c>
-      <c r="C4" s="10">
-        <v>6</v>
-      </c>
-      <c r="D4" s="10">
-        <v>7</v>
-      </c>
-      <c r="E4" s="10">
-        <v>2</v>
-      </c>
-      <c r="F4" s="10">
-        <v>7</v>
-      </c>
-      <c r="G4" s="68">
-        <v>0</v>
-      </c>
-      <c r="H4" s="38">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="I4" s="38">
-        <f>$C$9*(B3*$D$8+C3*$E$8+D3*$F$8+B4*$D$9+C4*$E$9+D4*$F$9+B5*$D$10+C5*$E$10+D5*$F$10)</f>
-        <v>159</v>
-      </c>
-      <c r="J4" s="38">
-        <f t="shared" si="0"/>
-        <v>194</v>
-      </c>
-      <c r="K4" s="38">
-        <f t="shared" si="0"/>
-        <v>171</v>
-      </c>
-      <c r="L4" s="38">
-        <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="N4" s="66">
-        <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="O4" s="66">
-        <f t="shared" si="1"/>
-        <v>159</v>
-      </c>
-      <c r="P4" s="66">
-        <f t="shared" si="1"/>
-        <v>194</v>
-      </c>
-      <c r="Q4" s="66">
-        <f t="shared" si="1"/>
-        <v>171</v>
-      </c>
-      <c r="R4" s="66">
-        <f t="shared" si="1"/>
-        <v>114</v>
-      </c>
-      <c r="T4" s="69">
-        <f>ROUND(N4/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(B21:D23))), 4)</f>
-        <v>0.71089999999999998</v>
-      </c>
-      <c r="U4" s="69">
-        <f>ROUND(O4/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(F21:H23))), 4)</f>
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="V4" s="69">
-        <f>ROUND(P4/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(J21:L23))), 4)</f>
-        <v>1</v>
-      </c>
-      <c r="W4" s="69">
-        <f>ROUND(Q4/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(N21:P23))), 4)</f>
-        <v>0.81310000000000004</v>
-      </c>
-      <c r="X4" s="69">
-        <f>ROUND(R4/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(R21:T23))), 4)</f>
-        <v>0.67969999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10">
-        <v>3</v>
-      </c>
-      <c r="D5" s="10">
-        <v>5</v>
-      </c>
-      <c r="E5" s="10">
-        <v>3</v>
-      </c>
-      <c r="F5" s="10">
-        <v>3</v>
-      </c>
-      <c r="G5" s="70">
-        <v>0</v>
-      </c>
-      <c r="H5" s="38">
-        <f t="shared" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="I5" s="38">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-      <c r="J5" s="38">
-        <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-      <c r="K5" s="38">
-        <f t="shared" si="0"/>
-        <v>187</v>
-      </c>
-      <c r="L5" s="38">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="N5" s="66">
-        <f t="shared" si="2"/>
-        <v>123</v>
-      </c>
-      <c r="O5" s="66">
-        <f t="shared" si="1"/>
-        <v>185</v>
-      </c>
-      <c r="P5" s="66">
-        <f t="shared" si="1"/>
-        <v>168</v>
-      </c>
-      <c r="Q5" s="66">
-        <f t="shared" si="1"/>
-        <v>187</v>
-      </c>
-      <c r="R5" s="66">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="T5" s="69">
-        <f>ROUND(N5/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(B25:D27))), 4)</f>
-        <v>0.81289999999999996</v>
-      </c>
-      <c r="U5" s="69">
-        <f>ROUND(O5/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(F25:H27))), 4)</f>
-        <v>0.85560000000000003</v>
-      </c>
-      <c r="V5" s="69">
-        <f>ROUND(P5/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(J25:L27))), 4)</f>
-        <v>0.8095</v>
-      </c>
-      <c r="W5" s="69">
-        <f>ROUND(Q5/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(N25:P27))), 4)</f>
-        <v>0.85950000000000004</v>
-      </c>
-      <c r="X5" s="69">
-        <f>ROUND(R5/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(R25:T27))), 4)</f>
-        <v>0.67879999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10">
-        <v>4</v>
-      </c>
-      <c r="D6" s="10">
-        <v>7</v>
-      </c>
-      <c r="E6" s="10">
-        <v>5</v>
-      </c>
-      <c r="F6" s="10">
-        <v>5</v>
-      </c>
-      <c r="G6" s="70">
-        <v>0</v>
-      </c>
-      <c r="H6" s="38">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="I6" s="38">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="J6" s="38">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="K6" s="38">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="L6" s="38">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="N6" s="66">
-        <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="O6" s="66">
-        <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-      <c r="P6" s="66">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="Q6" s="66">
-        <f t="shared" si="1"/>
-        <v>127</v>
-      </c>
-      <c r="R6" s="66">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="T6" s="69">
-        <f>ROUND(N6/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(B29:D31))), 4)</f>
-        <v>0.65620000000000001</v>
-      </c>
-      <c r="U6" s="69">
-        <f>ROUND(O6/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(F29:H31))), 4)</f>
-        <v>0.74019999999999997</v>
-      </c>
-      <c r="V6" s="69">
-        <f>ROUND(P6/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(J29:L31))), 4)</f>
-        <v>0.7782</v>
-      </c>
-      <c r="W6" s="69">
-        <f>ROUND(Q6/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(N29:P31))), 4)</f>
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="X6" s="69">
-        <f>ROUND(R6/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(R29:T31))), 4)</f>
-        <v>0.69650000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
-        <v>0</v>
-      </c>
-      <c r="B7" s="71">
-        <v>0</v>
-      </c>
-      <c r="C7" s="71">
-        <v>0</v>
-      </c>
-      <c r="D7" s="71">
-        <v>0</v>
-      </c>
-      <c r="E7" s="71">
-        <v>0</v>
-      </c>
-      <c r="F7" s="71">
-        <v>0</v>
-      </c>
-      <c r="G7" s="70">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="10">
-        <v>2</v>
-      </c>
-      <c r="E8" s="10">
-        <v>3</v>
-      </c>
-      <c r="F8" s="10">
-        <v>7</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="9" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="72">
-        <v>1</v>
-      </c>
-      <c r="D9" s="10">
-        <v>6</v>
-      </c>
-      <c r="E9" s="10">
-        <v>7</v>
-      </c>
-      <c r="F9" s="10">
-        <v>2</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="10">
-        <v>3</v>
-      </c>
-      <c r="E10" s="10">
-        <v>5</v>
-      </c>
-      <c r="F10" s="10">
-        <v>3</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="38">
-        <f>A1</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="38">
-        <f t="shared" ref="C13:D13" si="3">B1</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="38">
-        <f>B1</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="38">
-        <f t="shared" ref="G13:H15" si="4">C1</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="38">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="74"/>
-      <c r="J13" s="38">
-        <f>C1</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="38">
-        <f t="shared" ref="K13:L15" si="5">D1</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="74"/>
-      <c r="N13" s="38">
-        <f>D1</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="38">
-        <f t="shared" ref="N13:P15" si="6">E1</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="38">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="38">
-        <f t="shared" ref="R13:T15" si="7">E1</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="38">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="38">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(B13&gt;0, CONCATENATE(B13,"*",$D$8,"+"),""), IF(C13&gt;0, CONCATENATE(C13,"*",$E$8,"+"),""), IF(D13&gt;0, CONCATENATE(D13,"*",$F$8,"+"),""), IF(B14&gt;0, CONCATENATE(B14,"*",$D$9,"+"),""), IF(C14&gt;0, CONCATENATE(C14,"*",$E$9,"+"),""), IF(D14&gt;0, CONCATENATE(D14,"*",$F$9,"+"),""), IF(B15&gt;0, CONCATENATE(B15,"*",$D$10,"+"),""), IF(C15&gt;0, CONCATENATE(C15,"*",$E$10,"+"),""), IF(D15&gt;0, CONCATENATE(D15,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(B13&gt;0, CONCATENATE(B13,"*",$D$8,"+"),""), IF(C13&gt;0, CONCATENATE(C13,"*",$E$8,"+"),""), IF(D13&gt;0, CONCATENATE(D13,"*",$F$8,"+"),""), IF(B14&gt;0, CONCATENATE(B14,"*",$D$9,"+"),""), IF(C14&gt;0, CONCATENATE(C14,"*",$E$9,"+"),""), IF(D14&gt;0, CONCATENATE(D14,"*",$F$9,"+"),""), IF(B15&gt;0, CONCATENATE(B15,"*",$D$10,"+"),""), IF(C15&gt;0, CONCATENATE(C15,"*",$E$10,"+"),""), IF(D15&gt;0, CONCATENATE(D15,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(B13*$D$8+C13*$E$8+D13*$F$8+B14*$D$9+C14*$E$9+D14*$F$9+B15*$D$10+C15*$E$10+D15*$F$10), 4))</f>
-        <v>5*7+7*2+2*5+2*3 = 65</v>
-      </c>
-      <c r="B14" s="38">
-        <f t="shared" ref="B14:D15" si="8">A2</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="67">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="D14" s="67">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="E14" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(F13&gt;0, CONCATENATE(F13,"*",$D$8,"+"),""), IF(G13&gt;0, CONCATENATE(G13,"*",$E$8,"+"),""), IF(H13&gt;0, CONCATENATE(H13,"*",$F$8,"+"),""), IF(F14&gt;0, CONCATENATE(F14,"*",$D$9,"+"),""), IF(G14&gt;0, CONCATENATE(G14,"*",$E$9,"+"),""), IF(H14&gt;0, CONCATENATE(H14,"*",$F$9,"+"),""), IF(F15&gt;0, CONCATENATE(F15,"*",$D$10,"+"),""), IF(G15&gt;0, CONCATENATE(G15,"*",$E$10,"+"),""), IF(H15&gt;0, CONCATENATE(H15,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(F13&gt;0, CONCATENATE(F13,"*",$D$8,"+"),""), IF(G13&gt;0, CONCATENATE(G13,"*",$E$8,"+"),""), IF(H13&gt;0, CONCATENATE(H13,"*",$F$8,"+"),""), IF(F14&gt;0, CONCATENATE(F14,"*",$D$9,"+"),""), IF(G14&gt;0, CONCATENATE(G14,"*",$E$9,"+"),""), IF(H14&gt;0, CONCATENATE(H14,"*",$F$9,"+"),""), IF(F15&gt;0, CONCATENATE(F15,"*",$D$10,"+"),""), IF(G15&gt;0, CONCATENATE(G15,"*",$E$10,"+"),""), IF(H15&gt;0, CONCATENATE(H15,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(F13*$D$8+G13*$E$8+H13*$F$8+F14*$D$9+G14*$E$9+H14*$F$9+F15*$D$10+G15*$E$10+H15*$F$10), 4))</f>
-        <v>5*6+7*7+6*2+2*3+2*5+3*3 = 116</v>
-      </c>
-      <c r="F14" s="67">
-        <f t="shared" ref="F14:F15" si="9">B2</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="67">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="H14" s="67">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="I14" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(J13&gt;0, CONCATENATE(J13,"*",$D$8,"+"),""), IF(K13&gt;0, CONCATENATE(K13,"*",$E$8,"+"),""), IF(L13&gt;0, CONCATENATE(L13,"*",$F$8,"+"),""), IF(J14&gt;0, CONCATENATE(J14,"*",$D$9,"+"),""), IF(K14&gt;0, CONCATENATE(K14,"*",$E$9,"+"),""), IF(L14&gt;0, CONCATENATE(L14,"*",$F$9,"+"),""), IF(J15&gt;0, CONCATENATE(J15,"*",$D$10,"+"),""), IF(K15&gt;0, CONCATENATE(K15,"*",$E$10,"+"),""), IF(L15&gt;0, CONCATENATE(L15,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(J13&gt;0, CONCATENATE(J13,"*",$D$8,"+"),""), IF(K13&gt;0, CONCATENATE(K13,"*",$E$8,"+"),""), IF(L13&gt;0, CONCATENATE(L13,"*",$F$8,"+"),""), IF(J14&gt;0, CONCATENATE(J14,"*",$D$9,"+"),""), IF(K14&gt;0, CONCATENATE(K14,"*",$E$9,"+"),""), IF(L14&gt;0, CONCATENATE(L14,"*",$F$9,"+"),""), IF(J15&gt;0, CONCATENATE(J15,"*",$D$10,"+"),""), IF(K15&gt;0, CONCATENATE(K15,"*",$E$10,"+"),""), IF(L15&gt;0, CONCATENATE(L15,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(J13*$D$8+K13*$E$8+L13*$F$8+J14*$D$9+K14*$E$9+L14*$F$9+J15*$D$10+K15*$E$10+L15*$F$10), 4))</f>
-        <v>7*6+6*7+4*2+2*3+3*5+7*3 = 134</v>
-      </c>
-      <c r="J14" s="67">
-        <f t="shared" ref="J14:J15" si="10">C2</f>
-        <v>7</v>
-      </c>
-      <c r="K14" s="67">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="L14" s="67">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="M14" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(N13&gt;0, CONCATENATE(N13,"*",$D$8,"+"),""), IF(O13&gt;0, CONCATENATE(O13,"*",$E$8,"+"),""), IF(P13&gt;0, CONCATENATE(P13,"*",$F$8,"+"),""), IF(N14&gt;0, CONCATENATE(N14,"*",$D$9,"+"),""), IF(O14&gt;0, CONCATENATE(O14,"*",$E$9,"+"),""), IF(P14&gt;0, CONCATENATE(P14,"*",$F$9,"+"),""), IF(N15&gt;0, CONCATENATE(N15,"*",$D$10,"+"),""), IF(O15&gt;0, CONCATENATE(O15,"*",$E$10,"+"),""), IF(P15&gt;0, CONCATENATE(P15,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(N13&gt;0, CONCATENATE(N13,"*",$D$8,"+"),""), IF(O13&gt;0, CONCATENATE(O13,"*",$E$8,"+"),""), IF(P13&gt;0, CONCATENATE(P13,"*",$F$8,"+"),""), IF(N14&gt;0, CONCATENATE(N14,"*",$D$9,"+"),""), IF(O14&gt;0, CONCATENATE(O14,"*",$E$9,"+"),""), IF(P14&gt;0, CONCATENATE(P14,"*",$F$9,"+"),""), IF(N15&gt;0, CONCATENATE(N15,"*",$D$10,"+"),""), IF(O15&gt;0, CONCATENATE(O15,"*",$E$10,"+"),""), IF(P15&gt;0, CONCATENATE(P15,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(N13*$D$8+O13*$E$8+P13*$F$8+N14*$D$9+O14*$E$9+P14*$F$9+N15*$D$10+O15*$E$10+P15*$F$10), 4))</f>
-        <v>6*6+4*7+3*2+3*3+7*5+5*3 = 129</v>
-      </c>
-      <c r="N14" s="67">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="O14" s="67">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="P14" s="67">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Q14" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(R13&gt;0, CONCATENATE(R13,"*",$D$8,"+"),""), IF(S13&gt;0, CONCATENATE(S13,"*",$E$8,"+"),""), IF(T13&gt;0, CONCATENATE(T13,"*",$F$8,"+"),""), IF(R14&gt;0, CONCATENATE(R14,"*",$D$9,"+"),""), IF(S14&gt;0, CONCATENATE(S14,"*",$E$9,"+"),""), IF(T14&gt;0, CONCATENATE(T14,"*",$F$9,"+"),""), IF(R15&gt;0, CONCATENATE(R15,"*",$D$10,"+"),""), IF(S15&gt;0, CONCATENATE(S15,"*",$E$10,"+"),""), IF(T15&gt;0, CONCATENATE(T15,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(R13&gt;0, CONCATENATE(R13,"*",$D$8,"+"),""), IF(S13&gt;0, CONCATENATE(S13,"*",$E$8,"+"),""), IF(T13&gt;0, CONCATENATE(T13,"*",$F$8,"+"),""), IF(R14&gt;0, CONCATENATE(R14,"*",$D$9,"+"),""), IF(S14&gt;0, CONCATENATE(S14,"*",$E$9,"+"),""), IF(T14&gt;0, CONCATENATE(T14,"*",$F$9,"+"),""), IF(R15&gt;0, CONCATENATE(R15,"*",$D$10,"+"),""), IF(S15&gt;0, CONCATENATE(S15,"*",$E$10,"+"),""), IF(T15&gt;0, CONCATENATE(T15,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(R13*$D$8+S13*$E$8+T13*$F$8+R14*$D$9+S14*$E$9+T14*$F$9+R15*$D$10+S15*$E$10+T15*$F$10), 4))</f>
-        <v>4*6+3*7+7*3+5*5 = 91</v>
-      </c>
-      <c r="R14" s="67">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="S14" s="67">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="T14" s="38">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="38">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="67">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="D15" s="67">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="E15" s="74"/>
-      <c r="F15" s="67">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="G15" s="67">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="H15" s="67">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I15" s="74"/>
-      <c r="J15" s="67">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="K15" s="67">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="L15" s="67">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="M15" s="74"/>
-      <c r="N15" s="67">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="O15" s="67">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="P15" s="67">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="67">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="S15" s="67">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="T15" s="38">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="38">
-        <f>A2</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="67">
-        <f t="shared" ref="C17:D17" si="11">B2</f>
-        <v>5</v>
-      </c>
-      <c r="D17" s="67">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="E17" s="74"/>
-      <c r="F17" s="67">
-        <f>B2</f>
-        <v>5</v>
-      </c>
-      <c r="G17" s="67">
-        <f t="shared" ref="G17:H19" si="12">C2</f>
-        <v>7</v>
-      </c>
-      <c r="H17" s="67">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="I17" s="74"/>
-      <c r="J17" s="67">
-        <f>C2</f>
-        <v>7</v>
-      </c>
-      <c r="K17" s="67">
-        <f t="shared" ref="K17:L19" si="13">D2</f>
-        <v>6</v>
-      </c>
-      <c r="L17" s="67">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="M17" s="74"/>
-      <c r="N17" s="67">
-        <f>D2</f>
-        <v>6</v>
-      </c>
-      <c r="O17" s="67">
-        <f t="shared" ref="O17:P19" si="14">E2</f>
-        <v>4</v>
-      </c>
-      <c r="P17" s="67">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="67">
-        <f>E2</f>
-        <v>4</v>
-      </c>
-      <c r="S17" s="67">
-        <f t="shared" ref="S17:T19" si="15">F2</f>
-        <v>3</v>
-      </c>
-      <c r="T17" s="38">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(B17&gt;0, CONCATENATE(B17,"*",$D$8,"+"),""), IF(C17&gt;0, CONCATENATE(C17,"*",$E$8,"+"),""), IF(D17&gt;0, CONCATENATE(D17,"*",$F$8,"+"),""), IF(B18&gt;0, CONCATENATE(B18,"*",$D$9,"+"),""), IF(C18&gt;0, CONCATENATE(C18,"*",$E$9,"+"),""), IF(D18&gt;0, CONCATENATE(D18,"*",$F$9,"+"),""), IF(B19&gt;0, CONCATENATE(B19,"*",$D$10,"+"),""), IF(C19&gt;0, CONCATENATE(C19,"*",$E$10,"+"),""), IF(D19&gt;0, CONCATENATE(D19,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(B17&gt;0, CONCATENATE(B17,"*",$D$8,"+"),""), IF(C17&gt;0, CONCATENATE(C17,"*",$E$8,"+"),""), IF(D17&gt;0, CONCATENATE(D17,"*",$F$8,"+"),""), IF(B18&gt;0, CONCATENATE(B18,"*",$D$9,"+"),""), IF(C18&gt;0, CONCATENATE(C18,"*",$E$9,"+"),""), IF(D18&gt;0, CONCATENATE(D18,"*",$F$9,"+"),""), IF(B19&gt;0, CONCATENATE(B19,"*",$D$10,"+"),""), IF(C19&gt;0, CONCATENATE(C19,"*",$E$10,"+"),""), IF(D19&gt;0, CONCATENATE(D19,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(B17*$D$8+C17*$E$8+D17*$F$8+B18*$D$9+C18*$E$9+D18*$F$9+B19*$D$10+C19*$E$10+D19*$F$10), 4))</f>
-        <v>5*3+7*7+2*7+2*2+5*5+6*3 = 125</v>
-      </c>
-      <c r="B18" s="38">
-        <f t="shared" ref="B18:D19" si="16">A3</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="67">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="D18" s="67">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="E18" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(F17&gt;0, CONCATENATE(F17,"*",$D$8,"+"),""), IF(G17&gt;0, CONCATENATE(G17,"*",$E$8,"+"),""), IF(H17&gt;0, CONCATENATE(H17,"*",$F$8,"+"),""), IF(F18&gt;0, CONCATENATE(F18,"*",$D$9,"+"),""), IF(G18&gt;0, CONCATENATE(G18,"*",$E$9,"+"),""), IF(H18&gt;0, CONCATENATE(H18,"*",$F$9,"+"),""), IF(F19&gt;0, CONCATENATE(F19,"*",$D$10,"+"),""), IF(G19&gt;0, CONCATENATE(G19,"*",$E$10,"+"),""), IF(H19&gt;0, CONCATENATE(H19,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(F17&gt;0, CONCATENATE(F17,"*",$D$8,"+"),""), IF(G17&gt;0, CONCATENATE(G17,"*",$E$8,"+"),""), IF(H17&gt;0, CONCATENATE(H17,"*",$F$8,"+"),""), IF(F18&gt;0, CONCATENATE(F18,"*",$D$9,"+"),""), IF(G18&gt;0, CONCATENATE(G18,"*",$E$9,"+"),""), IF(H18&gt;0, CONCATENATE(H18,"*",$F$9,"+"),""), IF(F19&gt;0, CONCATENATE(F19,"*",$D$10,"+"),""), IF(G19&gt;0, CONCATENATE(G19,"*",$E$10,"+"),""), IF(H19&gt;0, CONCATENATE(H19,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(F17*$D$8+G17*$E$8+H17*$F$8+F18*$D$9+G18*$E$9+H18*$F$9+F19*$D$10+G19*$E$10+H19*$F$10), 4))</f>
-        <v>5*2+7*3+6*7+2*6+2*7+3*2+5*3+6*5+7*3 = 171</v>
-      </c>
-      <c r="F18" s="67">
-        <f t="shared" ref="F18:F19" si="17">B3</f>
-        <v>2</v>
-      </c>
-      <c r="G18" s="67">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="H18" s="67">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="I18" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(J17&gt;0, CONCATENATE(J17,"*",$D$8,"+"),""), IF(K17&gt;0, CONCATENATE(K17,"*",$E$8,"+"),""), IF(L17&gt;0, CONCATENATE(L17,"*",$F$8,"+"),""), IF(J18&gt;0, CONCATENATE(J18,"*",$D$9,"+"),""), IF(K18&gt;0, CONCATENATE(K18,"*",$E$9,"+"),""), IF(L18&gt;0, CONCATENATE(L18,"*",$F$9,"+"),""), IF(J19&gt;0, CONCATENATE(J19,"*",$D$10,"+"),""), IF(K19&gt;0, CONCATENATE(K19,"*",$E$10,"+"),""), IF(L19&gt;0, CONCATENATE(L19,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(J17&gt;0, CONCATENATE(J17,"*",$D$8,"+"),""), IF(K17&gt;0, CONCATENATE(K17,"*",$E$8,"+"),""), IF(L17&gt;0, CONCATENATE(L17,"*",$F$8,"+"),""), IF(J18&gt;0, CONCATENATE(J18,"*",$D$9,"+"),""), IF(K18&gt;0, CONCATENATE(K18,"*",$E$9,"+"),""), IF(L18&gt;0, CONCATENATE(L18,"*",$F$9,"+"),""), IF(J19&gt;0, CONCATENATE(J19,"*",$D$10,"+"),""), IF(K19&gt;0, CONCATENATE(K19,"*",$E$10,"+"),""), IF(L19&gt;0, CONCATENATE(L19,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(J17*$D$8+K17*$E$8+L17*$F$8+J18*$D$9+K18*$E$9+L18*$F$9+J19*$D$10+K19*$E$10+L19*$F$10), 4))</f>
-        <v>7*2+6*3+4*7+2*6+3*7+7*2+6*3+7*5+2*3 = 166</v>
-      </c>
-      <c r="J18" s="67">
-        <f t="shared" ref="J18:J19" si="18">C3</f>
-        <v>2</v>
-      </c>
-      <c r="K18" s="67">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="L18" s="67">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="M18" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(N17&gt;0, CONCATENATE(N17,"*",$D$8,"+"),""), IF(O17&gt;0, CONCATENATE(O17,"*",$E$8,"+"),""), IF(P17&gt;0, CONCATENATE(P17,"*",$F$8,"+"),""), IF(N18&gt;0, CONCATENATE(N18,"*",$D$9,"+"),""), IF(O18&gt;0, CONCATENATE(O18,"*",$E$9,"+"),""), IF(P18&gt;0, CONCATENATE(P18,"*",$F$9,"+"),""), IF(N19&gt;0, CONCATENATE(N19,"*",$D$10,"+"),""), IF(O19&gt;0, CONCATENATE(O19,"*",$E$10,"+"),""), IF(P19&gt;0, CONCATENATE(P19,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(N17&gt;0, CONCATENATE(N17,"*",$D$8,"+"),""), IF(O17&gt;0, CONCATENATE(O17,"*",$E$8,"+"),""), IF(P17&gt;0, CONCATENATE(P17,"*",$F$8,"+"),""), IF(N18&gt;0, CONCATENATE(N18,"*",$D$9,"+"),""), IF(O18&gt;0, CONCATENATE(O18,"*",$E$9,"+"),""), IF(P18&gt;0, CONCATENATE(P18,"*",$F$9,"+"),""), IF(N19&gt;0, CONCATENATE(N19,"*",$D$10,"+"),""), IF(O19&gt;0, CONCATENATE(O19,"*",$E$10,"+"),""), IF(P19&gt;0, CONCATENATE(P19,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(N17*$D$8+O17*$E$8+P17*$F$8+N18*$D$9+O18*$E$9+P18*$F$9+N19*$D$10+O19*$E$10+P19*$F$10), 4))</f>
-        <v>6*2+4*3+3*7+3*6+7*7+5*2+7*3+2*5+7*3 = 174</v>
-      </c>
-      <c r="N18" s="67">
-        <f t="shared" ref="N18:N19" si="19">D3</f>
-        <v>3</v>
-      </c>
-      <c r="O18" s="67">
-        <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="P18" s="67">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="Q18" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(R17&gt;0, CONCATENATE(R17,"*",$D$8,"+"),""), IF(S17&gt;0, CONCATENATE(S17,"*",$E$8,"+"),""), IF(T17&gt;0, CONCATENATE(T17,"*",$F$8,"+"),""), IF(R18&gt;0, CONCATENATE(R18,"*",$D$9,"+"),""), IF(S18&gt;0, CONCATENATE(S18,"*",$E$9,"+"),""), IF(T18&gt;0, CONCATENATE(T18,"*",$F$9,"+"),""), IF(R19&gt;0, CONCATENATE(R19,"*",$D$10,"+"),""), IF(S19&gt;0, CONCATENATE(S19,"*",$E$10,"+"),""), IF(T19&gt;0, CONCATENATE(T19,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(R17&gt;0, CONCATENATE(R17,"*",$D$8,"+"),""), IF(S17&gt;0, CONCATENATE(S17,"*",$E$8,"+"),""), IF(T17&gt;0, CONCATENATE(T17,"*",$F$8,"+"),""), IF(R18&gt;0, CONCATENATE(R18,"*",$D$9,"+"),""), IF(S18&gt;0, CONCATENATE(S18,"*",$E$9,"+"),""), IF(T18&gt;0, CONCATENATE(T18,"*",$F$9,"+"),""), IF(R19&gt;0, CONCATENATE(R19,"*",$D$10,"+"),""), IF(S19&gt;0, CONCATENATE(S19,"*",$E$10,"+"),""), IF(T19&gt;0, CONCATENATE(T19,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(R17*$D$8+S17*$E$8+T17*$F$8+R18*$D$9+S18*$E$9+T18*$F$9+R19*$D$10+S19*$E$10+T19*$F$10), 4))</f>
-        <v>4*2+3*3+7*6+5*7+2*3+7*5 = 135</v>
-      </c>
-      <c r="R18" s="67">
-        <f t="shared" ref="R18:R19" si="20">E3</f>
-        <v>7</v>
-      </c>
-      <c r="S18" s="67">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="T18" s="38">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="38">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="67">
-        <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="D19" s="67">
-        <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="67">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="G19" s="67">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="H19" s="67">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="I19" s="74"/>
-      <c r="J19" s="67">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="K19" s="67">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="L19" s="67">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="M19" s="74"/>
-      <c r="N19" s="67">
-        <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="O19" s="67">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="P19" s="67">
-        <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="67">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="S19" s="67">
-        <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="T19" s="38">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="38">
-        <f>A3</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="67">
-        <f t="shared" ref="C21:D21" si="21">B3</f>
-        <v>2</v>
-      </c>
-      <c r="D21" s="67">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="E21" s="74"/>
-      <c r="F21" s="67">
-        <f>B3</f>
-        <v>2</v>
-      </c>
-      <c r="G21" s="67">
-        <f t="shared" ref="G21:H23" si="22">C3</f>
-        <v>2</v>
-      </c>
-      <c r="H21" s="67">
-        <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-      <c r="I21" s="74"/>
-      <c r="J21" s="67">
-        <f>C3</f>
-        <v>2</v>
-      </c>
-      <c r="K21" s="67">
-        <f t="shared" ref="K21:L23" si="23">D3</f>
-        <v>3</v>
-      </c>
-      <c r="L21" s="67">
-        <f t="shared" si="23"/>
-        <v>7</v>
-      </c>
-      <c r="M21" s="74"/>
-      <c r="N21" s="67">
-        <f>D3</f>
-        <v>3</v>
-      </c>
-      <c r="O21" s="67">
-        <f t="shared" ref="O21:P23" si="24">E3</f>
-        <v>7</v>
-      </c>
-      <c r="P21" s="67">
-        <f t="shared" si="24"/>
-        <v>5</v>
-      </c>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="67">
-        <f>E3</f>
-        <v>7</v>
-      </c>
-      <c r="S21" s="67">
-        <f t="shared" ref="S21:T23" si="25">F3</f>
-        <v>5</v>
-      </c>
-      <c r="T21" s="38">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(B21&gt;0, CONCATENATE(B21,"*",$D$8,"+"),""), IF(C21&gt;0, CONCATENATE(C21,"*",$E$8,"+"),""), IF(D21&gt;0, CONCATENATE(D21,"*",$F$8,"+"),""), IF(B22&gt;0, CONCATENATE(B22,"*",$D$9,"+"),""), IF(C22&gt;0, CONCATENATE(C22,"*",$E$9,"+"),""), IF(D22&gt;0, CONCATENATE(D22,"*",$F$9,"+"),""), IF(B23&gt;0, CONCATENATE(B23,"*",$D$10,"+"),""), IF(C23&gt;0, CONCATENATE(C23,"*",$E$10,"+"),""), IF(D23&gt;0, CONCATENATE(D23,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(B21&gt;0, CONCATENATE(B21,"*",$D$8,"+"),""), IF(C21&gt;0, CONCATENATE(C21,"*",$E$8,"+"),""), IF(D21&gt;0, CONCATENATE(D21,"*",$F$8,"+"),""), IF(B22&gt;0, CONCATENATE(B22,"*",$D$9,"+"),""), IF(C22&gt;0, CONCATENATE(C22,"*",$E$9,"+"),""), IF(D22&gt;0, CONCATENATE(D22,"*",$F$9,"+"),""), IF(B23&gt;0, CONCATENATE(B23,"*",$D$10,"+"),""), IF(C23&gt;0, CONCATENATE(C23,"*",$E$10,"+"),""), IF(D23&gt;0, CONCATENATE(D23,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(B21*$D$8+C21*$E$8+D21*$F$8+B22*$D$9+C22*$E$9+D22*$F$9+B23*$D$10+C23*$E$10+D23*$F$10), 4))</f>
-        <v>2*3+2*7+5*7+6*2+4*5+3*3 = 96</v>
-      </c>
-      <c r="B22" s="38">
-        <f t="shared" ref="B22:D23" si="26">A4</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="67">
-        <f t="shared" si="26"/>
-        <v>5</v>
-      </c>
-      <c r="D22" s="67">
-        <f t="shared" si="26"/>
-        <v>6</v>
-      </c>
-      <c r="E22" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(F21&gt;0, CONCATENATE(F21,"*",$D$8,"+"),""), IF(G21&gt;0, CONCATENATE(G21,"*",$E$8,"+"),""), IF(H21&gt;0, CONCATENATE(H21,"*",$F$8,"+"),""), IF(F22&gt;0, CONCATENATE(F22,"*",$D$9,"+"),""), IF(G22&gt;0, CONCATENATE(G22,"*",$E$9,"+"),""), IF(H22&gt;0, CONCATENATE(H22,"*",$F$9,"+"),""), IF(F23&gt;0, CONCATENATE(F23,"*",$D$10,"+"),""), IF(G23&gt;0, CONCATENATE(G23,"*",$E$10,"+"),""), IF(H23&gt;0, CONCATENATE(H23,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(F21&gt;0, CONCATENATE(F21,"*",$D$8,"+"),""), IF(G21&gt;0, CONCATENATE(G21,"*",$E$8,"+"),""), IF(H21&gt;0, CONCATENATE(H21,"*",$F$8,"+"),""), IF(F22&gt;0, CONCATENATE(F22,"*",$D$9,"+"),""), IF(G22&gt;0, CONCATENATE(G22,"*",$E$9,"+"),""), IF(H22&gt;0, CONCATENATE(H22,"*",$F$9,"+"),""), IF(F23&gt;0, CONCATENATE(F23,"*",$D$10,"+"),""), IF(G23&gt;0, CONCATENATE(G23,"*",$E$10,"+"),""), IF(H23&gt;0, CONCATENATE(H23,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(F21*$D$8+G21*$E$8+H21*$F$8+F22*$D$9+G22*$E$9+H22*$F$9+F23*$D$10+G23*$E$10+H23*$F$10), 4))</f>
-        <v>2*2+2*3+3*7+5*6+6*7+7*2+4*3+3*5+5*3 = 159</v>
-      </c>
-      <c r="F22" s="67">
-        <f>B4</f>
-        <v>5</v>
-      </c>
-      <c r="G22" s="67">
-        <f t="shared" si="22"/>
-        <v>6</v>
-      </c>
-      <c r="H22" s="67">
-        <f t="shared" si="22"/>
-        <v>7</v>
-      </c>
-      <c r="I22" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(J21&gt;0, CONCATENATE(J21,"*",$D$8,"+"),""), IF(K21&gt;0, CONCATENATE(K21,"*",$E$8,"+"),""), IF(L21&gt;0, CONCATENATE(L21,"*",$F$8,"+"),""), IF(J22&gt;0, CONCATENATE(J22,"*",$D$9,"+"),""), IF(K22&gt;0, CONCATENATE(K22,"*",$E$9,"+"),""), IF(L22&gt;0, CONCATENATE(L22,"*",$F$9,"+"),""), IF(J23&gt;0, CONCATENATE(J23,"*",$D$10,"+"),""), IF(K23&gt;0, CONCATENATE(K23,"*",$E$10,"+"),""), IF(L23&gt;0, CONCATENATE(L23,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(J21&gt;0, CONCATENATE(J21,"*",$D$8,"+"),""), IF(K21&gt;0, CONCATENATE(K21,"*",$E$8,"+"),""), IF(L21&gt;0, CONCATENATE(L21,"*",$F$8,"+"),""), IF(J22&gt;0, CONCATENATE(J22,"*",$D$9,"+"),""), IF(K22&gt;0, CONCATENATE(K22,"*",$E$9,"+"),""), IF(L22&gt;0, CONCATENATE(L22,"*",$F$9,"+"),""), IF(J23&gt;0, CONCATENATE(J23,"*",$D$10,"+"),""), IF(K23&gt;0, CONCATENATE(K23,"*",$E$10,"+"),""), IF(L23&gt;0, CONCATENATE(L23,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(J21*$D$8+K21*$E$8+L21*$F$8+J22*$D$9+K22*$E$9+L22*$F$9+J23*$D$10+K23*$E$10+L23*$F$10), 4))</f>
-        <v>2*2+3*3+7*7+6*6+7*7+2*2+3*3+5*5+3*3 = 194</v>
-      </c>
-      <c r="J22" s="67">
-        <f t="shared" ref="J22:J23" si="27">C4</f>
-        <v>6</v>
-      </c>
-      <c r="K22" s="67">
-        <f t="shared" si="23"/>
-        <v>7</v>
-      </c>
-      <c r="L22" s="67">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="M22" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(N21&gt;0, CONCATENATE(N21,"*",$D$8,"+"),""), IF(O21&gt;0, CONCATENATE(O21,"*",$E$8,"+"),""), IF(P21&gt;0, CONCATENATE(P21,"*",$F$8,"+"),""), IF(N22&gt;0, CONCATENATE(N22,"*",$D$9,"+"),""), IF(O22&gt;0, CONCATENATE(O22,"*",$E$9,"+"),""), IF(P22&gt;0, CONCATENATE(P22,"*",$F$9,"+"),""), IF(N23&gt;0, CONCATENATE(N23,"*",$D$10,"+"),""), IF(O23&gt;0, CONCATENATE(O23,"*",$E$10,"+"),""), IF(P23&gt;0, CONCATENATE(P23,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(N21&gt;0, CONCATENATE(N21,"*",$D$8,"+"),""), IF(O21&gt;0, CONCATENATE(O21,"*",$E$8,"+"),""), IF(P21&gt;0, CONCATENATE(P21,"*",$F$8,"+"),""), IF(N22&gt;0, CONCATENATE(N22,"*",$D$9,"+"),""), IF(O22&gt;0, CONCATENATE(O22,"*",$E$9,"+"),""), IF(P22&gt;0, CONCATENATE(P22,"*",$F$9,"+"),""), IF(N23&gt;0, CONCATENATE(N23,"*",$D$10,"+"),""), IF(O23&gt;0, CONCATENATE(O23,"*",$E$10,"+"),""), IF(P23&gt;0, CONCATENATE(P23,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(N21*$D$8+O21*$E$8+P21*$F$8+N22*$D$9+O22*$E$9+P22*$F$9+N23*$D$10+O23*$E$10+P23*$F$10), 4))</f>
-        <v>3*2+7*3+5*7+7*6+2*7+7*2+5*3+3*5+3*3 = 171</v>
-      </c>
-      <c r="N22" s="67">
-        <f t="shared" ref="N22:N23" si="28">D4</f>
-        <v>7</v>
-      </c>
-      <c r="O22" s="67">
-        <f t="shared" si="24"/>
-        <v>2</v>
-      </c>
-      <c r="P22" s="67">
-        <f t="shared" si="24"/>
-        <v>7</v>
-      </c>
-      <c r="Q22" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(R21&gt;0, CONCATENATE(R21,"*",$D$8,"+"),""), IF(S21&gt;0, CONCATENATE(S21,"*",$E$8,"+"),""), IF(T21&gt;0, CONCATENATE(T21,"*",$F$8,"+"),""), IF(R22&gt;0, CONCATENATE(R22,"*",$D$9,"+"),""), IF(S22&gt;0, CONCATENATE(S22,"*",$E$9,"+"),""), IF(T22&gt;0, CONCATENATE(T22,"*",$F$9,"+"),""), IF(R23&gt;0, CONCATENATE(R23,"*",$D$10,"+"),""), IF(S23&gt;0, CONCATENATE(S23,"*",$E$10,"+"),""), IF(T23&gt;0, CONCATENATE(T23,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(R21&gt;0, CONCATENATE(R21,"*",$D$8,"+"),""), IF(S21&gt;0, CONCATENATE(S21,"*",$E$8,"+"),""), IF(T21&gt;0, CONCATENATE(T21,"*",$F$8,"+"),""), IF(R22&gt;0, CONCATENATE(R22,"*",$D$9,"+"),""), IF(S22&gt;0, CONCATENATE(S22,"*",$E$9,"+"),""), IF(T22&gt;0, CONCATENATE(T22,"*",$F$9,"+"),""), IF(R23&gt;0, CONCATENATE(R23,"*",$D$10,"+"),""), IF(S23&gt;0, CONCATENATE(S23,"*",$E$10,"+"),""), IF(T23&gt;0, CONCATENATE(T23,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(R21*$D$8+S21*$E$8+T21*$F$8+R22*$D$9+S22*$E$9+T22*$F$9+R23*$D$10+S23*$E$10+T23*$F$10), 4))</f>
-        <v>7*2+5*3+2*6+7*7+3*3+3*5 = 114</v>
-      </c>
-      <c r="R22" s="67">
-        <f>E4</f>
-        <v>2</v>
-      </c>
-      <c r="S22" s="67">
-        <f t="shared" si="25"/>
-        <v>7</v>
-      </c>
-      <c r="T22" s="38">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="38">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="C23" s="67">
-        <f t="shared" si="26"/>
-        <v>4</v>
-      </c>
-      <c r="D23" s="67">
-        <f t="shared" si="26"/>
-        <v>3</v>
-      </c>
-      <c r="E23" s="74"/>
-      <c r="F23" s="67">
-        <f t="shared" ref="F23" si="29">B5</f>
-        <v>4</v>
-      </c>
-      <c r="G23" s="67">
-        <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-      <c r="H23" s="67">
-        <f t="shared" si="22"/>
-        <v>5</v>
-      </c>
-      <c r="I23" s="74"/>
-      <c r="J23" s="67">
-        <f t="shared" si="27"/>
-        <v>3</v>
-      </c>
-      <c r="K23" s="67">
-        <f t="shared" si="23"/>
-        <v>5</v>
-      </c>
-      <c r="L23" s="67">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="M23" s="74"/>
-      <c r="N23" s="67">
-        <f t="shared" si="28"/>
-        <v>5</v>
-      </c>
-      <c r="O23" s="67">
-        <f t="shared" si="24"/>
-        <v>3</v>
-      </c>
-      <c r="P23" s="67">
-        <f t="shared" si="24"/>
-        <v>3</v>
-      </c>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="67">
-        <f>E5</f>
-        <v>3</v>
-      </c>
-      <c r="S23" s="67">
-        <f t="shared" si="25"/>
-        <v>3</v>
-      </c>
-      <c r="T23" s="38">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="38">
-        <f>A4</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="67">
-        <f t="shared" ref="C25:D25" si="30">B4</f>
-        <v>5</v>
-      </c>
-      <c r="D25" s="67">
-        <f t="shared" si="30"/>
-        <v>6</v>
-      </c>
-      <c r="E25" s="74"/>
-      <c r="F25" s="67">
-        <f>B4</f>
-        <v>5</v>
-      </c>
-      <c r="G25" s="67">
-        <f t="shared" ref="G25:H27" si="31">C4</f>
-        <v>6</v>
-      </c>
-      <c r="H25" s="67">
-        <f t="shared" si="31"/>
-        <v>7</v>
-      </c>
-      <c r="I25" s="74"/>
-      <c r="J25" s="67">
-        <f>C4</f>
-        <v>6</v>
-      </c>
-      <c r="K25" s="67">
-        <f t="shared" ref="K25:L27" si="32">D4</f>
-        <v>7</v>
-      </c>
-      <c r="L25" s="67">
-        <f t="shared" si="32"/>
-        <v>2</v>
-      </c>
-      <c r="M25" s="74"/>
-      <c r="N25" s="67">
-        <f>D4</f>
-        <v>7</v>
-      </c>
-      <c r="O25" s="67">
-        <f t="shared" ref="O25:P27" si="33">E4</f>
-        <v>2</v>
-      </c>
-      <c r="P25" s="67">
-        <f t="shared" si="33"/>
-        <v>7</v>
-      </c>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="67">
-        <f>E4</f>
-        <v>2</v>
-      </c>
-      <c r="S25" s="67">
-        <f t="shared" ref="S25:T27" si="34">F4</f>
-        <v>7</v>
-      </c>
-      <c r="T25" s="38">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(B25&gt;0, CONCATENATE(B25,"*",$D$8,"+"),""), IF(C25&gt;0, CONCATENATE(C25,"*",$E$8,"+"),""), IF(D25&gt;0, CONCATENATE(D25,"*",$F$8,"+"),""), IF(B26&gt;0, CONCATENATE(B26,"*",$D$9,"+"),""), IF(C26&gt;0, CONCATENATE(C26,"*",$E$9,"+"),""), IF(D26&gt;0, CONCATENATE(D26,"*",$F$9,"+"),""), IF(B27&gt;0, CONCATENATE(B27,"*",$D$10,"+"),""), IF(C27&gt;0, CONCATENATE(C27,"*",$E$10,"+"),""), IF(D27&gt;0, CONCATENATE(D27,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(B25&gt;0, CONCATENATE(B25,"*",$D$8,"+"),""), IF(C25&gt;0, CONCATENATE(C25,"*",$E$8,"+"),""), IF(D25&gt;0, CONCATENATE(D25,"*",$F$8,"+"),""), IF(B26&gt;0, CONCATENATE(B26,"*",$D$9,"+"),""), IF(C26&gt;0, CONCATENATE(C26,"*",$E$9,"+"),""), IF(D26&gt;0, CONCATENATE(D26,"*",$F$9,"+"),""), IF(B27&gt;0, CONCATENATE(B27,"*",$D$10,"+"),""), IF(C27&gt;0, CONCATENATE(C27,"*",$E$10,"+"),""), IF(D27&gt;0, CONCATENATE(D27,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(B25*$D$8+C25*$E$8+D25*$F$8+B26*$D$9+C26*$E$9+D26*$F$9+B27*$D$10+C27*$E$10+D27*$F$10), 4))</f>
-        <v>5*3+6*7+4*7+3*2+4*5+4*3 = 123</v>
-      </c>
-      <c r="B26" s="38">
-        <f t="shared" ref="B26:D27" si="35">A5</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="67">
-        <f t="shared" si="35"/>
-        <v>4</v>
-      </c>
-      <c r="D26" s="67">
-        <f t="shared" si="35"/>
-        <v>3</v>
-      </c>
-      <c r="E26" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(F25&gt;0, CONCATENATE(F25,"*",$D$8,"+"),""), IF(G25&gt;0, CONCATENATE(G25,"*",$E$8,"+"),""), IF(H25&gt;0, CONCATENATE(H25,"*",$F$8,"+"),""), IF(F26&gt;0, CONCATENATE(F26,"*",$D$9,"+"),""), IF(G26&gt;0, CONCATENATE(G26,"*",$E$9,"+"),""), IF(H26&gt;0, CONCATENATE(H26,"*",$F$9,"+"),""), IF(F27&gt;0, CONCATENATE(F27,"*",$D$10,"+"),""), IF(G27&gt;0, CONCATENATE(G27,"*",$E$10,"+"),""), IF(H27&gt;0, CONCATENATE(H27,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(F25&gt;0, CONCATENATE(F25,"*",$D$8,"+"),""), IF(G25&gt;0, CONCATENATE(G25,"*",$E$8,"+"),""), IF(H25&gt;0, CONCATENATE(H25,"*",$F$8,"+"),""), IF(F26&gt;0, CONCATENATE(F26,"*",$D$9,"+"),""), IF(G26&gt;0, CONCATENATE(G26,"*",$E$9,"+"),""), IF(H26&gt;0, CONCATENATE(H26,"*",$F$9,"+"),""), IF(F27&gt;0, CONCATENATE(F27,"*",$D$10,"+"),""), IF(G27&gt;0, CONCATENATE(G27,"*",$E$10,"+"),""), IF(H27&gt;0, CONCATENATE(H27,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(F25*$D$8+G25*$E$8+H25*$F$8+F26*$D$9+G26*$E$9+H26*$F$9+F27*$D$10+G27*$E$10+H27*$F$10), 4))</f>
-        <v>5*2+6*3+7*7+4*6+3*7+5*2+4*3+4*5+7*3 = 185</v>
-      </c>
-      <c r="F26" s="67">
-        <f t="shared" ref="F26:F27" si="36">B5</f>
-        <v>4</v>
-      </c>
-      <c r="G26" s="67">
-        <f t="shared" si="31"/>
-        <v>3</v>
-      </c>
-      <c r="H26" s="67">
-        <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="I26" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(J25&gt;0, CONCATENATE(J25,"*",$D$8,"+"),""), IF(K25&gt;0, CONCATENATE(K25,"*",$E$8,"+"),""), IF(L25&gt;0, CONCATENATE(L25,"*",$F$8,"+"),""), IF(J26&gt;0, CONCATENATE(J26,"*",$D$9,"+"),""), IF(K26&gt;0, CONCATENATE(K26,"*",$E$9,"+"),""), IF(L26&gt;0, CONCATENATE(L26,"*",$F$9,"+"),""), IF(J27&gt;0, CONCATENATE(J27,"*",$D$10,"+"),""), IF(K27&gt;0, CONCATENATE(K27,"*",$E$10,"+"),""), IF(L27&gt;0, CONCATENATE(L27,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(J25&gt;0, CONCATENATE(J25,"*",$D$8,"+"),""), IF(K25&gt;0, CONCATENATE(K25,"*",$E$8,"+"),""), IF(L25&gt;0, CONCATENATE(L25,"*",$F$8,"+"),""), IF(J26&gt;0, CONCATENATE(J26,"*",$D$9,"+"),""), IF(K26&gt;0, CONCATENATE(K26,"*",$E$9,"+"),""), IF(L26&gt;0, CONCATENATE(L26,"*",$F$9,"+"),""), IF(J27&gt;0, CONCATENATE(J27,"*",$D$10,"+"),""), IF(K27&gt;0, CONCATENATE(K27,"*",$E$10,"+"),""), IF(L27&gt;0, CONCATENATE(L27,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(J25*$D$8+K25*$E$8+L25*$F$8+J26*$D$9+K26*$E$9+L26*$F$9+J27*$D$10+K27*$E$10+L27*$F$10), 4))</f>
-        <v>6*2+7*3+2*7+3*6+5*7+3*2+4*3+7*5+5*3 = 168</v>
-      </c>
-      <c r="J26" s="67">
-        <f t="shared" ref="J26:J27" si="37">C5</f>
-        <v>3</v>
-      </c>
-      <c r="K26" s="67">
-        <f t="shared" si="32"/>
-        <v>5</v>
-      </c>
-      <c r="L26" s="67">
-        <f t="shared" si="32"/>
-        <v>3</v>
-      </c>
-      <c r="M26" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(N25&gt;0, CONCATENATE(N25,"*",$D$8,"+"),""), IF(O25&gt;0, CONCATENATE(O25,"*",$E$8,"+"),""), IF(P25&gt;0, CONCATENATE(P25,"*",$F$8,"+"),""), IF(N26&gt;0, CONCATENATE(N26,"*",$D$9,"+"),""), IF(O26&gt;0, CONCATENATE(O26,"*",$E$9,"+"),""), IF(P26&gt;0, CONCATENATE(P26,"*",$F$9,"+"),""), IF(N27&gt;0, CONCATENATE(N27,"*",$D$10,"+"),""), IF(O27&gt;0, CONCATENATE(O27,"*",$E$10,"+"),""), IF(P27&gt;0, CONCATENATE(P27,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(N25&gt;0, CONCATENATE(N25,"*",$D$8,"+"),""), IF(O25&gt;0, CONCATENATE(O25,"*",$E$8,"+"),""), IF(P25&gt;0, CONCATENATE(P25,"*",$F$8,"+"),""), IF(N26&gt;0, CONCATENATE(N26,"*",$D$9,"+"),""), IF(O26&gt;0, CONCATENATE(O26,"*",$E$9,"+"),""), IF(P26&gt;0, CONCATENATE(P26,"*",$F$9,"+"),""), IF(N27&gt;0, CONCATENATE(N27,"*",$D$10,"+"),""), IF(O27&gt;0, CONCATENATE(O27,"*",$E$10,"+"),""), IF(P27&gt;0, CONCATENATE(P27,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(N25*$D$8+O25*$E$8+P25*$F$8+N26*$D$9+O26*$E$9+P26*$F$9+N27*$D$10+O27*$E$10+P27*$F$10), 4))</f>
-        <v>7*2+2*3+7*7+5*6+3*7+3*2+7*3+5*5+5*3 = 187</v>
-      </c>
-      <c r="N26" s="67">
-        <f t="shared" ref="N26:N27" si="38">D5</f>
-        <v>5</v>
-      </c>
-      <c r="O26" s="67">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="P26" s="67">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="Q26" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(R25&gt;0, CONCATENATE(R25,"*",$D$8,"+"),""), IF(S25&gt;0, CONCATENATE(S25,"*",$E$8,"+"),""), IF(T25&gt;0, CONCATENATE(T25,"*",$F$8,"+"),""), IF(R26&gt;0, CONCATENATE(R26,"*",$D$9,"+"),""), IF(S26&gt;0, CONCATENATE(S26,"*",$E$9,"+"),""), IF(T26&gt;0, CONCATENATE(T26,"*",$F$9,"+"),""), IF(R27&gt;0, CONCATENATE(R27,"*",$D$10,"+"),""), IF(S27&gt;0, CONCATENATE(S27,"*",$E$10,"+"),""), IF(T27&gt;0, CONCATENATE(T27,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(R25&gt;0, CONCATENATE(R25,"*",$D$8,"+"),""), IF(S25&gt;0, CONCATENATE(S25,"*",$E$8,"+"),""), IF(T25&gt;0, CONCATENATE(T25,"*",$F$8,"+"),""), IF(R26&gt;0, CONCATENATE(R26,"*",$D$9,"+"),""), IF(S26&gt;0, CONCATENATE(S26,"*",$E$9,"+"),""), IF(T26&gt;0, CONCATENATE(T26,"*",$F$9,"+"),""), IF(R27&gt;0, CONCATENATE(R27,"*",$D$10,"+"),""), IF(S27&gt;0, CONCATENATE(S27,"*",$E$10,"+"),""), IF(T27&gt;0, CONCATENATE(T27,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(R25*$D$8+S25*$E$8+T25*$F$8+R26*$D$9+S26*$E$9+T26*$F$9+R27*$D$10+S27*$E$10+T27*$F$10), 4))</f>
-        <v>2*2+7*3+3*6+3*7+5*3+5*5 = 104</v>
-      </c>
-      <c r="R26" s="67">
-        <f t="shared" ref="R26:R27" si="39">E5</f>
-        <v>3</v>
-      </c>
-      <c r="S26" s="67">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="T26" s="38">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="38">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="C27" s="67">
-        <f t="shared" si="35"/>
-        <v>4</v>
-      </c>
-      <c r="D27" s="67">
-        <f t="shared" si="35"/>
-        <v>4</v>
-      </c>
-      <c r="E27" s="74"/>
-      <c r="F27" s="67">
-        <f t="shared" si="36"/>
-        <v>4</v>
-      </c>
-      <c r="G27" s="67">
-        <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-      <c r="H27" s="67">
-        <f t="shared" si="31"/>
-        <v>7</v>
-      </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="67">
-        <f t="shared" si="37"/>
-        <v>4</v>
-      </c>
-      <c r="K27" s="67">
-        <f t="shared" si="32"/>
-        <v>7</v>
-      </c>
-      <c r="L27" s="67">
-        <f t="shared" si="32"/>
-        <v>5</v>
-      </c>
-      <c r="M27" s="74"/>
-      <c r="N27" s="67">
-        <f t="shared" si="38"/>
-        <v>7</v>
-      </c>
-      <c r="O27" s="67">
-        <f t="shared" si="33"/>
-        <v>5</v>
-      </c>
-      <c r="P27" s="67">
-        <f t="shared" si="33"/>
-        <v>5</v>
-      </c>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="67">
-        <f t="shared" si="39"/>
-        <v>5</v>
-      </c>
-      <c r="S27" s="67">
-        <f t="shared" si="34"/>
-        <v>5</v>
-      </c>
-      <c r="T27" s="38">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="38">
-        <f>A5</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="67">
-        <f t="shared" ref="C29:D29" si="40">B5</f>
-        <v>4</v>
-      </c>
-      <c r="D29" s="67">
-        <f t="shared" si="40"/>
-        <v>3</v>
-      </c>
-      <c r="E29" s="74"/>
-      <c r="F29" s="67">
-        <f>B5</f>
-        <v>4</v>
-      </c>
-      <c r="G29" s="67">
-        <f t="shared" ref="G29:H31" si="41">C5</f>
-        <v>3</v>
-      </c>
-      <c r="H29" s="67">
-        <f t="shared" si="41"/>
-        <v>5</v>
-      </c>
-      <c r="I29" s="74"/>
-      <c r="J29" s="67">
-        <f>C5</f>
-        <v>3</v>
-      </c>
-      <c r="K29" s="67">
-        <f t="shared" ref="K29:L31" si="42">D5</f>
-        <v>5</v>
-      </c>
-      <c r="L29" s="67">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
-      <c r="M29" s="74"/>
-      <c r="N29" s="67">
-        <f>D5</f>
-        <v>5</v>
-      </c>
-      <c r="O29" s="67">
-        <f t="shared" ref="O29:P31" si="43">E5</f>
-        <v>3</v>
-      </c>
-      <c r="P29" s="67">
-        <f t="shared" si="43"/>
-        <v>3</v>
-      </c>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="67">
-        <f>E5</f>
-        <v>3</v>
-      </c>
-      <c r="S29" s="67">
-        <f t="shared" ref="S29:T31" si="44">F5</f>
-        <v>3</v>
-      </c>
-      <c r="T29" s="38">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(B29&gt;0, CONCATENATE(B29,"*",$D$8,"+"),""), IF(C29&gt;0, CONCATENATE(C29,"*",$E$8,"+"),""), IF(D29&gt;0, CONCATENATE(D29,"*",$F$8,"+"),""), IF(B30&gt;0, CONCATENATE(B30,"*",$D$9,"+"),""), IF(C30&gt;0, CONCATENATE(C30,"*",$E$9,"+"),""), IF(D30&gt;0, CONCATENATE(D30,"*",$F$9,"+"),""), IF(B31&gt;0, CONCATENATE(B31,"*",$D$10,"+"),""), IF(C31&gt;0, CONCATENATE(C31,"*",$E$10,"+"),""), IF(D31&gt;0, CONCATENATE(D31,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(B29&gt;0, CONCATENATE(B29,"*",$D$8,"+"),""), IF(C29&gt;0, CONCATENATE(C29,"*",$E$8,"+"),""), IF(D29&gt;0, CONCATENATE(D29,"*",$F$8,"+"),""), IF(B30&gt;0, CONCATENATE(B30,"*",$D$9,"+"),""), IF(C30&gt;0, CONCATENATE(C30,"*",$E$9,"+"),""), IF(D30&gt;0, CONCATENATE(D30,"*",$F$9,"+"),""), IF(B31&gt;0, CONCATENATE(B31,"*",$D$10,"+"),""), IF(C31&gt;0, CONCATENATE(C31,"*",$E$10,"+"),""), IF(D31&gt;0, CONCATENATE(D31,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(B29*$D$8+C29*$E$8+D29*$F$8+B30*$D$9+C30*$E$9+D30*$F$9+B31*$D$10+C31*$E$10+D31*$F$10), 4))</f>
-        <v>4*3+3*7+4*7+4*2 = 69</v>
-      </c>
-      <c r="B30" s="38">
-        <f t="shared" ref="B30:D31" si="45">A6</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="67">
-        <f t="shared" si="45"/>
-        <v>4</v>
-      </c>
-      <c r="D30" s="67">
-        <f t="shared" si="45"/>
-        <v>4</v>
-      </c>
-      <c r="E30" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(F29&gt;0, CONCATENATE(F29,"*",$D$8,"+"),""), IF(G29&gt;0, CONCATENATE(G29,"*",$E$8,"+"),""), IF(H29&gt;0, CONCATENATE(H29,"*",$F$8,"+"),""), IF(F30&gt;0, CONCATENATE(F30,"*",$D$9,"+"),""), IF(G30&gt;0, CONCATENATE(G30,"*",$E$9,"+"),""), IF(H30&gt;0, CONCATENATE(H30,"*",$F$9,"+"),""), IF(F31&gt;0, CONCATENATE(F31,"*",$D$10,"+"),""), IF(G31&gt;0, CONCATENATE(G31,"*",$E$10,"+"),""), IF(H31&gt;0, CONCATENATE(H31,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(F29&gt;0, CONCATENATE(F29,"*",$D$8,"+"),""), IF(G29&gt;0, CONCATENATE(G29,"*",$E$8,"+"),""), IF(H29&gt;0, CONCATENATE(H29,"*",$F$8,"+"),""), IF(F30&gt;0, CONCATENATE(F30,"*",$D$9,"+"),""), IF(G30&gt;0, CONCATENATE(G30,"*",$E$9,"+"),""), IF(H30&gt;0, CONCATENATE(H30,"*",$F$9,"+"),""), IF(F31&gt;0, CONCATENATE(F31,"*",$D$10,"+"),""), IF(G31&gt;0, CONCATENATE(G31,"*",$E$10,"+"),""), IF(H31&gt;0, CONCATENATE(H31,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(F29*$D$8+G29*$E$8+H29*$F$8+F30*$D$9+G30*$E$9+H30*$F$9+F31*$D$10+G31*$E$10+H31*$F$10), 4))</f>
-        <v>4*2+3*3+5*7+4*6+4*7+7*2 = 118</v>
-      </c>
-      <c r="F30" s="67">
-        <f t="shared" ref="F30:F31" si="46">B6</f>
-        <v>4</v>
-      </c>
-      <c r="G30" s="67">
-        <f t="shared" si="41"/>
-        <v>4</v>
-      </c>
-      <c r="H30" s="67">
-        <f t="shared" si="41"/>
-        <v>7</v>
-      </c>
-      <c r="I30" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(J29&gt;0, CONCATENATE(J29,"*",$D$8,"+"),""), IF(K29&gt;0, CONCATENATE(K29,"*",$E$8,"+"),""), IF(L29&gt;0, CONCATENATE(L29,"*",$F$8,"+"),""), IF(J30&gt;0, CONCATENATE(J30,"*",$D$9,"+"),""), IF(K30&gt;0, CONCATENATE(K30,"*",$E$9,"+"),""), IF(L30&gt;0, CONCATENATE(L30,"*",$F$9,"+"),""), IF(J31&gt;0, CONCATENATE(J31,"*",$D$10,"+"),""), IF(K31&gt;0, CONCATENATE(K31,"*",$E$10,"+"),""), IF(L31&gt;0, CONCATENATE(L31,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(J29&gt;0, CONCATENATE(J29,"*",$D$8,"+"),""), IF(K29&gt;0, CONCATENATE(K29,"*",$E$8,"+"),""), IF(L29&gt;0, CONCATENATE(L29,"*",$F$8,"+"),""), IF(J30&gt;0, CONCATENATE(J30,"*",$D$9,"+"),""), IF(K30&gt;0, CONCATENATE(K30,"*",$E$9,"+"),""), IF(L30&gt;0, CONCATENATE(L30,"*",$F$9,"+"),""), IF(J31&gt;0, CONCATENATE(J31,"*",$D$10,"+"),""), IF(K31&gt;0, CONCATENATE(K31,"*",$E$10,"+"),""), IF(L31&gt;0, CONCATENATE(L31,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(J29*$D$8+K29*$E$8+L29*$F$8+J30*$D$9+K30*$E$9+L30*$F$9+J31*$D$10+K31*$E$10+L31*$F$10), 4))</f>
-        <v>3*2+5*3+3*7+4*6+7*7+5*2 = 125</v>
-      </c>
-      <c r="J30" s="67">
-        <f t="shared" ref="J30:J31" si="47">C6</f>
-        <v>4</v>
-      </c>
-      <c r="K30" s="67">
-        <f t="shared" si="42"/>
-        <v>7</v>
-      </c>
-      <c r="L30" s="67">
-        <f t="shared" si="42"/>
-        <v>5</v>
-      </c>
-      <c r="M30" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(N29&gt;0, CONCATENATE(N29,"*",$D$8,"+"),""), IF(O29&gt;0, CONCATENATE(O29,"*",$E$8,"+"),""), IF(P29&gt;0, CONCATENATE(P29,"*",$F$8,"+"),""), IF(N30&gt;0, CONCATENATE(N30,"*",$D$9,"+"),""), IF(O30&gt;0, CONCATENATE(O30,"*",$E$9,"+"),""), IF(P30&gt;0, CONCATENATE(P30,"*",$F$9,"+"),""), IF(N31&gt;0, CONCATENATE(N31,"*",$D$10,"+"),""), IF(O31&gt;0, CONCATENATE(O31,"*",$E$10,"+"),""), IF(P31&gt;0, CONCATENATE(P31,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(N29&gt;0, CONCATENATE(N29,"*",$D$8,"+"),""), IF(O29&gt;0, CONCATENATE(O29,"*",$E$8,"+"),""), IF(P29&gt;0, CONCATENATE(P29,"*",$F$8,"+"),""), IF(N30&gt;0, CONCATENATE(N30,"*",$D$9,"+"),""), IF(O30&gt;0, CONCATENATE(O30,"*",$E$9,"+"),""), IF(P30&gt;0, CONCATENATE(P30,"*",$F$9,"+"),""), IF(N31&gt;0, CONCATENATE(N31,"*",$D$10,"+"),""), IF(O31&gt;0, CONCATENATE(O31,"*",$E$10,"+"),""), IF(P31&gt;0, CONCATENATE(P31,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(N29*$D$8+O29*$E$8+P29*$F$8+N30*$D$9+O30*$E$9+P30*$F$9+N31*$D$10+O31*$E$10+P31*$F$10), 4))</f>
-        <v>5*2+3*3+3*7+7*6+5*7+5*2 = 127</v>
-      </c>
-      <c r="N30" s="67">
-        <f t="shared" ref="N30:N31" si="48">D6</f>
-        <v>7</v>
-      </c>
-      <c r="O30" s="67">
-        <f t="shared" si="43"/>
-        <v>5</v>
-      </c>
-      <c r="P30" s="67">
-        <f t="shared" si="43"/>
-        <v>5</v>
-      </c>
-      <c r="Q30" s="73" t="str">
-        <f>CONCATENATE(LEFT(CONCATENATE(IF(R29&gt;0, CONCATENATE(R29,"*",$D$8,"+"),""), IF(S29&gt;0, CONCATENATE(S29,"*",$E$8,"+"),""), IF(T29&gt;0, CONCATENATE(T29,"*",$F$8,"+"),""), IF(R30&gt;0, CONCATENATE(R30,"*",$D$9,"+"),""), IF(S30&gt;0, CONCATENATE(S30,"*",$E$9,"+"),""), IF(T30&gt;0, CONCATENATE(T30,"*",$F$9,"+"),""), IF(R31&gt;0, CONCATENATE(R31,"*",$D$10,"+"),""), IF(S31&gt;0, CONCATENATE(S31,"*",$E$10,"+"),""), IF(T31&gt;0, CONCATENATE(T31,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(R29&gt;0, CONCATENATE(R29,"*",$D$8,"+"),""), IF(S29&gt;0, CONCATENATE(S29,"*",$E$8,"+"),""), IF(T29&gt;0, CONCATENATE(T29,"*",$F$8,"+"),""), IF(R30&gt;0, CONCATENATE(R30,"*",$D$9,"+"),""), IF(S30&gt;0, CONCATENATE(S30,"*",$E$9,"+"),""), IF(T30&gt;0, CONCATENATE(T30,"*",$F$9,"+"),""), IF(R31&gt;0, CONCATENATE(R31,"*",$D$10,"+"),""), IF(S31&gt;0, CONCATENATE(S31,"*",$E$10,"+"),""), IF(T31&gt;0, CONCATENATE(T31,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(R29*$D$8+S29*$E$8+T29*$F$8+R30*$D$9+S30*$E$9+T30*$F$9+R31*$D$10+S31*$E$10+T31*$F$10), 4))</f>
-        <v>3*2+3*3+5*6+5*7 = 80</v>
-      </c>
-      <c r="R30" s="67">
-        <f t="shared" ref="R30:R31" si="49">E6</f>
-        <v>5</v>
-      </c>
-      <c r="S30" s="67">
-        <f t="shared" si="44"/>
-        <v>5</v>
-      </c>
-      <c r="T30" s="38">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="38">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="C31" s="38">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="38">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="74"/>
-      <c r="F31" s="38">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="38">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="38">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="74"/>
-      <c r="J31" s="38">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="38">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="38">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="74"/>
-      <c r="N31" s="38">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="38">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="38">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="38">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="38">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="38">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="95" t="str">
-        <f>A14</f>
-        <v>5*7+7*2+2*5+2*3 = 65</v>
-      </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="97"/>
-    </row>
-    <row r="35" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="95" t="str">
-        <f>E14</f>
-        <v>5*6+7*7+6*2+2*3+2*5+3*3 = 116</v>
-      </c>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="96"/>
-      <c r="R35" s="96"/>
-      <c r="S35" s="96"/>
-      <c r="T35" s="96"/>
-      <c r="U35" s="97"/>
-    </row>
-    <row r="37" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="95" t="str">
-        <f>I14</f>
-        <v>7*6+6*7+4*2+2*3+3*5+7*3 = 134</v>
-      </c>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="96"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="96"/>
-      <c r="S37" s="96"/>
-      <c r="T37" s="96"/>
-      <c r="U37" s="97"/>
-    </row>
-    <row r="39" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="95" t="str">
-        <f>M14</f>
-        <v>6*6+4*7+3*2+3*3+7*5+5*3 = 129</v>
-      </c>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="96"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="96"/>
-      <c r="P39" s="96"/>
-      <c r="Q39" s="96"/>
-      <c r="R39" s="96"/>
-      <c r="S39" s="96"/>
-      <c r="T39" s="96"/>
-      <c r="U39" s="97"/>
-    </row>
-    <row r="41" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="95" t="str">
-        <f>Q14</f>
-        <v>4*6+3*7+7*3+5*5 = 91</v>
-      </c>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="96"/>
-      <c r="S41" s="96"/>
-      <c r="T41" s="96"/>
-      <c r="U41" s="97"/>
-    </row>
-    <row r="43" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A43" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="95" t="str">
-        <f>A18</f>
-        <v>5*3+7*7+2*7+2*2+5*5+6*3 = 125</v>
-      </c>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="96"/>
-      <c r="S43" s="96"/>
-      <c r="T43" s="96"/>
-      <c r="U43" s="97"/>
-    </row>
-    <row r="45" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="95" t="str">
-        <f>E18</f>
-        <v>5*2+7*3+6*7+2*6+2*7+3*2+5*3+6*5+7*3 = 171</v>
-      </c>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="96"/>
-      <c r="P45" s="96"/>
-      <c r="Q45" s="96"/>
-      <c r="R45" s="96"/>
-      <c r="S45" s="96"/>
-      <c r="T45" s="96"/>
-      <c r="U45" s="97"/>
-    </row>
-    <row r="47" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A47" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="95" t="str">
-        <f>I18</f>
-        <v>7*2+6*3+4*7+2*6+3*7+7*2+6*3+7*5+2*3 = 166</v>
-      </c>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="96"/>
-      <c r="O47" s="96"/>
-      <c r="P47" s="96"/>
-      <c r="Q47" s="96"/>
-      <c r="R47" s="96"/>
-      <c r="S47" s="96"/>
-      <c r="T47" s="96"/>
-      <c r="U47" s="97"/>
-    </row>
-    <row r="49" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="95" t="str">
-        <f>M18</f>
-        <v>6*2+4*3+3*7+3*6+7*7+5*2+7*3+2*5+7*3 = 174</v>
-      </c>
-      <c r="C49" s="96"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="96"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="96"/>
-      <c r="M49" s="96"/>
-      <c r="N49" s="96"/>
-      <c r="O49" s="96"/>
-      <c r="P49" s="96"/>
-      <c r="Q49" s="96"/>
-      <c r="R49" s="96"/>
-      <c r="S49" s="96"/>
-      <c r="T49" s="96"/>
-      <c r="U49" s="97"/>
-    </row>
-    <row r="51" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="95" t="str">
-        <f>Q18</f>
-        <v>4*2+3*3+7*6+5*7+2*3+7*5 = 135</v>
-      </c>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="96"/>
-      <c r="K51" s="96"/>
-      <c r="L51" s="96"/>
-      <c r="M51" s="96"/>
-      <c r="N51" s="96"/>
-      <c r="O51" s="96"/>
-      <c r="P51" s="96"/>
-      <c r="Q51" s="96"/>
-      <c r="R51" s="96"/>
-      <c r="S51" s="96"/>
-      <c r="T51" s="96"/>
-      <c r="U51" s="97"/>
-    </row>
-    <row r="53" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A53" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" s="95" t="str">
-        <f>A22</f>
-        <v>2*3+2*7+5*7+6*2+4*5+3*3 = 96</v>
-      </c>
-      <c r="C53" s="96"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="96"/>
-      <c r="I53" s="96"/>
-      <c r="J53" s="96"/>
-      <c r="K53" s="96"/>
-      <c r="L53" s="96"/>
-      <c r="M53" s="96"/>
-      <c r="N53" s="96"/>
-      <c r="O53" s="96"/>
-      <c r="P53" s="96"/>
-      <c r="Q53" s="96"/>
-      <c r="R53" s="96"/>
-      <c r="S53" s="96"/>
-      <c r="T53" s="96"/>
-      <c r="U53" s="97"/>
-    </row>
-    <row r="55" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A55" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" s="95" t="str">
-        <f>E22</f>
-        <v>2*2+2*3+3*7+5*6+6*7+7*2+4*3+3*5+5*3 = 159</v>
-      </c>
-      <c r="C55" s="96"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="96"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="96"/>
-      <c r="K55" s="96"/>
-      <c r="L55" s="96"/>
-      <c r="M55" s="96"/>
-      <c r="N55" s="96"/>
-      <c r="O55" s="96"/>
-      <c r="P55" s="96"/>
-      <c r="Q55" s="96"/>
-      <c r="R55" s="96"/>
-      <c r="S55" s="96"/>
-      <c r="T55" s="96"/>
-      <c r="U55" s="97"/>
-    </row>
-    <row r="57" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A57" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" s="95" t="str">
-        <f>I22</f>
-        <v>2*2+3*3+7*7+6*6+7*7+2*2+3*3+5*5+3*3 = 194</v>
-      </c>
-      <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="96"/>
-      <c r="H57" s="96"/>
-      <c r="I57" s="96"/>
-      <c r="J57" s="96"/>
-      <c r="K57" s="96"/>
-      <c r="L57" s="96"/>
-      <c r="M57" s="96"/>
-      <c r="N57" s="96"/>
-      <c r="O57" s="96"/>
-      <c r="P57" s="96"/>
-      <c r="Q57" s="96"/>
-      <c r="R57" s="96"/>
-      <c r="S57" s="96"/>
-      <c r="T57" s="96"/>
-      <c r="U57" s="97"/>
-    </row>
-    <row r="59" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A59" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" s="95" t="str">
-        <f>M22</f>
-        <v>3*2+7*3+5*7+7*6+2*7+7*2+5*3+3*5+3*3 = 171</v>
-      </c>
-      <c r="C59" s="96"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="96"/>
-      <c r="F59" s="96"/>
-      <c r="G59" s="96"/>
-      <c r="H59" s="96"/>
-      <c r="I59" s="96"/>
-      <c r="J59" s="96"/>
-      <c r="K59" s="96"/>
-      <c r="L59" s="96"/>
-      <c r="M59" s="96"/>
-      <c r="N59" s="96"/>
-      <c r="O59" s="96"/>
-      <c r="P59" s="96"/>
-      <c r="Q59" s="96"/>
-      <c r="R59" s="96"/>
-      <c r="S59" s="96"/>
-      <c r="T59" s="96"/>
-      <c r="U59" s="97"/>
-    </row>
-    <row r="61" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A61" t="s">
-        <v>86</v>
-      </c>
-      <c r="B61" s="95" t="str">
-        <f>Q22</f>
-        <v>7*2+5*3+2*6+7*7+3*3+3*5 = 114</v>
-      </c>
-      <c r="C61" s="96"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="96"/>
-      <c r="F61" s="96"/>
-      <c r="G61" s="96"/>
-      <c r="H61" s="96"/>
-      <c r="I61" s="96"/>
-      <c r="J61" s="96"/>
-      <c r="K61" s="96"/>
-      <c r="L61" s="96"/>
-      <c r="M61" s="96"/>
-      <c r="N61" s="96"/>
-      <c r="O61" s="96"/>
-      <c r="P61" s="96"/>
-      <c r="Q61" s="96"/>
-      <c r="R61" s="96"/>
-      <c r="S61" s="96"/>
-      <c r="T61" s="96"/>
-      <c r="U61" s="97"/>
-    </row>
-    <row r="63" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A63" t="s">
-        <v>87</v>
-      </c>
-      <c r="B63" s="95" t="str">
-        <f>A26</f>
-        <v>5*3+6*7+4*7+3*2+4*5+4*3 = 123</v>
-      </c>
-      <c r="C63" s="96"/>
-      <c r="D63" s="96"/>
-      <c r="E63" s="96"/>
-      <c r="F63" s="96"/>
-      <c r="G63" s="96"/>
-      <c r="H63" s="96"/>
-      <c r="I63" s="96"/>
-      <c r="J63" s="96"/>
-      <c r="K63" s="96"/>
-      <c r="L63" s="96"/>
-      <c r="M63" s="96"/>
-      <c r="N63" s="96"/>
-      <c r="O63" s="96"/>
-      <c r="P63" s="96"/>
-      <c r="Q63" s="96"/>
-      <c r="R63" s="96"/>
-      <c r="S63" s="96"/>
-      <c r="T63" s="96"/>
-      <c r="U63" s="97"/>
-    </row>
-    <row r="65" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A65" t="s">
-        <v>88</v>
-      </c>
-      <c r="B65" s="95" t="str">
-        <f>E26</f>
-        <v>5*2+6*3+7*7+4*6+3*7+5*2+4*3+4*5+7*3 = 185</v>
-      </c>
-      <c r="C65" s="96"/>
-      <c r="D65" s="96"/>
-      <c r="E65" s="96"/>
-      <c r="F65" s="96"/>
-      <c r="G65" s="96"/>
-      <c r="H65" s="96"/>
-      <c r="I65" s="96"/>
-      <c r="J65" s="96"/>
-      <c r="K65" s="96"/>
-      <c r="L65" s="96"/>
-      <c r="M65" s="96"/>
-      <c r="N65" s="96"/>
-      <c r="O65" s="96"/>
-      <c r="P65" s="96"/>
-      <c r="Q65" s="96"/>
-      <c r="R65" s="96"/>
-      <c r="S65" s="96"/>
-      <c r="T65" s="96"/>
-      <c r="U65" s="97"/>
-    </row>
-    <row r="67" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A67" t="s">
-        <v>89</v>
-      </c>
-      <c r="B67" s="95" t="str">
-        <f>I26</f>
-        <v>6*2+7*3+2*7+3*6+5*7+3*2+4*3+7*5+5*3 = 168</v>
-      </c>
-      <c r="C67" s="96"/>
-      <c r="D67" s="96"/>
-      <c r="E67" s="96"/>
-      <c r="F67" s="96"/>
-      <c r="G67" s="96"/>
-      <c r="H67" s="96"/>
-      <c r="I67" s="96"/>
-      <c r="J67" s="96"/>
-      <c r="K67" s="96"/>
-      <c r="L67" s="96"/>
-      <c r="M67" s="96"/>
-      <c r="N67" s="96"/>
-      <c r="O67" s="96"/>
-      <c r="P67" s="96"/>
-      <c r="Q67" s="96"/>
-      <c r="R67" s="96"/>
-      <c r="S67" s="96"/>
-      <c r="T67" s="96"/>
-      <c r="U67" s="97"/>
-    </row>
-    <row r="69" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A69" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="95" t="str">
-        <f>M26</f>
-        <v>7*2+2*3+7*7+5*6+3*7+3*2+7*3+5*5+5*3 = 187</v>
-      </c>
-      <c r="C69" s="96"/>
-      <c r="D69" s="96"/>
-      <c r="E69" s="96"/>
-      <c r="F69" s="96"/>
-      <c r="G69" s="96"/>
-      <c r="H69" s="96"/>
-      <c r="I69" s="96"/>
-      <c r="J69" s="96"/>
-      <c r="K69" s="96"/>
-      <c r="L69" s="96"/>
-      <c r="M69" s="96"/>
-      <c r="N69" s="96"/>
-      <c r="O69" s="96"/>
-      <c r="P69" s="96"/>
-      <c r="Q69" s="96"/>
-      <c r="R69" s="96"/>
-      <c r="S69" s="96"/>
-      <c r="T69" s="96"/>
-      <c r="U69" s="97"/>
-    </row>
-    <row r="71" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A71" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="95" t="str">
-        <f>Q26</f>
-        <v>2*2+7*3+3*6+3*7+5*3+5*5 = 104</v>
-      </c>
-      <c r="C71" s="96"/>
-      <c r="D71" s="96"/>
-      <c r="E71" s="96"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="96"/>
-      <c r="H71" s="96"/>
-      <c r="I71" s="96"/>
-      <c r="J71" s="96"/>
-      <c r="K71" s="96"/>
-      <c r="L71" s="96"/>
-      <c r="M71" s="96"/>
-      <c r="N71" s="96"/>
-      <c r="O71" s="96"/>
-      <c r="P71" s="96"/>
-      <c r="Q71" s="96"/>
-      <c r="R71" s="96"/>
-      <c r="S71" s="96"/>
-      <c r="T71" s="96"/>
-      <c r="U71" s="97"/>
-    </row>
-    <row r="73" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A73" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" s="95" t="str">
-        <f>A30</f>
-        <v>4*3+3*7+4*7+4*2 = 69</v>
-      </c>
-      <c r="C73" s="96"/>
-      <c r="D73" s="96"/>
-      <c r="E73" s="96"/>
-      <c r="F73" s="96"/>
-      <c r="G73" s="96"/>
-      <c r="H73" s="96"/>
-      <c r="I73" s="96"/>
-      <c r="J73" s="96"/>
-      <c r="K73" s="96"/>
-      <c r="L73" s="96"/>
-      <c r="M73" s="96"/>
-      <c r="N73" s="96"/>
-      <c r="O73" s="96"/>
-      <c r="P73" s="96"/>
-      <c r="Q73" s="96"/>
-      <c r="R73" s="96"/>
-      <c r="S73" s="96"/>
-      <c r="T73" s="96"/>
-      <c r="U73" s="97"/>
-    </row>
-    <row r="75" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A75" t="s">
-        <v>93</v>
-      </c>
-      <c r="B75" s="95" t="str">
-        <f>E30</f>
-        <v>4*2+3*3+5*7+4*6+4*7+7*2 = 118</v>
-      </c>
-      <c r="C75" s="96"/>
-      <c r="D75" s="96"/>
-      <c r="E75" s="96"/>
-      <c r="F75" s="96"/>
-      <c r="G75" s="96"/>
-      <c r="H75" s="96"/>
-      <c r="I75" s="96"/>
-      <c r="J75" s="96"/>
-      <c r="K75" s="96"/>
-      <c r="L75" s="96"/>
-      <c r="M75" s="96"/>
-      <c r="N75" s="96"/>
-      <c r="O75" s="96"/>
-      <c r="P75" s="96"/>
-      <c r="Q75" s="96"/>
-      <c r="R75" s="96"/>
-      <c r="S75" s="96"/>
-      <c r="T75" s="96"/>
-      <c r="U75" s="97"/>
-    </row>
-    <row r="77" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A77" t="s">
-        <v>94</v>
-      </c>
-      <c r="B77" s="95" t="str">
-        <f>I30</f>
-        <v>3*2+5*3+3*7+4*6+7*7+5*2 = 125</v>
-      </c>
-      <c r="C77" s="96"/>
-      <c r="D77" s="96"/>
-      <c r="E77" s="96"/>
-      <c r="F77" s="96"/>
-      <c r="G77" s="96"/>
-      <c r="H77" s="96"/>
-      <c r="I77" s="96"/>
-      <c r="J77" s="96"/>
-      <c r="K77" s="96"/>
-      <c r="L77" s="96"/>
-      <c r="M77" s="96"/>
-      <c r="N77" s="96"/>
-      <c r="O77" s="96"/>
-      <c r="P77" s="96"/>
-      <c r="Q77" s="96"/>
-      <c r="R77" s="96"/>
-      <c r="S77" s="96"/>
-      <c r="T77" s="96"/>
-      <c r="U77" s="97"/>
-    </row>
-    <row r="79" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A79" t="s">
-        <v>95</v>
-      </c>
-      <c r="B79" s="95" t="str">
-        <f>M30</f>
-        <v>5*2+3*3+3*7+7*6+5*7+5*2 = 127</v>
-      </c>
-      <c r="C79" s="96"/>
-      <c r="D79" s="96"/>
-      <c r="E79" s="96"/>
-      <c r="F79" s="96"/>
-      <c r="G79" s="96"/>
-      <c r="H79" s="96"/>
-      <c r="I79" s="96"/>
-      <c r="J79" s="96"/>
-      <c r="K79" s="96"/>
-      <c r="L79" s="96"/>
-      <c r="M79" s="96"/>
-      <c r="N79" s="96"/>
-      <c r="O79" s="96"/>
-      <c r="P79" s="96"/>
-      <c r="Q79" s="96"/>
-      <c r="R79" s="96"/>
-      <c r="S79" s="96"/>
-      <c r="T79" s="96"/>
-      <c r="U79" s="97"/>
-    </row>
-    <row r="81" spans="1:21" ht="99" x14ac:dyDescent="3.95">
-      <c r="A81" t="s">
-        <v>96</v>
-      </c>
-      <c r="B81" s="95" t="str">
-        <f>Q30</f>
-        <v>3*2+3*3+5*6+5*7 = 80</v>
-      </c>
-      <c r="C81" s="96"/>
-      <c r="D81" s="96"/>
-      <c r="E81" s="96"/>
-      <c r="F81" s="96"/>
-      <c r="G81" s="96"/>
-      <c r="H81" s="96"/>
-      <c r="I81" s="96"/>
-      <c r="J81" s="96"/>
-      <c r="K81" s="96"/>
-      <c r="L81" s="96"/>
-      <c r="M81" s="96"/>
-      <c r="N81" s="96"/>
-      <c r="O81" s="96"/>
-      <c r="P81" s="96"/>
-      <c r="Q81" s="96"/>
-      <c r="R81" s="96"/>
-      <c r="S81" s="96"/>
-      <c r="T81" s="96"/>
-      <c r="U81" s="97"/>
+      <c r="C81" s="90"/>
+      <c r="D81" s="90"/>
+      <c r="E81" s="90"/>
+      <c r="F81" s="90"/>
+      <c r="G81" s="90"/>
+      <c r="H81" s="90"/>
+      <c r="I81" s="90"/>
+      <c r="J81" s="90"/>
+      <c r="K81" s="90"/>
+      <c r="L81" s="90"/>
+      <c r="M81" s="90"/>
+      <c r="N81" s="90"/>
+      <c r="O81" s="90"/>
+      <c r="P81" s="90"/>
+      <c r="Q81" s="90"/>
+      <c r="R81" s="90"/>
+      <c r="S81" s="90"/>
+      <c r="T81" s="90"/>
+      <c r="U81" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -13302,5 +10317,2990 @@
     <mergeCell ref="B79:U79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10">
+        <v>7</v>
+      </c>
+      <c r="F4" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>6</v>
+      </c>
+      <c r="D5" s="10">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3</v>
+      </c>
+      <c r="F6" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G14" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="94"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G15" s="30">
+        <v>0</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="30">
+        <v>3</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G16" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="67">
+        <v>0</v>
+      </c>
+      <c r="I16" s="67">
+        <v>0</v>
+      </c>
+      <c r="J16" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="67">
+        <v>3</v>
+      </c>
+      <c r="L16" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C19" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="28">
+        <f>(L16-I16)/(K16-H16)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="28">
+        <f>-((H16*(L16-I16))/(K16-H16))+I16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G22" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="97"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G23" s="30">
+        <v>3</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="30">
+        <v>4</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G24" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="67">
+        <v>3</v>
+      </c>
+      <c r="I24" s="67">
+        <v>1</v>
+      </c>
+      <c r="J24" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="67">
+        <v>4</v>
+      </c>
+      <c r="L24" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="28">
+        <f>(L24-I24)/(K24-H24)</f>
+        <v>5</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="28">
+        <f>-((H24*(L24-I24))/(K24-H24))+I24</f>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G30" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="94"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G31" s="30">
+        <v>4</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="30">
+        <v>7</v>
+      </c>
+      <c r="K31" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="L31" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G32" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="67">
+        <v>4</v>
+      </c>
+      <c r="I32" s="67">
+        <v>6</v>
+      </c>
+      <c r="J32" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" s="67">
+        <v>7</v>
+      </c>
+      <c r="L32" s="67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="28">
+        <f>(L32-I32)/(K32-H32)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="28">
+        <f>-((H32*(L32-I32))/(K32-H32))+I32</f>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="5">
+        <v>5</v>
+      </c>
+      <c r="C47" s="6">
+        <v>7</v>
+      </c>
+      <c r="D47" s="6">
+        <v>6</v>
+      </c>
+      <c r="E47" s="6">
+        <v>4</v>
+      </c>
+      <c r="F47" s="6">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <f>ROUND(IF(AND(B47&gt;$G$15,B47&lt;=$J$15),B47*$D$19+$G$19,IF(AND(B47&gt;$G$23,B47&lt;=$J$23),B47*$D$27+$G$27,B47*$D$35+$G$35)),0)</f>
+        <v>6</v>
+      </c>
+      <c r="J47">
+        <f>ROUND(IF(AND(C47&gt;$G$15,C47&lt;=$J$15),C47*$D$19+$G$19,IF(AND(C47&gt;$G$23,C47&lt;=$J$23),C47*$D$27+$G$27,C47*$D$35+$G$35)),0)</f>
+        <v>7</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ref="J47:M51" si="0">ROUND(IF(AND(D47&gt;$G$15,D47&lt;=$J$15),D47*$D$19+$G$19,IF(AND(D47&gt;$G$23,D47&lt;=$J$23),D47*$D$27+$G$27,D47*$D$35+$G$35)),0)</f>
+        <v>7</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="9">
+        <v>2</v>
+      </c>
+      <c r="C48" s="10">
+        <v>2</v>
+      </c>
+      <c r="D48" s="10">
+        <v>3</v>
+      </c>
+      <c r="E48" s="10">
+        <v>7</v>
+      </c>
+      <c r="F48" s="10">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ref="I48:I51" si="1">ROUND(IF(AND(B48&gt;$G$15,B48&lt;=$J$15),B48*$D$19+$G$19,IF(AND(B48&gt;$G$23,B48&lt;=$J$23),B48*$D$27+$G$27,B48*$D$35+$G$35)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="9">
+        <v>5</v>
+      </c>
+      <c r="C49" s="10">
+        <v>6</v>
+      </c>
+      <c r="D49" s="10">
+        <v>7</v>
+      </c>
+      <c r="E49" s="10">
+        <v>2</v>
+      </c>
+      <c r="F49" s="10">
+        <v>7</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="9">
+        <v>4</v>
+      </c>
+      <c r="C50" s="10">
+        <v>3</v>
+      </c>
+      <c r="D50" s="10">
+        <v>5</v>
+      </c>
+      <c r="E50" s="10">
+        <v>3</v>
+      </c>
+      <c r="F50" s="10">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="9">
+        <v>4</v>
+      </c>
+      <c r="C51" s="10">
+        <v>4</v>
+      </c>
+      <c r="D51" s="10">
+        <v>7</v>
+      </c>
+      <c r="E51" s="10">
+        <v>5</v>
+      </c>
+      <c r="F51" s="10">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G30:L30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X81"/>
+  <sheetViews>
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28">
+        <v>0</v>
+      </c>
+      <c r="C1" s="28">
+        <v>0</v>
+      </c>
+      <c r="D1" s="28">
+        <v>0</v>
+      </c>
+      <c r="E1" s="28">
+        <v>0</v>
+      </c>
+      <c r="F1" s="28">
+        <v>0</v>
+      </c>
+      <c r="G1" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6">
+        <v>3</v>
+      </c>
+      <c r="G2" s="68">
+        <v>0</v>
+      </c>
+      <c r="H2" s="38">
+        <f>$C$9*(A1*$D$8+B1*$E$8+C1*$F$8+A2*$D$9+B2*$E$9+C2*$F$9+A3*$D$10+B3*$E$10+C3*$F$10)</f>
+        <v>65</v>
+      </c>
+      <c r="I2" s="38">
+        <f>$C$9*(B1*$D$8+C1*$E$8+D1*$F$8+B2*$D$9+C2*$E$9+D2*$F$9+B3*$D$10+C3*$E$10+D3*$F$10)</f>
+        <v>116</v>
+      </c>
+      <c r="J2" s="38">
+        <f t="shared" ref="H2:L6" si="0">$C$9*(C1*$D$8+D1*$E$8+E1*$F$8+C2*$D$9+D2*$E$9+E2*$F$9+C3*$D$10+D3*$E$10+E3*$F$10)</f>
+        <v>134</v>
+      </c>
+      <c r="K2" s="38">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="L2" s="38">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="N2" s="66">
+        <f>ROUND(H2,0)</f>
+        <v>65</v>
+      </c>
+      <c r="O2" s="66">
+        <f>ROUND(I2,0)</f>
+        <v>116</v>
+      </c>
+      <c r="P2" s="66">
+        <f t="shared" ref="O2:R6" si="1">ROUND(J2,0)</f>
+        <v>134</v>
+      </c>
+      <c r="Q2" s="66">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="R2" s="66">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="T2" s="69">
+        <f>ROUND(N2/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(B13:D15))), 4)</f>
+        <v>0.51539999999999997</v>
+      </c>
+      <c r="U2" s="69">
+        <f>ROUND(O2/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(F13:H15))), 4)</f>
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="V2" s="69">
+        <f>ROUND(P2/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(J13:L15))),4)</f>
+        <v>0.75349999999999995</v>
+      </c>
+      <c r="W2" s="69">
+        <f>ROUND(Q2/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(N13:P15))),4)</f>
+        <v>0.77180000000000004</v>
+      </c>
+      <c r="X2" s="69">
+        <f>ROUND(R2/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(R13:T15))),4)</f>
+        <v>0.65659999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10">
+        <v>5</v>
+      </c>
+      <c r="G3" s="68">
+        <v>0</v>
+      </c>
+      <c r="H3" s="38">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="I3" s="38">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="J3" s="38">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="K3" s="38">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="L3" s="38">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="N3" s="66">
+        <f t="shared" ref="N3:N6" si="2">ROUND(H3,0)</f>
+        <v>125</v>
+      </c>
+      <c r="O3" s="66">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+      <c r="P3" s="66">
+        <f t="shared" si="1"/>
+        <v>166</v>
+      </c>
+      <c r="Q3" s="66">
+        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="R3" s="66">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="T3" s="69">
+        <f>ROUND(N3/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(B17:D19))),4)</f>
+        <v>0.75049999999999994</v>
+      </c>
+      <c r="U3" s="69">
+        <f>ROUND(O3/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(F17:H19))), 4)</f>
+        <v>0.79749999999999999</v>
+      </c>
+      <c r="V3" s="69">
+        <f>ROUND(P3/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(J17:L19))), 4)</f>
+        <v>0.75080000000000002</v>
+      </c>
+      <c r="W3" s="69">
+        <f>ROUND(Q3/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(N17:P19))), 4)</f>
+        <v>0.79649999999999999</v>
+      </c>
+      <c r="X3" s="69">
+        <f>ROUND(R3/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(R17:T19))), 4)</f>
+        <v>0.78620000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2</v>
+      </c>
+      <c r="F4" s="10">
+        <v>7</v>
+      </c>
+      <c r="G4" s="68">
+        <v>0</v>
+      </c>
+      <c r="H4" s="38">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I4" s="38">
+        <f>$C$9*(B3*$D$8+C3*$E$8+D3*$F$8+B4*$D$9+C4*$E$9+D4*$F$9+B5*$D$10+C5*$E$10+D5*$F$10)</f>
+        <v>159</v>
+      </c>
+      <c r="J4" s="38">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+      <c r="K4" s="38">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="L4" s="38">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="N4" s="66">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="O4" s="66">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+      <c r="P4" s="66">
+        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="Q4" s="66">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+      <c r="R4" s="66">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="T4" s="69">
+        <f>ROUND(N4/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(B21:D23))), 4)</f>
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="U4" s="69">
+        <f>ROUND(O4/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(F21:H23))), 4)</f>
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="V4" s="69">
+        <f>ROUND(P4/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(J21:L23))), 4)</f>
+        <v>1</v>
+      </c>
+      <c r="W4" s="69">
+        <f>ROUND(Q4/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(N21:P23))), 4)</f>
+        <v>0.81310000000000004</v>
+      </c>
+      <c r="X4" s="69">
+        <f>ROUND(R4/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(R21:T23))), 4)</f>
+        <v>0.67969999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3</v>
+      </c>
+      <c r="G5" s="70">
+        <v>0</v>
+      </c>
+      <c r="H5" s="38">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="I5" s="38">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="J5" s="38">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="K5" s="38">
+        <f t="shared" si="0"/>
+        <v>187</v>
+      </c>
+      <c r="L5" s="38">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="N5" s="66">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="O5" s="66">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="P5" s="66">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="Q5" s="66">
+        <f t="shared" si="1"/>
+        <v>187</v>
+      </c>
+      <c r="R5" s="66">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="T5" s="69">
+        <f>ROUND(N5/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(B25:D27))), 4)</f>
+        <v>0.81289999999999996</v>
+      </c>
+      <c r="U5" s="69">
+        <f>ROUND(O5/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(F25:H27))), 4)</f>
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="V5" s="69">
+        <f>ROUND(P5/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(J25:L27))), 4)</f>
+        <v>0.8095</v>
+      </c>
+      <c r="W5" s="69">
+        <f>ROUND(Q5/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(N25:P27))), 4)</f>
+        <v>0.85950000000000004</v>
+      </c>
+      <c r="X5" s="69">
+        <f>ROUND(R5/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(R25:T27))), 4)</f>
+        <v>0.67879999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10">
+        <v>5</v>
+      </c>
+      <c r="G6" s="70">
+        <v>0</v>
+      </c>
+      <c r="H6" s="38">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="I6" s="38">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="J6" s="38">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="K6" s="38">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="L6" s="38">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="N6" s="66">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="O6" s="66">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="P6" s="66">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="Q6" s="66">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="R6" s="66">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="T6" s="69">
+        <f>ROUND(N6/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(B29:D31))), 4)</f>
+        <v>0.65620000000000001</v>
+      </c>
+      <c r="U6" s="69">
+        <f>ROUND(O6/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(F29:H31))), 4)</f>
+        <v>0.74019999999999997</v>
+      </c>
+      <c r="V6" s="69">
+        <f>ROUND(P6/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(J29:L31))), 4)</f>
+        <v>0.7782</v>
+      </c>
+      <c r="W6" s="69">
+        <f>ROUND(Q6/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(N29:P31))), 4)</f>
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="X6" s="69">
+        <f>ROUND(R6/(SQRT($D$8^2+$E$8^2+$F$8^2+$D$9^2+$E$9^2+$F$9^2+$D$10^2+$E$10^2+$F$10^2)*SQRT(SUMSQ(R29:T31))), 4)</f>
+        <v>0.69650000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
+        <v>0</v>
+      </c>
+      <c r="B7" s="71">
+        <v>0</v>
+      </c>
+      <c r="C7" s="71">
+        <v>0</v>
+      </c>
+      <c r="D7" s="71">
+        <v>0</v>
+      </c>
+      <c r="E7" s="71">
+        <v>0</v>
+      </c>
+      <c r="F7" s="71">
+        <v>0</v>
+      </c>
+      <c r="G7" s="70">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="10">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3</v>
+      </c>
+      <c r="F8" s="10">
+        <v>7</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="72">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>6</v>
+      </c>
+      <c r="E9" s="10">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10">
+        <v>3</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="73"/>
+      <c r="B13" s="38">
+        <f>A1</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="38">
+        <f t="shared" ref="C13:D13" si="3">B1</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="74"/>
+      <c r="F13" s="38">
+        <f>B1</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="38">
+        <f t="shared" ref="G13:H15" si="4">C1</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="74"/>
+      <c r="J13" s="38">
+        <f>C1</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="38">
+        <f t="shared" ref="K13:L15" si="5">D1</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="74"/>
+      <c r="N13" s="38">
+        <f>D1</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="38">
+        <f t="shared" ref="N13:P15" si="6">E1</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="38">
+        <f t="shared" ref="R13:T15" si="7">E1</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(B13&gt;0, CONCATENATE(B13,"*",$D$8,"+"),""), IF(C13&gt;0, CONCATENATE(C13,"*",$E$8,"+"),""), IF(D13&gt;0, CONCATENATE(D13,"*",$F$8,"+"),""), IF(B14&gt;0, CONCATENATE(B14,"*",$D$9,"+"),""), IF(C14&gt;0, CONCATENATE(C14,"*",$E$9,"+"),""), IF(D14&gt;0, CONCATENATE(D14,"*",$F$9,"+"),""), IF(B15&gt;0, CONCATENATE(B15,"*",$D$10,"+"),""), IF(C15&gt;0, CONCATENATE(C15,"*",$E$10,"+"),""), IF(D15&gt;0, CONCATENATE(D15,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(B13&gt;0, CONCATENATE(B13,"*",$D$8,"+"),""), IF(C13&gt;0, CONCATENATE(C13,"*",$E$8,"+"),""), IF(D13&gt;0, CONCATENATE(D13,"*",$F$8,"+"),""), IF(B14&gt;0, CONCATENATE(B14,"*",$D$9,"+"),""), IF(C14&gt;0, CONCATENATE(C14,"*",$E$9,"+"),""), IF(D14&gt;0, CONCATENATE(D14,"*",$F$9,"+"),""), IF(B15&gt;0, CONCATENATE(B15,"*",$D$10,"+"),""), IF(C15&gt;0, CONCATENATE(C15,"*",$E$10,"+"),""), IF(D15&gt;0, CONCATENATE(D15,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(B13*$D$8+C13*$E$8+D13*$F$8+B14*$D$9+C14*$E$9+D14*$F$9+B15*$D$10+C15*$E$10+D15*$F$10), 4))</f>
+        <v>5*7+7*2+2*5+2*3 = 65</v>
+      </c>
+      <c r="B14" s="38">
+        <f t="shared" ref="B14:D15" si="8">A2</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="67">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="D14" s="67">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="E14" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(F13&gt;0, CONCATENATE(F13,"*",$D$8,"+"),""), IF(G13&gt;0, CONCATENATE(G13,"*",$E$8,"+"),""), IF(H13&gt;0, CONCATENATE(H13,"*",$F$8,"+"),""), IF(F14&gt;0, CONCATENATE(F14,"*",$D$9,"+"),""), IF(G14&gt;0, CONCATENATE(G14,"*",$E$9,"+"),""), IF(H14&gt;0, CONCATENATE(H14,"*",$F$9,"+"),""), IF(F15&gt;0, CONCATENATE(F15,"*",$D$10,"+"),""), IF(G15&gt;0, CONCATENATE(G15,"*",$E$10,"+"),""), IF(H15&gt;0, CONCATENATE(H15,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(F13&gt;0, CONCATENATE(F13,"*",$D$8,"+"),""), IF(G13&gt;0, CONCATENATE(G13,"*",$E$8,"+"),""), IF(H13&gt;0, CONCATENATE(H13,"*",$F$8,"+"),""), IF(F14&gt;0, CONCATENATE(F14,"*",$D$9,"+"),""), IF(G14&gt;0, CONCATENATE(G14,"*",$E$9,"+"),""), IF(H14&gt;0, CONCATENATE(H14,"*",$F$9,"+"),""), IF(F15&gt;0, CONCATENATE(F15,"*",$D$10,"+"),""), IF(G15&gt;0, CONCATENATE(G15,"*",$E$10,"+"),""), IF(H15&gt;0, CONCATENATE(H15,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(F13*$D$8+G13*$E$8+H13*$F$8+F14*$D$9+G14*$E$9+H14*$F$9+F15*$D$10+G15*$E$10+H15*$F$10), 4))</f>
+        <v>5*6+7*7+6*2+2*3+2*5+3*3 = 116</v>
+      </c>
+      <c r="F14" s="67">
+        <f t="shared" ref="F14:F15" si="9">B2</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="67">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H14" s="67">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="I14" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(J13&gt;0, CONCATENATE(J13,"*",$D$8,"+"),""), IF(K13&gt;0, CONCATENATE(K13,"*",$E$8,"+"),""), IF(L13&gt;0, CONCATENATE(L13,"*",$F$8,"+"),""), IF(J14&gt;0, CONCATENATE(J14,"*",$D$9,"+"),""), IF(K14&gt;0, CONCATENATE(K14,"*",$E$9,"+"),""), IF(L14&gt;0, CONCATENATE(L14,"*",$F$9,"+"),""), IF(J15&gt;0, CONCATENATE(J15,"*",$D$10,"+"),""), IF(K15&gt;0, CONCATENATE(K15,"*",$E$10,"+"),""), IF(L15&gt;0, CONCATENATE(L15,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(J13&gt;0, CONCATENATE(J13,"*",$D$8,"+"),""), IF(K13&gt;0, CONCATENATE(K13,"*",$E$8,"+"),""), IF(L13&gt;0, CONCATENATE(L13,"*",$F$8,"+"),""), IF(J14&gt;0, CONCATENATE(J14,"*",$D$9,"+"),""), IF(K14&gt;0, CONCATENATE(K14,"*",$E$9,"+"),""), IF(L14&gt;0, CONCATENATE(L14,"*",$F$9,"+"),""), IF(J15&gt;0, CONCATENATE(J15,"*",$D$10,"+"),""), IF(K15&gt;0, CONCATENATE(K15,"*",$E$10,"+"),""), IF(L15&gt;0, CONCATENATE(L15,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(J13*$D$8+K13*$E$8+L13*$F$8+J14*$D$9+K14*$E$9+L14*$F$9+J15*$D$10+K15*$E$10+L15*$F$10), 4))</f>
+        <v>7*6+6*7+4*2+2*3+3*5+7*3 = 134</v>
+      </c>
+      <c r="J14" s="67">
+        <f t="shared" ref="J14:J15" si="10">C2</f>
+        <v>7</v>
+      </c>
+      <c r="K14" s="67">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="L14" s="67">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="M14" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(N13&gt;0, CONCATENATE(N13,"*",$D$8,"+"),""), IF(O13&gt;0, CONCATENATE(O13,"*",$E$8,"+"),""), IF(P13&gt;0, CONCATENATE(P13,"*",$F$8,"+"),""), IF(N14&gt;0, CONCATENATE(N14,"*",$D$9,"+"),""), IF(O14&gt;0, CONCATENATE(O14,"*",$E$9,"+"),""), IF(P14&gt;0, CONCATENATE(P14,"*",$F$9,"+"),""), IF(N15&gt;0, CONCATENATE(N15,"*",$D$10,"+"),""), IF(O15&gt;0, CONCATENATE(O15,"*",$E$10,"+"),""), IF(P15&gt;0, CONCATENATE(P15,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(N13&gt;0, CONCATENATE(N13,"*",$D$8,"+"),""), IF(O13&gt;0, CONCATENATE(O13,"*",$E$8,"+"),""), IF(P13&gt;0, CONCATENATE(P13,"*",$F$8,"+"),""), IF(N14&gt;0, CONCATENATE(N14,"*",$D$9,"+"),""), IF(O14&gt;0, CONCATENATE(O14,"*",$E$9,"+"),""), IF(P14&gt;0, CONCATENATE(P14,"*",$F$9,"+"),""), IF(N15&gt;0, CONCATENATE(N15,"*",$D$10,"+"),""), IF(O15&gt;0, CONCATENATE(O15,"*",$E$10,"+"),""), IF(P15&gt;0, CONCATENATE(P15,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(N13*$D$8+O13*$E$8+P13*$F$8+N14*$D$9+O14*$E$9+P14*$F$9+N15*$D$10+O15*$E$10+P15*$F$10), 4))</f>
+        <v>6*6+4*7+3*2+3*3+7*5+5*3 = 129</v>
+      </c>
+      <c r="N14" s="67">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="O14" s="67">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="P14" s="67">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q14" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(R13&gt;0, CONCATENATE(R13,"*",$D$8,"+"),""), IF(S13&gt;0, CONCATENATE(S13,"*",$E$8,"+"),""), IF(T13&gt;0, CONCATENATE(T13,"*",$F$8,"+"),""), IF(R14&gt;0, CONCATENATE(R14,"*",$D$9,"+"),""), IF(S14&gt;0, CONCATENATE(S14,"*",$E$9,"+"),""), IF(T14&gt;0, CONCATENATE(T14,"*",$F$9,"+"),""), IF(R15&gt;0, CONCATENATE(R15,"*",$D$10,"+"),""), IF(S15&gt;0, CONCATENATE(S15,"*",$E$10,"+"),""), IF(T15&gt;0, CONCATENATE(T15,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(R13&gt;0, CONCATENATE(R13,"*",$D$8,"+"),""), IF(S13&gt;0, CONCATENATE(S13,"*",$E$8,"+"),""), IF(T13&gt;0, CONCATENATE(T13,"*",$F$8,"+"),""), IF(R14&gt;0, CONCATENATE(R14,"*",$D$9,"+"),""), IF(S14&gt;0, CONCATENATE(S14,"*",$E$9,"+"),""), IF(T14&gt;0, CONCATENATE(T14,"*",$F$9,"+"),""), IF(R15&gt;0, CONCATENATE(R15,"*",$D$10,"+"),""), IF(S15&gt;0, CONCATENATE(S15,"*",$E$10,"+"),""), IF(T15&gt;0, CONCATENATE(T15,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(R13*$D$8+S13*$E$8+T13*$F$8+R14*$D$9+S14*$E$9+T14*$F$9+R15*$D$10+S15*$E$10+T15*$F$10), 4))</f>
+        <v>4*6+3*7+7*3+5*5 = 91</v>
+      </c>
+      <c r="R14" s="67">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="S14" s="67">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="T14" s="38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="73"/>
+      <c r="B15" s="38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="67">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="67">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="74"/>
+      <c r="F15" s="67">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="G15" s="67">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H15" s="67">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I15" s="74"/>
+      <c r="J15" s="67">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="K15" s="67">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L15" s="67">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="M15" s="74"/>
+      <c r="N15" s="67">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O15" s="67">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="P15" s="67">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="67">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="S15" s="67">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="T15" s="38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="73"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="38">
+        <f>A2</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="67">
+        <f t="shared" ref="C17:D17" si="11">B2</f>
+        <v>5</v>
+      </c>
+      <c r="D17" s="67">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="E17" s="74"/>
+      <c r="F17" s="67">
+        <f>B2</f>
+        <v>5</v>
+      </c>
+      <c r="G17" s="67">
+        <f t="shared" ref="G17:H19" si="12">C2</f>
+        <v>7</v>
+      </c>
+      <c r="H17" s="67">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="I17" s="74"/>
+      <c r="J17" s="67">
+        <f>C2</f>
+        <v>7</v>
+      </c>
+      <c r="K17" s="67">
+        <f t="shared" ref="K17:L19" si="13">D2</f>
+        <v>6</v>
+      </c>
+      <c r="L17" s="67">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="M17" s="74"/>
+      <c r="N17" s="67">
+        <f>D2</f>
+        <v>6</v>
+      </c>
+      <c r="O17" s="67">
+        <f t="shared" ref="O17:P19" si="14">E2</f>
+        <v>4</v>
+      </c>
+      <c r="P17" s="67">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="67">
+        <f>E2</f>
+        <v>4</v>
+      </c>
+      <c r="S17" s="67">
+        <f t="shared" ref="S17:T19" si="15">F2</f>
+        <v>3</v>
+      </c>
+      <c r="T17" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(B17&gt;0, CONCATENATE(B17,"*",$D$8,"+"),""), IF(C17&gt;0, CONCATENATE(C17,"*",$E$8,"+"),""), IF(D17&gt;0, CONCATENATE(D17,"*",$F$8,"+"),""), IF(B18&gt;0, CONCATENATE(B18,"*",$D$9,"+"),""), IF(C18&gt;0, CONCATENATE(C18,"*",$E$9,"+"),""), IF(D18&gt;0, CONCATENATE(D18,"*",$F$9,"+"),""), IF(B19&gt;0, CONCATENATE(B19,"*",$D$10,"+"),""), IF(C19&gt;0, CONCATENATE(C19,"*",$E$10,"+"),""), IF(D19&gt;0, CONCATENATE(D19,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(B17&gt;0, CONCATENATE(B17,"*",$D$8,"+"),""), IF(C17&gt;0, CONCATENATE(C17,"*",$E$8,"+"),""), IF(D17&gt;0, CONCATENATE(D17,"*",$F$8,"+"),""), IF(B18&gt;0, CONCATENATE(B18,"*",$D$9,"+"),""), IF(C18&gt;0, CONCATENATE(C18,"*",$E$9,"+"),""), IF(D18&gt;0, CONCATENATE(D18,"*",$F$9,"+"),""), IF(B19&gt;0, CONCATENATE(B19,"*",$D$10,"+"),""), IF(C19&gt;0, CONCATENATE(C19,"*",$E$10,"+"),""), IF(D19&gt;0, CONCATENATE(D19,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(B17*$D$8+C17*$E$8+D17*$F$8+B18*$D$9+C18*$E$9+D18*$F$9+B19*$D$10+C19*$E$10+D19*$F$10), 4))</f>
+        <v>5*3+7*7+2*7+2*2+5*5+6*3 = 125</v>
+      </c>
+      <c r="B18" s="38">
+        <f t="shared" ref="B18:D19" si="16">A3</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="67">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="D18" s="67">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(F17&gt;0, CONCATENATE(F17,"*",$D$8,"+"),""), IF(G17&gt;0, CONCATENATE(G17,"*",$E$8,"+"),""), IF(H17&gt;0, CONCATENATE(H17,"*",$F$8,"+"),""), IF(F18&gt;0, CONCATENATE(F18,"*",$D$9,"+"),""), IF(G18&gt;0, CONCATENATE(G18,"*",$E$9,"+"),""), IF(H18&gt;0, CONCATENATE(H18,"*",$F$9,"+"),""), IF(F19&gt;0, CONCATENATE(F19,"*",$D$10,"+"),""), IF(G19&gt;0, CONCATENATE(G19,"*",$E$10,"+"),""), IF(H19&gt;0, CONCATENATE(H19,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(F17&gt;0, CONCATENATE(F17,"*",$D$8,"+"),""), IF(G17&gt;0, CONCATENATE(G17,"*",$E$8,"+"),""), IF(H17&gt;0, CONCATENATE(H17,"*",$F$8,"+"),""), IF(F18&gt;0, CONCATENATE(F18,"*",$D$9,"+"),""), IF(G18&gt;0, CONCATENATE(G18,"*",$E$9,"+"),""), IF(H18&gt;0, CONCATENATE(H18,"*",$F$9,"+"),""), IF(F19&gt;0, CONCATENATE(F19,"*",$D$10,"+"),""), IF(G19&gt;0, CONCATENATE(G19,"*",$E$10,"+"),""), IF(H19&gt;0, CONCATENATE(H19,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(F17*$D$8+G17*$E$8+H17*$F$8+F18*$D$9+G18*$E$9+H18*$F$9+F19*$D$10+G19*$E$10+H19*$F$10), 4))</f>
+        <v>5*2+7*3+6*7+2*6+2*7+3*2+5*3+6*5+7*3 = 171</v>
+      </c>
+      <c r="F18" s="67">
+        <f t="shared" ref="F18:F19" si="17">B3</f>
+        <v>2</v>
+      </c>
+      <c r="G18" s="67">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="H18" s="67">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="I18" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(J17&gt;0, CONCATENATE(J17,"*",$D$8,"+"),""), IF(K17&gt;0, CONCATENATE(K17,"*",$E$8,"+"),""), IF(L17&gt;0, CONCATENATE(L17,"*",$F$8,"+"),""), IF(J18&gt;0, CONCATENATE(J18,"*",$D$9,"+"),""), IF(K18&gt;0, CONCATENATE(K18,"*",$E$9,"+"),""), IF(L18&gt;0, CONCATENATE(L18,"*",$F$9,"+"),""), IF(J19&gt;0, CONCATENATE(J19,"*",$D$10,"+"),""), IF(K19&gt;0, CONCATENATE(K19,"*",$E$10,"+"),""), IF(L19&gt;0, CONCATENATE(L19,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(J17&gt;0, CONCATENATE(J17,"*",$D$8,"+"),""), IF(K17&gt;0, CONCATENATE(K17,"*",$E$8,"+"),""), IF(L17&gt;0, CONCATENATE(L17,"*",$F$8,"+"),""), IF(J18&gt;0, CONCATENATE(J18,"*",$D$9,"+"),""), IF(K18&gt;0, CONCATENATE(K18,"*",$E$9,"+"),""), IF(L18&gt;0, CONCATENATE(L18,"*",$F$9,"+"),""), IF(J19&gt;0, CONCATENATE(J19,"*",$D$10,"+"),""), IF(K19&gt;0, CONCATENATE(K19,"*",$E$10,"+"),""), IF(L19&gt;0, CONCATENATE(L19,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(J17*$D$8+K17*$E$8+L17*$F$8+J18*$D$9+K18*$E$9+L18*$F$9+J19*$D$10+K19*$E$10+L19*$F$10), 4))</f>
+        <v>7*2+6*3+4*7+2*6+3*7+7*2+6*3+7*5+2*3 = 166</v>
+      </c>
+      <c r="J18" s="67">
+        <f t="shared" ref="J18:J19" si="18">C3</f>
+        <v>2</v>
+      </c>
+      <c r="K18" s="67">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="L18" s="67">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="M18" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(N17&gt;0, CONCATENATE(N17,"*",$D$8,"+"),""), IF(O17&gt;0, CONCATENATE(O17,"*",$E$8,"+"),""), IF(P17&gt;0, CONCATENATE(P17,"*",$F$8,"+"),""), IF(N18&gt;0, CONCATENATE(N18,"*",$D$9,"+"),""), IF(O18&gt;0, CONCATENATE(O18,"*",$E$9,"+"),""), IF(P18&gt;0, CONCATENATE(P18,"*",$F$9,"+"),""), IF(N19&gt;0, CONCATENATE(N19,"*",$D$10,"+"),""), IF(O19&gt;0, CONCATENATE(O19,"*",$E$10,"+"),""), IF(P19&gt;0, CONCATENATE(P19,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(N17&gt;0, CONCATENATE(N17,"*",$D$8,"+"),""), IF(O17&gt;0, CONCATENATE(O17,"*",$E$8,"+"),""), IF(P17&gt;0, CONCATENATE(P17,"*",$F$8,"+"),""), IF(N18&gt;0, CONCATENATE(N18,"*",$D$9,"+"),""), IF(O18&gt;0, CONCATENATE(O18,"*",$E$9,"+"),""), IF(P18&gt;0, CONCATENATE(P18,"*",$F$9,"+"),""), IF(N19&gt;0, CONCATENATE(N19,"*",$D$10,"+"),""), IF(O19&gt;0, CONCATENATE(O19,"*",$E$10,"+"),""), IF(P19&gt;0, CONCATENATE(P19,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(N17*$D$8+O17*$E$8+P17*$F$8+N18*$D$9+O18*$E$9+P18*$F$9+N19*$D$10+O19*$E$10+P19*$F$10), 4))</f>
+        <v>6*2+4*3+3*7+3*6+7*7+5*2+7*3+2*5+7*3 = 174</v>
+      </c>
+      <c r="N18" s="67">
+        <f t="shared" ref="N18:N19" si="19">D3</f>
+        <v>3</v>
+      </c>
+      <c r="O18" s="67">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="P18" s="67">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="Q18" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(R17&gt;0, CONCATENATE(R17,"*",$D$8,"+"),""), IF(S17&gt;0, CONCATENATE(S17,"*",$E$8,"+"),""), IF(T17&gt;0, CONCATENATE(T17,"*",$F$8,"+"),""), IF(R18&gt;0, CONCATENATE(R18,"*",$D$9,"+"),""), IF(S18&gt;0, CONCATENATE(S18,"*",$E$9,"+"),""), IF(T18&gt;0, CONCATENATE(T18,"*",$F$9,"+"),""), IF(R19&gt;0, CONCATENATE(R19,"*",$D$10,"+"),""), IF(S19&gt;0, CONCATENATE(S19,"*",$E$10,"+"),""), IF(T19&gt;0, CONCATENATE(T19,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(R17&gt;0, CONCATENATE(R17,"*",$D$8,"+"),""), IF(S17&gt;0, CONCATENATE(S17,"*",$E$8,"+"),""), IF(T17&gt;0, CONCATENATE(T17,"*",$F$8,"+"),""), IF(R18&gt;0, CONCATENATE(R18,"*",$D$9,"+"),""), IF(S18&gt;0, CONCATENATE(S18,"*",$E$9,"+"),""), IF(T18&gt;0, CONCATENATE(T18,"*",$F$9,"+"),""), IF(R19&gt;0, CONCATENATE(R19,"*",$D$10,"+"),""), IF(S19&gt;0, CONCATENATE(S19,"*",$E$10,"+"),""), IF(T19&gt;0, CONCATENATE(T19,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(R17*$D$8+S17*$E$8+T17*$F$8+R18*$D$9+S18*$E$9+T18*$F$9+R19*$D$10+S19*$E$10+T19*$F$10), 4))</f>
+        <v>4*2+3*3+7*6+5*7+2*3+7*5 = 135</v>
+      </c>
+      <c r="R18" s="67">
+        <f t="shared" ref="R18:R19" si="20">E3</f>
+        <v>7</v>
+      </c>
+      <c r="S18" s="67">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="T18" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="73"/>
+      <c r="B19" s="38">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="67">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="D19" s="67">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="E19" s="74"/>
+      <c r="F19" s="67">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="G19" s="67">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="H19" s="67">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="I19" s="74"/>
+      <c r="J19" s="67">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="K19" s="67">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="L19" s="67">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="M19" s="74"/>
+      <c r="N19" s="67">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="O19" s="67">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="P19" s="67">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="67">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="S19" s="67">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="T19" s="38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
+      <c r="B21" s="38">
+        <f>A3</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="67">
+        <f t="shared" ref="C21:D21" si="21">B3</f>
+        <v>2</v>
+      </c>
+      <c r="D21" s="67">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="74"/>
+      <c r="F21" s="67">
+        <f>B3</f>
+        <v>2</v>
+      </c>
+      <c r="G21" s="67">
+        <f t="shared" ref="G21:H23" si="22">C3</f>
+        <v>2</v>
+      </c>
+      <c r="H21" s="67">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="I21" s="74"/>
+      <c r="J21" s="67">
+        <f>C3</f>
+        <v>2</v>
+      </c>
+      <c r="K21" s="67">
+        <f t="shared" ref="K21:L23" si="23">D3</f>
+        <v>3</v>
+      </c>
+      <c r="L21" s="67">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="M21" s="74"/>
+      <c r="N21" s="67">
+        <f>D3</f>
+        <v>3</v>
+      </c>
+      <c r="O21" s="67">
+        <f t="shared" ref="O21:P23" si="24">E3</f>
+        <v>7</v>
+      </c>
+      <c r="P21" s="67">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="67">
+        <f>E3</f>
+        <v>7</v>
+      </c>
+      <c r="S21" s="67">
+        <f t="shared" ref="S21:T23" si="25">F3</f>
+        <v>5</v>
+      </c>
+      <c r="T21" s="38">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(B21&gt;0, CONCATENATE(B21,"*",$D$8,"+"),""), IF(C21&gt;0, CONCATENATE(C21,"*",$E$8,"+"),""), IF(D21&gt;0, CONCATENATE(D21,"*",$F$8,"+"),""), IF(B22&gt;0, CONCATENATE(B22,"*",$D$9,"+"),""), IF(C22&gt;0, CONCATENATE(C22,"*",$E$9,"+"),""), IF(D22&gt;0, CONCATENATE(D22,"*",$F$9,"+"),""), IF(B23&gt;0, CONCATENATE(B23,"*",$D$10,"+"),""), IF(C23&gt;0, CONCATENATE(C23,"*",$E$10,"+"),""), IF(D23&gt;0, CONCATENATE(D23,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(B21&gt;0, CONCATENATE(B21,"*",$D$8,"+"),""), IF(C21&gt;0, CONCATENATE(C21,"*",$E$8,"+"),""), IF(D21&gt;0, CONCATENATE(D21,"*",$F$8,"+"),""), IF(B22&gt;0, CONCATENATE(B22,"*",$D$9,"+"),""), IF(C22&gt;0, CONCATENATE(C22,"*",$E$9,"+"),""), IF(D22&gt;0, CONCATENATE(D22,"*",$F$9,"+"),""), IF(B23&gt;0, CONCATENATE(B23,"*",$D$10,"+"),""), IF(C23&gt;0, CONCATENATE(C23,"*",$E$10,"+"),""), IF(D23&gt;0, CONCATENATE(D23,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(B21*$D$8+C21*$E$8+D21*$F$8+B22*$D$9+C22*$E$9+D22*$F$9+B23*$D$10+C23*$E$10+D23*$F$10), 4))</f>
+        <v>2*3+2*7+5*7+6*2+4*5+3*3 = 96</v>
+      </c>
+      <c r="B22" s="38">
+        <f t="shared" ref="B22:D23" si="26">A4</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="67">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="D22" s="67">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="E22" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(F21&gt;0, CONCATENATE(F21,"*",$D$8,"+"),""), IF(G21&gt;0, CONCATENATE(G21,"*",$E$8,"+"),""), IF(H21&gt;0, CONCATENATE(H21,"*",$F$8,"+"),""), IF(F22&gt;0, CONCATENATE(F22,"*",$D$9,"+"),""), IF(G22&gt;0, CONCATENATE(G22,"*",$E$9,"+"),""), IF(H22&gt;0, CONCATENATE(H22,"*",$F$9,"+"),""), IF(F23&gt;0, CONCATENATE(F23,"*",$D$10,"+"),""), IF(G23&gt;0, CONCATENATE(G23,"*",$E$10,"+"),""), IF(H23&gt;0, CONCATENATE(H23,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(F21&gt;0, CONCATENATE(F21,"*",$D$8,"+"),""), IF(G21&gt;0, CONCATENATE(G21,"*",$E$8,"+"),""), IF(H21&gt;0, CONCATENATE(H21,"*",$F$8,"+"),""), IF(F22&gt;0, CONCATENATE(F22,"*",$D$9,"+"),""), IF(G22&gt;0, CONCATENATE(G22,"*",$E$9,"+"),""), IF(H22&gt;0, CONCATENATE(H22,"*",$F$9,"+"),""), IF(F23&gt;0, CONCATENATE(F23,"*",$D$10,"+"),""), IF(G23&gt;0, CONCATENATE(G23,"*",$E$10,"+"),""), IF(H23&gt;0, CONCATENATE(H23,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(F21*$D$8+G21*$E$8+H21*$F$8+F22*$D$9+G22*$E$9+H22*$F$9+F23*$D$10+G23*$E$10+H23*$F$10), 4))</f>
+        <v>2*2+2*3+3*7+5*6+6*7+7*2+4*3+3*5+5*3 = 159</v>
+      </c>
+      <c r="F22" s="67">
+        <f>B4</f>
+        <v>5</v>
+      </c>
+      <c r="G22" s="67">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="H22" s="67">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="I22" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(J21&gt;0, CONCATENATE(J21,"*",$D$8,"+"),""), IF(K21&gt;0, CONCATENATE(K21,"*",$E$8,"+"),""), IF(L21&gt;0, CONCATENATE(L21,"*",$F$8,"+"),""), IF(J22&gt;0, CONCATENATE(J22,"*",$D$9,"+"),""), IF(K22&gt;0, CONCATENATE(K22,"*",$E$9,"+"),""), IF(L22&gt;0, CONCATENATE(L22,"*",$F$9,"+"),""), IF(J23&gt;0, CONCATENATE(J23,"*",$D$10,"+"),""), IF(K23&gt;0, CONCATENATE(K23,"*",$E$10,"+"),""), IF(L23&gt;0, CONCATENATE(L23,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(J21&gt;0, CONCATENATE(J21,"*",$D$8,"+"),""), IF(K21&gt;0, CONCATENATE(K21,"*",$E$8,"+"),""), IF(L21&gt;0, CONCATENATE(L21,"*",$F$8,"+"),""), IF(J22&gt;0, CONCATENATE(J22,"*",$D$9,"+"),""), IF(K22&gt;0, CONCATENATE(K22,"*",$E$9,"+"),""), IF(L22&gt;0, CONCATENATE(L22,"*",$F$9,"+"),""), IF(J23&gt;0, CONCATENATE(J23,"*",$D$10,"+"),""), IF(K23&gt;0, CONCATENATE(K23,"*",$E$10,"+"),""), IF(L23&gt;0, CONCATENATE(L23,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(J21*$D$8+K21*$E$8+L21*$F$8+J22*$D$9+K22*$E$9+L22*$F$9+J23*$D$10+K23*$E$10+L23*$F$10), 4))</f>
+        <v>2*2+3*3+7*7+6*6+7*7+2*2+3*3+5*5+3*3 = 194</v>
+      </c>
+      <c r="J22" s="67">
+        <f t="shared" ref="J22:J23" si="27">C4</f>
+        <v>6</v>
+      </c>
+      <c r="K22" s="67">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="L22" s="67">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="M22" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(N21&gt;0, CONCATENATE(N21,"*",$D$8,"+"),""), IF(O21&gt;0, CONCATENATE(O21,"*",$E$8,"+"),""), IF(P21&gt;0, CONCATENATE(P21,"*",$F$8,"+"),""), IF(N22&gt;0, CONCATENATE(N22,"*",$D$9,"+"),""), IF(O22&gt;0, CONCATENATE(O22,"*",$E$9,"+"),""), IF(P22&gt;0, CONCATENATE(P22,"*",$F$9,"+"),""), IF(N23&gt;0, CONCATENATE(N23,"*",$D$10,"+"),""), IF(O23&gt;0, CONCATENATE(O23,"*",$E$10,"+"),""), IF(P23&gt;0, CONCATENATE(P23,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(N21&gt;0, CONCATENATE(N21,"*",$D$8,"+"),""), IF(O21&gt;0, CONCATENATE(O21,"*",$E$8,"+"),""), IF(P21&gt;0, CONCATENATE(P21,"*",$F$8,"+"),""), IF(N22&gt;0, CONCATENATE(N22,"*",$D$9,"+"),""), IF(O22&gt;0, CONCATENATE(O22,"*",$E$9,"+"),""), IF(P22&gt;0, CONCATENATE(P22,"*",$F$9,"+"),""), IF(N23&gt;0, CONCATENATE(N23,"*",$D$10,"+"),""), IF(O23&gt;0, CONCATENATE(O23,"*",$E$10,"+"),""), IF(P23&gt;0, CONCATENATE(P23,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(N21*$D$8+O21*$E$8+P21*$F$8+N22*$D$9+O22*$E$9+P22*$F$9+N23*$D$10+O23*$E$10+P23*$F$10), 4))</f>
+        <v>3*2+7*3+5*7+7*6+2*7+7*2+5*3+3*5+3*3 = 171</v>
+      </c>
+      <c r="N22" s="67">
+        <f t="shared" ref="N22:N23" si="28">D4</f>
+        <v>7</v>
+      </c>
+      <c r="O22" s="67">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="P22" s="67">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="Q22" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(R21&gt;0, CONCATENATE(R21,"*",$D$8,"+"),""), IF(S21&gt;0, CONCATENATE(S21,"*",$E$8,"+"),""), IF(T21&gt;0, CONCATENATE(T21,"*",$F$8,"+"),""), IF(R22&gt;0, CONCATENATE(R22,"*",$D$9,"+"),""), IF(S22&gt;0, CONCATENATE(S22,"*",$E$9,"+"),""), IF(T22&gt;0, CONCATENATE(T22,"*",$F$9,"+"),""), IF(R23&gt;0, CONCATENATE(R23,"*",$D$10,"+"),""), IF(S23&gt;0, CONCATENATE(S23,"*",$E$10,"+"),""), IF(T23&gt;0, CONCATENATE(T23,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(R21&gt;0, CONCATENATE(R21,"*",$D$8,"+"),""), IF(S21&gt;0, CONCATENATE(S21,"*",$E$8,"+"),""), IF(T21&gt;0, CONCATENATE(T21,"*",$F$8,"+"),""), IF(R22&gt;0, CONCATENATE(R22,"*",$D$9,"+"),""), IF(S22&gt;0, CONCATENATE(S22,"*",$E$9,"+"),""), IF(T22&gt;0, CONCATENATE(T22,"*",$F$9,"+"),""), IF(R23&gt;0, CONCATENATE(R23,"*",$D$10,"+"),""), IF(S23&gt;0, CONCATENATE(S23,"*",$E$10,"+"),""), IF(T23&gt;0, CONCATENATE(T23,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(R21*$D$8+S21*$E$8+T21*$F$8+R22*$D$9+S22*$E$9+T22*$F$9+R23*$D$10+S23*$E$10+T23*$F$10), 4))</f>
+        <v>7*2+5*3+2*6+7*7+3*3+3*5 = 114</v>
+      </c>
+      <c r="R22" s="67">
+        <f>E4</f>
+        <v>2</v>
+      </c>
+      <c r="S22" s="67">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="T22" s="38">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="73"/>
+      <c r="B23" s="38">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="C23" s="67">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="D23" s="67">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="E23" s="74"/>
+      <c r="F23" s="67">
+        <f t="shared" ref="F23" si="29">B5</f>
+        <v>4</v>
+      </c>
+      <c r="G23" s="67">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="H23" s="67">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="I23" s="74"/>
+      <c r="J23" s="67">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="K23" s="67">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="L23" s="67">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="M23" s="74"/>
+      <c r="N23" s="67">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="O23" s="67">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="P23" s="67">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="67">
+        <f>E5</f>
+        <v>3</v>
+      </c>
+      <c r="S23" s="67">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="T23" s="38">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="73"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="73"/>
+      <c r="B25" s="38">
+        <f>A4</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="67">
+        <f t="shared" ref="C25:D25" si="30">B4</f>
+        <v>5</v>
+      </c>
+      <c r="D25" s="67">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="E25" s="74"/>
+      <c r="F25" s="67">
+        <f>B4</f>
+        <v>5</v>
+      </c>
+      <c r="G25" s="67">
+        <f t="shared" ref="G25:H27" si="31">C4</f>
+        <v>6</v>
+      </c>
+      <c r="H25" s="67">
+        <f t="shared" si="31"/>
+        <v>7</v>
+      </c>
+      <c r="I25" s="74"/>
+      <c r="J25" s="67">
+        <f>C4</f>
+        <v>6</v>
+      </c>
+      <c r="K25" s="67">
+        <f t="shared" ref="K25:L27" si="32">D4</f>
+        <v>7</v>
+      </c>
+      <c r="L25" s="67">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="M25" s="74"/>
+      <c r="N25" s="67">
+        <f>D4</f>
+        <v>7</v>
+      </c>
+      <c r="O25" s="67">
+        <f t="shared" ref="O25:P27" si="33">E4</f>
+        <v>2</v>
+      </c>
+      <c r="P25" s="67">
+        <f t="shared" si="33"/>
+        <v>7</v>
+      </c>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="67">
+        <f>E4</f>
+        <v>2</v>
+      </c>
+      <c r="S25" s="67">
+        <f t="shared" ref="S25:T27" si="34">F4</f>
+        <v>7</v>
+      </c>
+      <c r="T25" s="38">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(B25&gt;0, CONCATENATE(B25,"*",$D$8,"+"),""), IF(C25&gt;0, CONCATENATE(C25,"*",$E$8,"+"),""), IF(D25&gt;0, CONCATENATE(D25,"*",$F$8,"+"),""), IF(B26&gt;0, CONCATENATE(B26,"*",$D$9,"+"),""), IF(C26&gt;0, CONCATENATE(C26,"*",$E$9,"+"),""), IF(D26&gt;0, CONCATENATE(D26,"*",$F$9,"+"),""), IF(B27&gt;0, CONCATENATE(B27,"*",$D$10,"+"),""), IF(C27&gt;0, CONCATENATE(C27,"*",$E$10,"+"),""), IF(D27&gt;0, CONCATENATE(D27,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(B25&gt;0, CONCATENATE(B25,"*",$D$8,"+"),""), IF(C25&gt;0, CONCATENATE(C25,"*",$E$8,"+"),""), IF(D25&gt;0, CONCATENATE(D25,"*",$F$8,"+"),""), IF(B26&gt;0, CONCATENATE(B26,"*",$D$9,"+"),""), IF(C26&gt;0, CONCATENATE(C26,"*",$E$9,"+"),""), IF(D26&gt;0, CONCATENATE(D26,"*",$F$9,"+"),""), IF(B27&gt;0, CONCATENATE(B27,"*",$D$10,"+"),""), IF(C27&gt;0, CONCATENATE(C27,"*",$E$10,"+"),""), IF(D27&gt;0, CONCATENATE(D27,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(B25*$D$8+C25*$E$8+D25*$F$8+B26*$D$9+C26*$E$9+D26*$F$9+B27*$D$10+C27*$E$10+D27*$F$10), 4))</f>
+        <v>5*3+6*7+4*7+3*2+4*5+4*3 = 123</v>
+      </c>
+      <c r="B26" s="38">
+        <f t="shared" ref="B26:D27" si="35">A5</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="67">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="D26" s="67">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="E26" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(F25&gt;0, CONCATENATE(F25,"*",$D$8,"+"),""), IF(G25&gt;0, CONCATENATE(G25,"*",$E$8,"+"),""), IF(H25&gt;0, CONCATENATE(H25,"*",$F$8,"+"),""), IF(F26&gt;0, CONCATENATE(F26,"*",$D$9,"+"),""), IF(G26&gt;0, CONCATENATE(G26,"*",$E$9,"+"),""), IF(H26&gt;0, CONCATENATE(H26,"*",$F$9,"+"),""), IF(F27&gt;0, CONCATENATE(F27,"*",$D$10,"+"),""), IF(G27&gt;0, CONCATENATE(G27,"*",$E$10,"+"),""), IF(H27&gt;0, CONCATENATE(H27,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(F25&gt;0, CONCATENATE(F25,"*",$D$8,"+"),""), IF(G25&gt;0, CONCATENATE(G25,"*",$E$8,"+"),""), IF(H25&gt;0, CONCATENATE(H25,"*",$F$8,"+"),""), IF(F26&gt;0, CONCATENATE(F26,"*",$D$9,"+"),""), IF(G26&gt;0, CONCATENATE(G26,"*",$E$9,"+"),""), IF(H26&gt;0, CONCATENATE(H26,"*",$F$9,"+"),""), IF(F27&gt;0, CONCATENATE(F27,"*",$D$10,"+"),""), IF(G27&gt;0, CONCATENATE(G27,"*",$E$10,"+"),""), IF(H27&gt;0, CONCATENATE(H27,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(F25*$D$8+G25*$E$8+H25*$F$8+F26*$D$9+G26*$E$9+H26*$F$9+F27*$D$10+G27*$E$10+H27*$F$10), 4))</f>
+        <v>5*2+6*3+7*7+4*6+3*7+5*2+4*3+4*5+7*3 = 185</v>
+      </c>
+      <c r="F26" s="67">
+        <f t="shared" ref="F26:F27" si="36">B5</f>
+        <v>4</v>
+      </c>
+      <c r="G26" s="67">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="H26" s="67">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="I26" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(J25&gt;0, CONCATENATE(J25,"*",$D$8,"+"),""), IF(K25&gt;0, CONCATENATE(K25,"*",$E$8,"+"),""), IF(L25&gt;0, CONCATENATE(L25,"*",$F$8,"+"),""), IF(J26&gt;0, CONCATENATE(J26,"*",$D$9,"+"),""), IF(K26&gt;0, CONCATENATE(K26,"*",$E$9,"+"),""), IF(L26&gt;0, CONCATENATE(L26,"*",$F$9,"+"),""), IF(J27&gt;0, CONCATENATE(J27,"*",$D$10,"+"),""), IF(K27&gt;0, CONCATENATE(K27,"*",$E$10,"+"),""), IF(L27&gt;0, CONCATENATE(L27,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(J25&gt;0, CONCATENATE(J25,"*",$D$8,"+"),""), IF(K25&gt;0, CONCATENATE(K25,"*",$E$8,"+"),""), IF(L25&gt;0, CONCATENATE(L25,"*",$F$8,"+"),""), IF(J26&gt;0, CONCATENATE(J26,"*",$D$9,"+"),""), IF(K26&gt;0, CONCATENATE(K26,"*",$E$9,"+"),""), IF(L26&gt;0, CONCATENATE(L26,"*",$F$9,"+"),""), IF(J27&gt;0, CONCATENATE(J27,"*",$D$10,"+"),""), IF(K27&gt;0, CONCATENATE(K27,"*",$E$10,"+"),""), IF(L27&gt;0, CONCATENATE(L27,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(J25*$D$8+K25*$E$8+L25*$F$8+J26*$D$9+K26*$E$9+L26*$F$9+J27*$D$10+K27*$E$10+L27*$F$10), 4))</f>
+        <v>6*2+7*3+2*7+3*6+5*7+3*2+4*3+7*5+5*3 = 168</v>
+      </c>
+      <c r="J26" s="67">
+        <f t="shared" ref="J26:J27" si="37">C5</f>
+        <v>3</v>
+      </c>
+      <c r="K26" s="67">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="L26" s="67">
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="M26" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(N25&gt;0, CONCATENATE(N25,"*",$D$8,"+"),""), IF(O25&gt;0, CONCATENATE(O25,"*",$E$8,"+"),""), IF(P25&gt;0, CONCATENATE(P25,"*",$F$8,"+"),""), IF(N26&gt;0, CONCATENATE(N26,"*",$D$9,"+"),""), IF(O26&gt;0, CONCATENATE(O26,"*",$E$9,"+"),""), IF(P26&gt;0, CONCATENATE(P26,"*",$F$9,"+"),""), IF(N27&gt;0, CONCATENATE(N27,"*",$D$10,"+"),""), IF(O27&gt;0, CONCATENATE(O27,"*",$E$10,"+"),""), IF(P27&gt;0, CONCATENATE(P27,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(N25&gt;0, CONCATENATE(N25,"*",$D$8,"+"),""), IF(O25&gt;0, CONCATENATE(O25,"*",$E$8,"+"),""), IF(P25&gt;0, CONCATENATE(P25,"*",$F$8,"+"),""), IF(N26&gt;0, CONCATENATE(N26,"*",$D$9,"+"),""), IF(O26&gt;0, CONCATENATE(O26,"*",$E$9,"+"),""), IF(P26&gt;0, CONCATENATE(P26,"*",$F$9,"+"),""), IF(N27&gt;0, CONCATENATE(N27,"*",$D$10,"+"),""), IF(O27&gt;0, CONCATENATE(O27,"*",$E$10,"+"),""), IF(P27&gt;0, CONCATENATE(P27,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(N25*$D$8+O25*$E$8+P25*$F$8+N26*$D$9+O26*$E$9+P26*$F$9+N27*$D$10+O27*$E$10+P27*$F$10), 4))</f>
+        <v>7*2+2*3+7*7+5*6+3*7+3*2+7*3+5*5+5*3 = 187</v>
+      </c>
+      <c r="N26" s="67">
+        <f t="shared" ref="N26:N27" si="38">D5</f>
+        <v>5</v>
+      </c>
+      <c r="O26" s="67">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="P26" s="67">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="Q26" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(R25&gt;0, CONCATENATE(R25,"*",$D$8,"+"),""), IF(S25&gt;0, CONCATENATE(S25,"*",$E$8,"+"),""), IF(T25&gt;0, CONCATENATE(T25,"*",$F$8,"+"),""), IF(R26&gt;0, CONCATENATE(R26,"*",$D$9,"+"),""), IF(S26&gt;0, CONCATENATE(S26,"*",$E$9,"+"),""), IF(T26&gt;0, CONCATENATE(T26,"*",$F$9,"+"),""), IF(R27&gt;0, CONCATENATE(R27,"*",$D$10,"+"),""), IF(S27&gt;0, CONCATENATE(S27,"*",$E$10,"+"),""), IF(T27&gt;0, CONCATENATE(T27,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(R25&gt;0, CONCATENATE(R25,"*",$D$8,"+"),""), IF(S25&gt;0, CONCATENATE(S25,"*",$E$8,"+"),""), IF(T25&gt;0, CONCATENATE(T25,"*",$F$8,"+"),""), IF(R26&gt;0, CONCATENATE(R26,"*",$D$9,"+"),""), IF(S26&gt;0, CONCATENATE(S26,"*",$E$9,"+"),""), IF(T26&gt;0, CONCATENATE(T26,"*",$F$9,"+"),""), IF(R27&gt;0, CONCATENATE(R27,"*",$D$10,"+"),""), IF(S27&gt;0, CONCATENATE(S27,"*",$E$10,"+"),""), IF(T27&gt;0, CONCATENATE(T27,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(R25*$D$8+S25*$E$8+T25*$F$8+R26*$D$9+S26*$E$9+T26*$F$9+R27*$D$10+S27*$E$10+T27*$F$10), 4))</f>
+        <v>2*2+7*3+3*6+3*7+5*3+5*5 = 104</v>
+      </c>
+      <c r="R26" s="67">
+        <f t="shared" ref="R26:R27" si="39">E5</f>
+        <v>3</v>
+      </c>
+      <c r="S26" s="67">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="T26" s="38">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="73"/>
+      <c r="B27" s="38">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="67">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="D27" s="67">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="E27" s="74"/>
+      <c r="F27" s="67">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+      <c r="G27" s="67">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="H27" s="67">
+        <f t="shared" si="31"/>
+        <v>7</v>
+      </c>
+      <c r="I27" s="74"/>
+      <c r="J27" s="67">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
+      <c r="K27" s="67">
+        <f t="shared" si="32"/>
+        <v>7</v>
+      </c>
+      <c r="L27" s="67">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="M27" s="74"/>
+      <c r="N27" s="67">
+        <f t="shared" si="38"/>
+        <v>7</v>
+      </c>
+      <c r="O27" s="67">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="P27" s="67">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="67">
+        <f t="shared" si="39"/>
+        <v>5</v>
+      </c>
+      <c r="S27" s="67">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="T27" s="38">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="73"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="73"/>
+      <c r="B29" s="38">
+        <f>A5</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="67">
+        <f t="shared" ref="C29:D29" si="40">B5</f>
+        <v>4</v>
+      </c>
+      <c r="D29" s="67">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="E29" s="74"/>
+      <c r="F29" s="67">
+        <f>B5</f>
+        <v>4</v>
+      </c>
+      <c r="G29" s="67">
+        <f t="shared" ref="G29:H31" si="41">C5</f>
+        <v>3</v>
+      </c>
+      <c r="H29" s="67">
+        <f t="shared" si="41"/>
+        <v>5</v>
+      </c>
+      <c r="I29" s="74"/>
+      <c r="J29" s="67">
+        <f>C5</f>
+        <v>3</v>
+      </c>
+      <c r="K29" s="67">
+        <f t="shared" ref="K29:L31" si="42">D5</f>
+        <v>5</v>
+      </c>
+      <c r="L29" s="67">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="M29" s="74"/>
+      <c r="N29" s="67">
+        <f>D5</f>
+        <v>5</v>
+      </c>
+      <c r="O29" s="67">
+        <f t="shared" ref="O29:P31" si="43">E5</f>
+        <v>3</v>
+      </c>
+      <c r="P29" s="67">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="67">
+        <f>E5</f>
+        <v>3</v>
+      </c>
+      <c r="S29" s="67">
+        <f t="shared" ref="S29:T31" si="44">F5</f>
+        <v>3</v>
+      </c>
+      <c r="T29" s="38">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(B29&gt;0, CONCATENATE(B29,"*",$D$8,"+"),""), IF(C29&gt;0, CONCATENATE(C29,"*",$E$8,"+"),""), IF(D29&gt;0, CONCATENATE(D29,"*",$F$8,"+"),""), IF(B30&gt;0, CONCATENATE(B30,"*",$D$9,"+"),""), IF(C30&gt;0, CONCATENATE(C30,"*",$E$9,"+"),""), IF(D30&gt;0, CONCATENATE(D30,"*",$F$9,"+"),""), IF(B31&gt;0, CONCATENATE(B31,"*",$D$10,"+"),""), IF(C31&gt;0, CONCATENATE(C31,"*",$E$10,"+"),""), IF(D31&gt;0, CONCATENATE(D31,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(B29&gt;0, CONCATENATE(B29,"*",$D$8,"+"),""), IF(C29&gt;0, CONCATENATE(C29,"*",$E$8,"+"),""), IF(D29&gt;0, CONCATENATE(D29,"*",$F$8,"+"),""), IF(B30&gt;0, CONCATENATE(B30,"*",$D$9,"+"),""), IF(C30&gt;0, CONCATENATE(C30,"*",$E$9,"+"),""), IF(D30&gt;0, CONCATENATE(D30,"*",$F$9,"+"),""), IF(B31&gt;0, CONCATENATE(B31,"*",$D$10,"+"),""), IF(C31&gt;0, CONCATENATE(C31,"*",$E$10,"+"),""), IF(D31&gt;0, CONCATENATE(D31,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(B29*$D$8+C29*$E$8+D29*$F$8+B30*$D$9+C30*$E$9+D30*$F$9+B31*$D$10+C31*$E$10+D31*$F$10), 4))</f>
+        <v>4*3+3*7+4*7+4*2 = 69</v>
+      </c>
+      <c r="B30" s="38">
+        <f t="shared" ref="B30:D31" si="45">A6</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="67">
+        <f t="shared" si="45"/>
+        <v>4</v>
+      </c>
+      <c r="D30" s="67">
+        <f t="shared" si="45"/>
+        <v>4</v>
+      </c>
+      <c r="E30" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(F29&gt;0, CONCATENATE(F29,"*",$D$8,"+"),""), IF(G29&gt;0, CONCATENATE(G29,"*",$E$8,"+"),""), IF(H29&gt;0, CONCATENATE(H29,"*",$F$8,"+"),""), IF(F30&gt;0, CONCATENATE(F30,"*",$D$9,"+"),""), IF(G30&gt;0, CONCATENATE(G30,"*",$E$9,"+"),""), IF(H30&gt;0, CONCATENATE(H30,"*",$F$9,"+"),""), IF(F31&gt;0, CONCATENATE(F31,"*",$D$10,"+"),""), IF(G31&gt;0, CONCATENATE(G31,"*",$E$10,"+"),""), IF(H31&gt;0, CONCATENATE(H31,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(F29&gt;0, CONCATENATE(F29,"*",$D$8,"+"),""), IF(G29&gt;0, CONCATENATE(G29,"*",$E$8,"+"),""), IF(H29&gt;0, CONCATENATE(H29,"*",$F$8,"+"),""), IF(F30&gt;0, CONCATENATE(F30,"*",$D$9,"+"),""), IF(G30&gt;0, CONCATENATE(G30,"*",$E$9,"+"),""), IF(H30&gt;0, CONCATENATE(H30,"*",$F$9,"+"),""), IF(F31&gt;0, CONCATENATE(F31,"*",$D$10,"+"),""), IF(G31&gt;0, CONCATENATE(G31,"*",$E$10,"+"),""), IF(H31&gt;0, CONCATENATE(H31,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(F29*$D$8+G29*$E$8+H29*$F$8+F30*$D$9+G30*$E$9+H30*$F$9+F31*$D$10+G31*$E$10+H31*$F$10), 4))</f>
+        <v>4*2+3*3+5*7+4*6+4*7+7*2 = 118</v>
+      </c>
+      <c r="F30" s="67">
+        <f t="shared" ref="F30:F31" si="46">B6</f>
+        <v>4</v>
+      </c>
+      <c r="G30" s="67">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="H30" s="67">
+        <f t="shared" si="41"/>
+        <v>7</v>
+      </c>
+      <c r="I30" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(J29&gt;0, CONCATENATE(J29,"*",$D$8,"+"),""), IF(K29&gt;0, CONCATENATE(K29,"*",$E$8,"+"),""), IF(L29&gt;0, CONCATENATE(L29,"*",$F$8,"+"),""), IF(J30&gt;0, CONCATENATE(J30,"*",$D$9,"+"),""), IF(K30&gt;0, CONCATENATE(K30,"*",$E$9,"+"),""), IF(L30&gt;0, CONCATENATE(L30,"*",$F$9,"+"),""), IF(J31&gt;0, CONCATENATE(J31,"*",$D$10,"+"),""), IF(K31&gt;0, CONCATENATE(K31,"*",$E$10,"+"),""), IF(L31&gt;0, CONCATENATE(L31,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(J29&gt;0, CONCATENATE(J29,"*",$D$8,"+"),""), IF(K29&gt;0, CONCATENATE(K29,"*",$E$8,"+"),""), IF(L29&gt;0, CONCATENATE(L29,"*",$F$8,"+"),""), IF(J30&gt;0, CONCATENATE(J30,"*",$D$9,"+"),""), IF(K30&gt;0, CONCATENATE(K30,"*",$E$9,"+"),""), IF(L30&gt;0, CONCATENATE(L30,"*",$F$9,"+"),""), IF(J31&gt;0, CONCATENATE(J31,"*",$D$10,"+"),""), IF(K31&gt;0, CONCATENATE(K31,"*",$E$10,"+"),""), IF(L31&gt;0, CONCATENATE(L31,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(J29*$D$8+K29*$E$8+L29*$F$8+J30*$D$9+K30*$E$9+L30*$F$9+J31*$D$10+K31*$E$10+L31*$F$10), 4))</f>
+        <v>3*2+5*3+3*7+4*6+7*7+5*2 = 125</v>
+      </c>
+      <c r="J30" s="67">
+        <f t="shared" ref="J30:J31" si="47">C6</f>
+        <v>4</v>
+      </c>
+      <c r="K30" s="67">
+        <f t="shared" si="42"/>
+        <v>7</v>
+      </c>
+      <c r="L30" s="67">
+        <f t="shared" si="42"/>
+        <v>5</v>
+      </c>
+      <c r="M30" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(N29&gt;0, CONCATENATE(N29,"*",$D$8,"+"),""), IF(O29&gt;0, CONCATENATE(O29,"*",$E$8,"+"),""), IF(P29&gt;0, CONCATENATE(P29,"*",$F$8,"+"),""), IF(N30&gt;0, CONCATENATE(N30,"*",$D$9,"+"),""), IF(O30&gt;0, CONCATENATE(O30,"*",$E$9,"+"),""), IF(P30&gt;0, CONCATENATE(P30,"*",$F$9,"+"),""), IF(N31&gt;0, CONCATENATE(N31,"*",$D$10,"+"),""), IF(O31&gt;0, CONCATENATE(O31,"*",$E$10,"+"),""), IF(P31&gt;0, CONCATENATE(P31,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(N29&gt;0, CONCATENATE(N29,"*",$D$8,"+"),""), IF(O29&gt;0, CONCATENATE(O29,"*",$E$8,"+"),""), IF(P29&gt;0, CONCATENATE(P29,"*",$F$8,"+"),""), IF(N30&gt;0, CONCATENATE(N30,"*",$D$9,"+"),""), IF(O30&gt;0, CONCATENATE(O30,"*",$E$9,"+"),""), IF(P30&gt;0, CONCATENATE(P30,"*",$F$9,"+"),""), IF(N31&gt;0, CONCATENATE(N31,"*",$D$10,"+"),""), IF(O31&gt;0, CONCATENATE(O31,"*",$E$10,"+"),""), IF(P31&gt;0, CONCATENATE(P31,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(N29*$D$8+O29*$E$8+P29*$F$8+N30*$D$9+O30*$E$9+P30*$F$9+N31*$D$10+O31*$E$10+P31*$F$10), 4))</f>
+        <v>5*2+3*3+3*7+7*6+5*7+5*2 = 127</v>
+      </c>
+      <c r="N30" s="67">
+        <f t="shared" ref="N30:N31" si="48">D6</f>
+        <v>7</v>
+      </c>
+      <c r="O30" s="67">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="P30" s="67">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="Q30" s="73" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(IF(R29&gt;0, CONCATENATE(R29,"*",$D$8,"+"),""), IF(S29&gt;0, CONCATENATE(S29,"*",$E$8,"+"),""), IF(T29&gt;0, CONCATENATE(T29,"*",$F$8,"+"),""), IF(R30&gt;0, CONCATENATE(R30,"*",$D$9,"+"),""), IF(S30&gt;0, CONCATENATE(S30,"*",$E$9,"+"),""), IF(T30&gt;0, CONCATENATE(T30,"*",$F$9,"+"),""), IF(R31&gt;0, CONCATENATE(R31,"*",$D$10,"+"),""), IF(S31&gt;0, CONCATENATE(S31,"*",$E$10,"+"),""), IF(T31&gt;0, CONCATENATE(T31,"*",$F$10,"+"),"")), LEN(CONCATENATE(IF(R29&gt;0, CONCATENATE(R29,"*",$D$8,"+"),""), IF(S29&gt;0, CONCATENATE(S29,"*",$E$8,"+"),""), IF(T29&gt;0, CONCATENATE(T29,"*",$F$8,"+"),""), IF(R30&gt;0, CONCATENATE(R30,"*",$D$9,"+"),""), IF(S30&gt;0, CONCATENATE(S30,"*",$E$9,"+"),""), IF(T30&gt;0, CONCATENATE(T30,"*",$F$9,"+"),""), IF(R31&gt;0, CONCATENATE(R31,"*",$D$10,"+"),""), IF(S31&gt;0, CONCATENATE(S31,"*",$E$10,"+"),""), IF(T31&gt;0, CONCATENATE(T31,"*",$F$10,"+"),"")))-1), " = ", ROUND($C$9*(R29*$D$8+S29*$E$8+T29*$F$8+R30*$D$9+S30*$E$9+T30*$F$9+R31*$D$10+S31*$E$10+T31*$F$10), 4))</f>
+        <v>3*2+3*3+5*6+5*7 = 80</v>
+      </c>
+      <c r="R30" s="67">
+        <f t="shared" ref="R30:R31" si="49">E6</f>
+        <v>5</v>
+      </c>
+      <c r="S30" s="67">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="T30" s="38">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="73"/>
+      <c r="B31" s="38">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="38">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="38">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="74"/>
+      <c r="F31" s="38">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="38">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="38">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="74"/>
+      <c r="J31" s="38">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="38">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="38">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="74"/>
+      <c r="N31" s="38">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="38">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="38">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="38">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="38">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="38">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="89" t="str">
+        <f>A14</f>
+        <v>5*7+7*2+2*5+2*3 = 65</v>
+      </c>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="91"/>
+    </row>
+    <row r="35" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="89" t="str">
+        <f>E14</f>
+        <v>5*6+7*7+6*2+2*3+2*5+3*3 = 116</v>
+      </c>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="90"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="90"/>
+      <c r="Q35" s="90"/>
+      <c r="R35" s="90"/>
+      <c r="S35" s="90"/>
+      <c r="T35" s="90"/>
+      <c r="U35" s="91"/>
+    </row>
+    <row r="37" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="89" t="str">
+        <f>I14</f>
+        <v>7*6+6*7+4*2+2*3+3*5+7*3 = 134</v>
+      </c>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="90"/>
+      <c r="U37" s="91"/>
+    </row>
+    <row r="39" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="89" t="str">
+        <f>M14</f>
+        <v>6*6+4*7+3*2+3*3+7*5+5*3 = 129</v>
+      </c>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="90"/>
+      <c r="O39" s="90"/>
+      <c r="P39" s="90"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="90"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="90"/>
+      <c r="U39" s="91"/>
+    </row>
+    <row r="41" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="89" t="str">
+        <f>Q14</f>
+        <v>4*6+3*7+7*3+5*5 = 91</v>
+      </c>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="90"/>
+      <c r="Q41" s="90"/>
+      <c r="R41" s="90"/>
+      <c r="S41" s="90"/>
+      <c r="T41" s="90"/>
+      <c r="U41" s="91"/>
+    </row>
+    <row r="43" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="89" t="str">
+        <f>A18</f>
+        <v>5*3+7*7+2*7+2*2+5*5+6*3 = 125</v>
+      </c>
+      <c r="C43" s="90"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="90"/>
+      <c r="N43" s="90"/>
+      <c r="O43" s="90"/>
+      <c r="P43" s="90"/>
+      <c r="Q43" s="90"/>
+      <c r="R43" s="90"/>
+      <c r="S43" s="90"/>
+      <c r="T43" s="90"/>
+      <c r="U43" s="91"/>
+    </row>
+    <row r="45" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="89" t="str">
+        <f>E18</f>
+        <v>5*2+7*3+6*7+2*6+2*7+3*2+5*3+6*5+7*3 = 171</v>
+      </c>
+      <c r="C45" s="90"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="90"/>
+      <c r="K45" s="90"/>
+      <c r="L45" s="90"/>
+      <c r="M45" s="90"/>
+      <c r="N45" s="90"/>
+      <c r="O45" s="90"/>
+      <c r="P45" s="90"/>
+      <c r="Q45" s="90"/>
+      <c r="R45" s="90"/>
+      <c r="S45" s="90"/>
+      <c r="T45" s="90"/>
+      <c r="U45" s="91"/>
+    </row>
+    <row r="47" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="89" t="str">
+        <f>I18</f>
+        <v>7*2+6*3+4*7+2*6+3*7+7*2+6*3+7*5+2*3 = 166</v>
+      </c>
+      <c r="C47" s="90"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="90"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="90"/>
+      <c r="N47" s="90"/>
+      <c r="O47" s="90"/>
+      <c r="P47" s="90"/>
+      <c r="Q47" s="90"/>
+      <c r="R47" s="90"/>
+      <c r="S47" s="90"/>
+      <c r="T47" s="90"/>
+      <c r="U47" s="91"/>
+    </row>
+    <row r="49" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="89" t="str">
+        <f>M18</f>
+        <v>6*2+4*3+3*7+3*6+7*7+5*2+7*3+2*5+7*3 = 174</v>
+      </c>
+      <c r="C49" s="90"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="90"/>
+      <c r="K49" s="90"/>
+      <c r="L49" s="90"/>
+      <c r="M49" s="90"/>
+      <c r="N49" s="90"/>
+      <c r="O49" s="90"/>
+      <c r="P49" s="90"/>
+      <c r="Q49" s="90"/>
+      <c r="R49" s="90"/>
+      <c r="S49" s="90"/>
+      <c r="T49" s="90"/>
+      <c r="U49" s="91"/>
+    </row>
+    <row r="51" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="89" t="str">
+        <f>Q18</f>
+        <v>4*2+3*3+7*6+5*7+2*3+7*5 = 135</v>
+      </c>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="90"/>
+      <c r="N51" s="90"/>
+      <c r="O51" s="90"/>
+      <c r="P51" s="90"/>
+      <c r="Q51" s="90"/>
+      <c r="R51" s="90"/>
+      <c r="S51" s="90"/>
+      <c r="T51" s="90"/>
+      <c r="U51" s="91"/>
+    </row>
+    <row r="53" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="89" t="str">
+        <f>A22</f>
+        <v>2*3+2*7+5*7+6*2+4*5+3*3 = 96</v>
+      </c>
+      <c r="C53" s="90"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="90"/>
+      <c r="M53" s="90"/>
+      <c r="N53" s="90"/>
+      <c r="O53" s="90"/>
+      <c r="P53" s="90"/>
+      <c r="Q53" s="90"/>
+      <c r="R53" s="90"/>
+      <c r="S53" s="90"/>
+      <c r="T53" s="90"/>
+      <c r="U53" s="91"/>
+    </row>
+    <row r="55" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="89" t="str">
+        <f>E22</f>
+        <v>2*2+2*3+3*7+5*6+6*7+7*2+4*3+3*5+5*3 = 159</v>
+      </c>
+      <c r="C55" s="90"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="90"/>
+      <c r="J55" s="90"/>
+      <c r="K55" s="90"/>
+      <c r="L55" s="90"/>
+      <c r="M55" s="90"/>
+      <c r="N55" s="90"/>
+      <c r="O55" s="90"/>
+      <c r="P55" s="90"/>
+      <c r="Q55" s="90"/>
+      <c r="R55" s="90"/>
+      <c r="S55" s="90"/>
+      <c r="T55" s="90"/>
+      <c r="U55" s="91"/>
+    </row>
+    <row r="57" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="89" t="str">
+        <f>I22</f>
+        <v>2*2+3*3+7*7+6*6+7*7+2*2+3*3+5*5+3*3 = 194</v>
+      </c>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="90"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="90"/>
+      <c r="N57" s="90"/>
+      <c r="O57" s="90"/>
+      <c r="P57" s="90"/>
+      <c r="Q57" s="90"/>
+      <c r="R57" s="90"/>
+      <c r="S57" s="90"/>
+      <c r="T57" s="90"/>
+      <c r="U57" s="91"/>
+    </row>
+    <row r="59" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="89" t="str">
+        <f>M22</f>
+        <v>3*2+7*3+5*7+7*6+2*7+7*2+5*3+3*5+3*3 = 171</v>
+      </c>
+      <c r="C59" s="90"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="90"/>
+      <c r="J59" s="90"/>
+      <c r="K59" s="90"/>
+      <c r="L59" s="90"/>
+      <c r="M59" s="90"/>
+      <c r="N59" s="90"/>
+      <c r="O59" s="90"/>
+      <c r="P59" s="90"/>
+      <c r="Q59" s="90"/>
+      <c r="R59" s="90"/>
+      <c r="S59" s="90"/>
+      <c r="T59" s="90"/>
+      <c r="U59" s="91"/>
+    </row>
+    <row r="61" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="89" t="str">
+        <f>Q22</f>
+        <v>7*2+5*3+2*6+7*7+3*3+3*5 = 114</v>
+      </c>
+      <c r="C61" s="90"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="90"/>
+      <c r="K61" s="90"/>
+      <c r="L61" s="90"/>
+      <c r="M61" s="90"/>
+      <c r="N61" s="90"/>
+      <c r="O61" s="90"/>
+      <c r="P61" s="90"/>
+      <c r="Q61" s="90"/>
+      <c r="R61" s="90"/>
+      <c r="S61" s="90"/>
+      <c r="T61" s="90"/>
+      <c r="U61" s="91"/>
+    </row>
+    <row r="63" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="89" t="str">
+        <f>A26</f>
+        <v>5*3+6*7+4*7+3*2+4*5+4*3 = 123</v>
+      </c>
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="90"/>
+      <c r="J63" s="90"/>
+      <c r="K63" s="90"/>
+      <c r="L63" s="90"/>
+      <c r="M63" s="90"/>
+      <c r="N63" s="90"/>
+      <c r="O63" s="90"/>
+      <c r="P63" s="90"/>
+      <c r="Q63" s="90"/>
+      <c r="R63" s="90"/>
+      <c r="S63" s="90"/>
+      <c r="T63" s="90"/>
+      <c r="U63" s="91"/>
+    </row>
+    <row r="65" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="89" t="str">
+        <f>E26</f>
+        <v>5*2+6*3+7*7+4*6+3*7+5*2+4*3+4*5+7*3 = 185</v>
+      </c>
+      <c r="C65" s="90"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="90"/>
+      <c r="F65" s="90"/>
+      <c r="G65" s="90"/>
+      <c r="H65" s="90"/>
+      <c r="I65" s="90"/>
+      <c r="J65" s="90"/>
+      <c r="K65" s="90"/>
+      <c r="L65" s="90"/>
+      <c r="M65" s="90"/>
+      <c r="N65" s="90"/>
+      <c r="O65" s="90"/>
+      <c r="P65" s="90"/>
+      <c r="Q65" s="90"/>
+      <c r="R65" s="90"/>
+      <c r="S65" s="90"/>
+      <c r="T65" s="90"/>
+      <c r="U65" s="91"/>
+    </row>
+    <row r="67" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A67" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="89" t="str">
+        <f>I26</f>
+        <v>6*2+7*3+2*7+3*6+5*7+3*2+4*3+7*5+5*3 = 168</v>
+      </c>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
+      <c r="G67" s="90"/>
+      <c r="H67" s="90"/>
+      <c r="I67" s="90"/>
+      <c r="J67" s="90"/>
+      <c r="K67" s="90"/>
+      <c r="L67" s="90"/>
+      <c r="M67" s="90"/>
+      <c r="N67" s="90"/>
+      <c r="O67" s="90"/>
+      <c r="P67" s="90"/>
+      <c r="Q67" s="90"/>
+      <c r="R67" s="90"/>
+      <c r="S67" s="90"/>
+      <c r="T67" s="90"/>
+      <c r="U67" s="91"/>
+    </row>
+    <row r="69" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="89" t="str">
+        <f>M26</f>
+        <v>7*2+2*3+7*7+5*6+3*7+3*2+7*3+5*5+5*3 = 187</v>
+      </c>
+      <c r="C69" s="90"/>
+      <c r="D69" s="90"/>
+      <c r="E69" s="90"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="90"/>
+      <c r="K69" s="90"/>
+      <c r="L69" s="90"/>
+      <c r="M69" s="90"/>
+      <c r="N69" s="90"/>
+      <c r="O69" s="90"/>
+      <c r="P69" s="90"/>
+      <c r="Q69" s="90"/>
+      <c r="R69" s="90"/>
+      <c r="S69" s="90"/>
+      <c r="T69" s="90"/>
+      <c r="U69" s="91"/>
+    </row>
+    <row r="71" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A71" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="89" t="str">
+        <f>Q26</f>
+        <v>2*2+7*3+3*6+3*7+5*3+5*5 = 104</v>
+      </c>
+      <c r="C71" s="90"/>
+      <c r="D71" s="90"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="90"/>
+      <c r="G71" s="90"/>
+      <c r="H71" s="90"/>
+      <c r="I71" s="90"/>
+      <c r="J71" s="90"/>
+      <c r="K71" s="90"/>
+      <c r="L71" s="90"/>
+      <c r="M71" s="90"/>
+      <c r="N71" s="90"/>
+      <c r="O71" s="90"/>
+      <c r="P71" s="90"/>
+      <c r="Q71" s="90"/>
+      <c r="R71" s="90"/>
+      <c r="S71" s="90"/>
+      <c r="T71" s="90"/>
+      <c r="U71" s="91"/>
+    </row>
+    <row r="73" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A73" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="89" t="str">
+        <f>A30</f>
+        <v>4*3+3*7+4*7+4*2 = 69</v>
+      </c>
+      <c r="C73" s="90"/>
+      <c r="D73" s="90"/>
+      <c r="E73" s="90"/>
+      <c r="F73" s="90"/>
+      <c r="G73" s="90"/>
+      <c r="H73" s="90"/>
+      <c r="I73" s="90"/>
+      <c r="J73" s="90"/>
+      <c r="K73" s="90"/>
+      <c r="L73" s="90"/>
+      <c r="M73" s="90"/>
+      <c r="N73" s="90"/>
+      <c r="O73" s="90"/>
+      <c r="P73" s="90"/>
+      <c r="Q73" s="90"/>
+      <c r="R73" s="90"/>
+      <c r="S73" s="90"/>
+      <c r="T73" s="90"/>
+      <c r="U73" s="91"/>
+    </row>
+    <row r="75" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="89" t="str">
+        <f>E30</f>
+        <v>4*2+3*3+5*7+4*6+4*7+7*2 = 118</v>
+      </c>
+      <c r="C75" s="90"/>
+      <c r="D75" s="90"/>
+      <c r="E75" s="90"/>
+      <c r="F75" s="90"/>
+      <c r="G75" s="90"/>
+      <c r="H75" s="90"/>
+      <c r="I75" s="90"/>
+      <c r="J75" s="90"/>
+      <c r="K75" s="90"/>
+      <c r="L75" s="90"/>
+      <c r="M75" s="90"/>
+      <c r="N75" s="90"/>
+      <c r="O75" s="90"/>
+      <c r="P75" s="90"/>
+      <c r="Q75" s="90"/>
+      <c r="R75" s="90"/>
+      <c r="S75" s="90"/>
+      <c r="T75" s="90"/>
+      <c r="U75" s="91"/>
+    </row>
+    <row r="77" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="89" t="str">
+        <f>I30</f>
+        <v>3*2+5*3+3*7+4*6+7*7+5*2 = 125</v>
+      </c>
+      <c r="C77" s="90"/>
+      <c r="D77" s="90"/>
+      <c r="E77" s="90"/>
+      <c r="F77" s="90"/>
+      <c r="G77" s="90"/>
+      <c r="H77" s="90"/>
+      <c r="I77" s="90"/>
+      <c r="J77" s="90"/>
+      <c r="K77" s="90"/>
+      <c r="L77" s="90"/>
+      <c r="M77" s="90"/>
+      <c r="N77" s="90"/>
+      <c r="O77" s="90"/>
+      <c r="P77" s="90"/>
+      <c r="Q77" s="90"/>
+      <c r="R77" s="90"/>
+      <c r="S77" s="90"/>
+      <c r="T77" s="90"/>
+      <c r="U77" s="91"/>
+    </row>
+    <row r="79" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="89" t="str">
+        <f>M30</f>
+        <v>5*2+3*3+3*7+7*6+5*7+5*2 = 127</v>
+      </c>
+      <c r="C79" s="90"/>
+      <c r="D79" s="90"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="90"/>
+      <c r="H79" s="90"/>
+      <c r="I79" s="90"/>
+      <c r="J79" s="90"/>
+      <c r="K79" s="90"/>
+      <c r="L79" s="90"/>
+      <c r="M79" s="90"/>
+      <c r="N79" s="90"/>
+      <c r="O79" s="90"/>
+      <c r="P79" s="90"/>
+      <c r="Q79" s="90"/>
+      <c r="R79" s="90"/>
+      <c r="S79" s="90"/>
+      <c r="T79" s="90"/>
+      <c r="U79" s="91"/>
+    </row>
+    <row r="81" spans="1:21" ht="99" x14ac:dyDescent="3.95">
+      <c r="A81" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" s="89" t="str">
+        <f>Q30</f>
+        <v>3*2+3*3+5*6+5*7 = 80</v>
+      </c>
+      <c r="C81" s="90"/>
+      <c r="D81" s="90"/>
+      <c r="E81" s="90"/>
+      <c r="F81" s="90"/>
+      <c r="G81" s="90"/>
+      <c r="H81" s="90"/>
+      <c r="I81" s="90"/>
+      <c r="J81" s="90"/>
+      <c r="K81" s="90"/>
+      <c r="L81" s="90"/>
+      <c r="M81" s="90"/>
+      <c r="N81" s="90"/>
+      <c r="O81" s="90"/>
+      <c r="P81" s="90"/>
+      <c r="Q81" s="90"/>
+      <c r="R81" s="90"/>
+      <c r="S81" s="90"/>
+      <c r="T81" s="90"/>
+      <c r="U81" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B81:U81"/>
+    <mergeCell ref="B69:U69"/>
+    <mergeCell ref="B71:U71"/>
+    <mergeCell ref="B73:U73"/>
+    <mergeCell ref="B75:U75"/>
+    <mergeCell ref="B77:U77"/>
+    <mergeCell ref="B79:U79"/>
+    <mergeCell ref="B67:U67"/>
+    <mergeCell ref="B45:U45"/>
+    <mergeCell ref="B47:U47"/>
+    <mergeCell ref="B49:U49"/>
+    <mergeCell ref="B51:U51"/>
+    <mergeCell ref="B53:U53"/>
+    <mergeCell ref="B55:U55"/>
+    <mergeCell ref="B57:U57"/>
+    <mergeCell ref="B59:U59"/>
+    <mergeCell ref="B61:U61"/>
+    <mergeCell ref="B63:U63"/>
+    <mergeCell ref="B65:U65"/>
+    <mergeCell ref="B43:U43"/>
+    <mergeCell ref="B33:U33"/>
+    <mergeCell ref="B35:U35"/>
+    <mergeCell ref="B37:U37"/>
+    <mergeCell ref="B39:U39"/>
+    <mergeCell ref="B41:U41"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>